--- a/capture.xlsx
+++ b/capture.xlsx
@@ -16,9 +16,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
     <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="166" formatCode="yyyy-mm-dd"/>
+    <numFmt numFmtId="167" formatCode="YYYY-MM-DD"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -58,12 +60,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -429,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F42"/>
+  <dimension ref="A1:F50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1536,6 +1539,198 @@
         <v>1</v>
       </c>
     </row>
+    <row r="43">
+      <c r="A43" s="1" t="inlineStr"/>
+      <c r="B43" s="3" t="n">
+        <v>44924</v>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t xml:space="preserve">suspend                  </t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>to officially stop something or somebody for a time/to hang something from something else</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>Production has been suspended while safety checks are carried out/A lamp was suspended from the ceiling.</t>
+        </is>
+      </c>
+      <c r="F43" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="inlineStr"/>
+      <c r="B44" s="3" t="n">
+        <v>44924</v>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t xml:space="preserve">sweep                    </t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>to clean a room/push something with a lot of force</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>to sweep the floor/ the little boat was swept out to sea</t>
+        </is>
+      </c>
+      <c r="F44" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="inlineStr"/>
+      <c r="B45" s="3" t="n">
+        <v>44924</v>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t xml:space="preserve">tackle                   </t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>to make a determined effort to deal with a difficult problem or situation</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>Firefighters tackled a blaze in a garage last night</t>
+        </is>
+      </c>
+      <c r="F45" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="inlineStr"/>
+      <c r="B46" s="3" t="n">
+        <v>44924</v>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t xml:space="preserve">tale </t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>a story</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>The story is a classic tale of love and betrayal.</t>
+        </is>
+      </c>
+      <c r="F46" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="inlineStr"/>
+      <c r="B47" s="3" t="n">
+        <v>44924</v>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t xml:space="preserve">tension                  </t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>a situation in which people do not trust each other, or feel unfriendly</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>Family tensions and conflicts may lead to violence</t>
+        </is>
+      </c>
+      <c r="F47" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="inlineStr"/>
+      <c r="B48" s="3" t="n">
+        <v>44924</v>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t xml:space="preserve">thorough                 </t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>done completely; with great attention to detail</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>a thorough knowledge of the subject</t>
+        </is>
+      </c>
+      <c r="F48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="inlineStr"/>
+      <c r="B49" s="3" t="n">
+        <v>44924</v>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t xml:space="preserve">tissue                   </t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>a piece of soft paper, used especially as a handkerchief</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>a box of tissues</t>
+        </is>
+      </c>
+      <c r="F49" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="inlineStr"/>
+      <c r="B50" s="3" t="n">
+        <v>44924</v>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t xml:space="preserve">trace       </t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>to find or discover somebody/something by looking carefully for them/it  OR / gentally touch</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>We finally traced him to an address in Chicago /She lightly traced the outline of his face with her finger</t>
+        </is>
+      </c>
+      <c r="F50" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/capture.xlsx
+++ b/capture.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G60"/>
+  <dimension ref="A1:G69"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -497,10 +497,10 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>44926</v>
+        <v>44928</v>
       </c>
     </row>
     <row r="3">
@@ -526,10 +526,10 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>44926</v>
+        <v>44928</v>
       </c>
     </row>
     <row r="4">
@@ -555,10 +555,10 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>44926</v>
+        <v>44928</v>
       </c>
     </row>
     <row r="5">
@@ -584,10 +584,10 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>44926</v>
+        <v>44928</v>
       </c>
     </row>
     <row r="6">
@@ -613,10 +613,10 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>44926</v>
+        <v>44928</v>
       </c>
     </row>
     <row r="7">
@@ -642,10 +642,10 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>44926</v>
+        <v>44928</v>
       </c>
     </row>
     <row r="8">
@@ -671,10 +671,10 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G8" s="2" t="n">
-        <v>44926</v>
+        <v>44928</v>
       </c>
     </row>
     <row r="9">
@@ -700,10 +700,10 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G9" s="2" t="n">
-        <v>44926</v>
+        <v>44928</v>
       </c>
     </row>
     <row r="10">
@@ -729,10 +729,10 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G10" s="2" t="n">
-        <v>44926</v>
+        <v>44928</v>
       </c>
     </row>
     <row r="11">
@@ -758,10 +758,10 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G11" s="2" t="n">
-        <v>44926</v>
+        <v>44928</v>
       </c>
     </row>
     <row r="12">
@@ -787,10 +787,10 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G12" s="2" t="n">
-        <v>44926</v>
+        <v>44928</v>
       </c>
     </row>
     <row r="13">
@@ -816,10 +816,10 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G13" s="2" t="n">
-        <v>44926</v>
+        <v>44928</v>
       </c>
     </row>
     <row r="14">
@@ -845,10 +845,10 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G14" s="2" t="n">
-        <v>44926</v>
+        <v>44928</v>
       </c>
     </row>
     <row r="15">
@@ -874,10 +874,10 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G15" s="2" t="n">
-        <v>44926</v>
+        <v>44928</v>
       </c>
     </row>
     <row r="16">
@@ -903,10 +903,10 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G16" s="2" t="n">
-        <v>44926</v>
+        <v>44928</v>
       </c>
     </row>
     <row r="17">
@@ -932,10 +932,10 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G17" s="2" t="n">
-        <v>44926</v>
+        <v>44928</v>
       </c>
     </row>
     <row r="18">
@@ -961,10 +961,10 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G18" s="2" t="n">
-        <v>44926</v>
+        <v>44928</v>
       </c>
     </row>
     <row r="19">
@@ -990,10 +990,10 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G19" s="2" t="n">
-        <v>44926</v>
+        <v>44928</v>
       </c>
     </row>
     <row r="20">
@@ -1019,10 +1019,10 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G20" s="2" t="n">
-        <v>44926</v>
+        <v>44928</v>
       </c>
     </row>
     <row r="21">
@@ -1048,10 +1048,10 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G21" s="2" t="n">
-        <v>44926</v>
+        <v>44928</v>
       </c>
     </row>
     <row r="22">
@@ -1077,10 +1077,10 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G22" s="2" t="n">
-        <v>44926</v>
+        <v>44928</v>
       </c>
     </row>
     <row r="23">
@@ -1107,10 +1107,10 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G23" s="2" t="n">
-        <v>44926</v>
+        <v>44928</v>
       </c>
     </row>
     <row r="24">
@@ -1136,10 +1136,10 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G24" s="2" t="n">
-        <v>44926</v>
+        <v>44928</v>
       </c>
     </row>
     <row r="25">
@@ -1165,10 +1165,10 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G25" s="2" t="n">
-        <v>44926</v>
+        <v>44928</v>
       </c>
     </row>
     <row r="26">
@@ -1194,10 +1194,10 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G26" s="2" t="n">
-        <v>44926</v>
+        <v>44928</v>
       </c>
     </row>
     <row r="27">
@@ -1223,10 +1223,10 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G27" s="2" t="n">
-        <v>44926</v>
+        <v>44928</v>
       </c>
     </row>
     <row r="28">
@@ -1252,10 +1252,10 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G28" s="2" t="n">
-        <v>44926</v>
+        <v>44928</v>
       </c>
     </row>
     <row r="29">
@@ -1281,10 +1281,10 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G29" s="2" t="n">
-        <v>44926</v>
+        <v>44928</v>
       </c>
     </row>
     <row r="30">
@@ -1310,10 +1310,10 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G30" s="2" t="n">
-        <v>44926</v>
+        <v>44928</v>
       </c>
     </row>
     <row r="31">
@@ -1339,10 +1339,10 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G31" s="2" t="n">
-        <v>44926</v>
+        <v>44928</v>
       </c>
     </row>
     <row r="32">
@@ -1368,10 +1368,10 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G32" s="2" t="n">
-        <v>44926</v>
+        <v>44928</v>
       </c>
     </row>
     <row r="33">
@@ -1397,10 +1397,10 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G33" s="2" t="n">
-        <v>44926</v>
+        <v>44928</v>
       </c>
     </row>
     <row r="34">
@@ -1426,10 +1426,10 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G34" s="2" t="n">
-        <v>44926</v>
+        <v>44928</v>
       </c>
     </row>
     <row r="35">
@@ -1455,10 +1455,10 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G35" s="2" t="n">
-        <v>44926</v>
+        <v>44928</v>
       </c>
     </row>
     <row r="36">
@@ -1484,10 +1484,10 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G36" s="2" t="n">
-        <v>44926</v>
+        <v>44928</v>
       </c>
     </row>
     <row r="37">
@@ -1513,10 +1513,10 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G37" s="2" t="n">
-        <v>44926</v>
+        <v>44928</v>
       </c>
     </row>
     <row r="38">
@@ -1542,10 +1542,10 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G38" s="2" t="n">
-        <v>44926</v>
+        <v>44928</v>
       </c>
     </row>
     <row r="39">
@@ -1571,10 +1571,10 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G39" s="2" t="n">
-        <v>44926</v>
+        <v>44928</v>
       </c>
     </row>
     <row r="40">
@@ -1600,10 +1600,10 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G40" s="2" t="n">
-        <v>44926</v>
+        <v>44928</v>
       </c>
     </row>
     <row r="41">
@@ -1629,10 +1629,10 @@
         </is>
       </c>
       <c r="F41" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G41" s="2" t="n">
-        <v>44926</v>
+        <v>44928</v>
       </c>
     </row>
     <row r="42">
@@ -1658,10 +1658,10 @@
         </is>
       </c>
       <c r="F42" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G42" s="2" t="n">
-        <v>44926</v>
+        <v>44928</v>
       </c>
     </row>
     <row r="43">
@@ -1685,10 +1685,10 @@
         </is>
       </c>
       <c r="F43" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G43" s="2" t="n">
-        <v>44926</v>
+        <v>44928</v>
       </c>
     </row>
     <row r="44">
@@ -1712,10 +1712,10 @@
         </is>
       </c>
       <c r="F44" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G44" s="2" t="n">
-        <v>44926</v>
+        <v>44928</v>
       </c>
     </row>
     <row r="45">
@@ -1739,10 +1739,10 @@
         </is>
       </c>
       <c r="F45" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G45" s="2" t="n">
-        <v>44926</v>
+        <v>44928</v>
       </c>
     </row>
     <row r="46">
@@ -1766,10 +1766,10 @@
         </is>
       </c>
       <c r="F46" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G46" s="2" t="n">
-        <v>44926</v>
+        <v>44928</v>
       </c>
     </row>
     <row r="47">
@@ -1793,10 +1793,10 @@
         </is>
       </c>
       <c r="F47" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G47" s="2" t="n">
-        <v>44926</v>
+        <v>44928</v>
       </c>
     </row>
     <row r="48">
@@ -1820,10 +1820,10 @@
         </is>
       </c>
       <c r="F48" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G48" s="2" t="n">
-        <v>44926</v>
+        <v>44928</v>
       </c>
     </row>
     <row r="49">
@@ -1847,10 +1847,10 @@
         </is>
       </c>
       <c r="F49" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G49" s="2" t="n">
-        <v>44926</v>
+        <v>44928</v>
       </c>
     </row>
     <row r="50">
@@ -1874,10 +1874,10 @@
         </is>
       </c>
       <c r="F50" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G50" s="2" t="n">
-        <v>44926</v>
+        <v>44928</v>
       </c>
     </row>
     <row r="51">
@@ -1901,10 +1901,10 @@
         </is>
       </c>
       <c r="F51" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G51" s="2" t="n">
-        <v>44926</v>
+        <v>44928</v>
       </c>
     </row>
     <row r="52">
@@ -1928,10 +1928,10 @@
         </is>
       </c>
       <c r="F52" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G52" s="2" t="n">
-        <v>44926</v>
+        <v>44928</v>
       </c>
     </row>
     <row r="53">
@@ -1955,10 +1955,10 @@
         </is>
       </c>
       <c r="F53" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G53" s="2" t="n">
-        <v>44926</v>
+        <v>44928</v>
       </c>
     </row>
     <row r="54">
@@ -1982,10 +1982,10 @@
         </is>
       </c>
       <c r="F54" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G54" s="2" t="n">
-        <v>44926</v>
+        <v>44928</v>
       </c>
     </row>
     <row r="55">
@@ -2009,10 +2009,10 @@
         </is>
       </c>
       <c r="F55" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G55" s="2" t="n">
-        <v>44926</v>
+        <v>44928</v>
       </c>
     </row>
     <row r="56">
@@ -2036,10 +2036,10 @@
         </is>
       </c>
       <c r="F56" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G56" s="2" t="n">
-        <v>44926</v>
+        <v>44928</v>
       </c>
     </row>
     <row r="57">
@@ -2063,10 +2063,10 @@
         </is>
       </c>
       <c r="F57" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G57" s="2" t="n">
-        <v>44926</v>
+        <v>44928</v>
       </c>
     </row>
     <row r="58">
@@ -2090,10 +2090,10 @@
         </is>
       </c>
       <c r="F58" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G58" s="2" t="n">
-        <v>44926</v>
+        <v>44928</v>
       </c>
     </row>
     <row r="59">
@@ -2117,10 +2117,10 @@
         </is>
       </c>
       <c r="F59" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G59" s="2" t="n">
-        <v>44926</v>
+        <v>44928</v>
       </c>
     </row>
     <row r="60">
@@ -2144,10 +2144,253 @@
         </is>
       </c>
       <c r="F60" t="n">
+        <v>3</v>
+      </c>
+      <c r="G60" s="2" t="n">
+        <v>44928</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="inlineStr"/>
+      <c r="B61" s="2" t="n">
+        <v>44926</v>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">venue                    </t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>the place where a public event or meeting happens:</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>The hotel is an ideal venue for conferences and business meetings.</t>
+        </is>
+      </c>
+      <c r="F61" t="n">
         <v>1</v>
       </c>
-      <c r="G60" s="2" t="n">
+      <c r="G61" s="2" t="n">
+        <v>44928</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="inlineStr"/>
+      <c r="B62" s="2" t="n">
         <v>44926</v>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t xml:space="preserve">wage                     </t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>a regular amount of money that you earn, usually every week or every month, for work or services</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>a weekly wage of £300</t>
+        </is>
+      </c>
+      <c r="F62" t="n">
+        <v>2</v>
+      </c>
+      <c r="G62" s="2" t="n">
+        <v>44928</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="inlineStr"/>
+      <c r="B63" s="2" t="n">
+        <v>44926</v>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t xml:space="preserve">wander                   </t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>to walk slowly around or to a place, often without any particular sense of purpose or direction</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>We wandered back towards the car.</t>
+        </is>
+      </c>
+      <c r="F63" t="n">
+        <v>1</v>
+      </c>
+      <c r="G63" s="2" t="n">
+        <v>44928</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="inlineStr"/>
+      <c r="B64" s="2" t="n">
+        <v>44926</v>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">wealth                   </t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>a large amount of money, property, etc. that a person or country owns</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>the desire to gain wealth and power</t>
+        </is>
+      </c>
+      <c r="F64" t="n">
+        <v>2</v>
+      </c>
+      <c r="G64" s="2" t="n">
+        <v>44928</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="inlineStr"/>
+      <c r="B65" s="2" t="n">
+        <v>44926</v>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t xml:space="preserve">welfare                  </t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>the general health, happiness and safety of a person, an animal or a group</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>We are concerned about the child's welfare.</t>
+        </is>
+      </c>
+      <c r="F65" t="n">
+        <v>1</v>
+      </c>
+      <c r="G65" s="2" t="n">
+        <v>44928</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="inlineStr"/>
+      <c r="B66" s="2" t="n">
+        <v>44926</v>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">wheat                    </t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>a plant whose yellowish-brown grain is used for making flour, or the grain itself:</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>wheat flour</t>
+        </is>
+      </c>
+      <c r="F66" t="n">
+        <v>1</v>
+      </c>
+      <c r="G66" s="2" t="n">
+        <v>44928</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="inlineStr"/>
+      <c r="B67" s="2" t="n">
+        <v>44926</v>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t xml:space="preserve">wound                    </t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>an injury to part of the body, especially one in which a hole is made in the skin using a weapon</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>a bullet/knife/shrapnel wound</t>
+        </is>
+      </c>
+      <c r="F67" t="n">
+        <v>1</v>
+      </c>
+      <c r="G67" s="2" t="n">
+        <v>44928</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="inlineStr"/>
+      <c r="B68" s="2" t="n">
+        <v>44926</v>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t xml:space="preserve">wrist                    </t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>the joint between the hand and the arm</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>She's broken her wrist.</t>
+        </is>
+      </c>
+      <c r="F68" t="n">
+        <v>2</v>
+      </c>
+      <c r="G68" s="2" t="n">
+        <v>44928</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="inlineStr"/>
+      <c r="B69" s="2" t="n">
+        <v>44926</v>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t xml:space="preserve">abolish     </t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>to end an activity or custom officially:</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>I think bullfighting should be abolished.</t>
+        </is>
+      </c>
+      <c r="F69" t="n">
+        <v>1</v>
+      </c>
+      <c r="G69" s="2" t="n">
+        <v>44928</v>
       </c>
     </row>
   </sheetData>

--- a/capture.xlsx
+++ b/capture.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G69"/>
+  <dimension ref="A1:G80"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -500,7 +500,7 @@
         <v>5</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>44928</v>
+        <v>44930</v>
       </c>
     </row>
     <row r="3">
@@ -529,7 +529,7 @@
         <v>5</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>44928</v>
+        <v>44930</v>
       </c>
     </row>
     <row r="4">
@@ -558,7 +558,7 @@
         <v>5</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>44928</v>
+        <v>44930</v>
       </c>
     </row>
     <row r="5">
@@ -587,7 +587,7 @@
         <v>5</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>44928</v>
+        <v>44930</v>
       </c>
     </row>
     <row r="6">
@@ -616,7 +616,7 @@
         <v>5</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>44928</v>
+        <v>44930</v>
       </c>
     </row>
     <row r="7">
@@ -645,7 +645,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>44928</v>
+        <v>44930</v>
       </c>
     </row>
     <row r="8">
@@ -674,7 +674,7 @@
         <v>5</v>
       </c>
       <c r="G8" s="2" t="n">
-        <v>44928</v>
+        <v>44930</v>
       </c>
     </row>
     <row r="9">
@@ -703,7 +703,7 @@
         <v>5</v>
       </c>
       <c r="G9" s="2" t="n">
-        <v>44928</v>
+        <v>44930</v>
       </c>
     </row>
     <row r="10">
@@ -732,7 +732,7 @@
         <v>5</v>
       </c>
       <c r="G10" s="2" t="n">
-        <v>44928</v>
+        <v>44930</v>
       </c>
     </row>
     <row r="11">
@@ -761,7 +761,7 @@
         <v>5</v>
       </c>
       <c r="G11" s="2" t="n">
-        <v>44928</v>
+        <v>44930</v>
       </c>
     </row>
     <row r="12">
@@ -790,7 +790,7 @@
         <v>5</v>
       </c>
       <c r="G12" s="2" t="n">
-        <v>44928</v>
+        <v>44930</v>
       </c>
     </row>
     <row r="13">
@@ -819,7 +819,7 @@
         <v>5</v>
       </c>
       <c r="G13" s="2" t="n">
-        <v>44928</v>
+        <v>44930</v>
       </c>
     </row>
     <row r="14">
@@ -848,7 +848,7 @@
         <v>5</v>
       </c>
       <c r="G14" s="2" t="n">
-        <v>44928</v>
+        <v>44930</v>
       </c>
     </row>
     <row r="15">
@@ -877,7 +877,7 @@
         <v>5</v>
       </c>
       <c r="G15" s="2" t="n">
-        <v>44928</v>
+        <v>44930</v>
       </c>
     </row>
     <row r="16">
@@ -906,7 +906,7 @@
         <v>5</v>
       </c>
       <c r="G16" s="2" t="n">
-        <v>44928</v>
+        <v>44930</v>
       </c>
     </row>
     <row r="17">
@@ -935,7 +935,7 @@
         <v>5</v>
       </c>
       <c r="G17" s="2" t="n">
-        <v>44928</v>
+        <v>44930</v>
       </c>
     </row>
     <row r="18">
@@ -964,7 +964,7 @@
         <v>5</v>
       </c>
       <c r="G18" s="2" t="n">
-        <v>44928</v>
+        <v>44930</v>
       </c>
     </row>
     <row r="19">
@@ -993,7 +993,7 @@
         <v>5</v>
       </c>
       <c r="G19" s="2" t="n">
-        <v>44928</v>
+        <v>44930</v>
       </c>
     </row>
     <row r="20">
@@ -1022,7 +1022,7 @@
         <v>5</v>
       </c>
       <c r="G20" s="2" t="n">
-        <v>44928</v>
+        <v>44930</v>
       </c>
     </row>
     <row r="21">
@@ -1051,7 +1051,7 @@
         <v>5</v>
       </c>
       <c r="G21" s="2" t="n">
-        <v>44928</v>
+        <v>44930</v>
       </c>
     </row>
     <row r="22">
@@ -1080,7 +1080,7 @@
         <v>5</v>
       </c>
       <c r="G22" s="2" t="n">
-        <v>44928</v>
+        <v>44930</v>
       </c>
     </row>
     <row r="23">
@@ -1110,7 +1110,7 @@
         <v>5</v>
       </c>
       <c r="G23" s="2" t="n">
-        <v>44928</v>
+        <v>44930</v>
       </c>
     </row>
     <row r="24">
@@ -1139,7 +1139,7 @@
         <v>5</v>
       </c>
       <c r="G24" s="2" t="n">
-        <v>44928</v>
+        <v>44930</v>
       </c>
     </row>
     <row r="25">
@@ -1168,7 +1168,7 @@
         <v>5</v>
       </c>
       <c r="G25" s="2" t="n">
-        <v>44928</v>
+        <v>44930</v>
       </c>
     </row>
     <row r="26">
@@ -1197,7 +1197,7 @@
         <v>5</v>
       </c>
       <c r="G26" s="2" t="n">
-        <v>44928</v>
+        <v>44930</v>
       </c>
     </row>
     <row r="27">
@@ -1226,7 +1226,7 @@
         <v>5</v>
       </c>
       <c r="G27" s="2" t="n">
-        <v>44928</v>
+        <v>44930</v>
       </c>
     </row>
     <row r="28">
@@ -1252,10 +1252,10 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G28" s="2" t="n">
-        <v>44928</v>
+        <v>44930</v>
       </c>
     </row>
     <row r="29">
@@ -1284,7 +1284,7 @@
         <v>5</v>
       </c>
       <c r="G29" s="2" t="n">
-        <v>44928</v>
+        <v>44930</v>
       </c>
     </row>
     <row r="30">
@@ -1313,7 +1313,7 @@
         <v>5</v>
       </c>
       <c r="G30" s="2" t="n">
-        <v>44928</v>
+        <v>44930</v>
       </c>
     </row>
     <row r="31">
@@ -1342,7 +1342,7 @@
         <v>5</v>
       </c>
       <c r="G31" s="2" t="n">
-        <v>44928</v>
+        <v>44930</v>
       </c>
     </row>
     <row r="32">
@@ -1371,7 +1371,7 @@
         <v>5</v>
       </c>
       <c r="G32" s="2" t="n">
-        <v>44928</v>
+        <v>44930</v>
       </c>
     </row>
     <row r="33">
@@ -1400,7 +1400,7 @@
         <v>5</v>
       </c>
       <c r="G33" s="2" t="n">
-        <v>44928</v>
+        <v>44930</v>
       </c>
     </row>
     <row r="34">
@@ -1429,7 +1429,7 @@
         <v>5</v>
       </c>
       <c r="G34" s="2" t="n">
-        <v>44928</v>
+        <v>44930</v>
       </c>
     </row>
     <row r="35">
@@ -1455,10 +1455,10 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G35" s="2" t="n">
-        <v>44928</v>
+        <v>44930</v>
       </c>
     </row>
     <row r="36">
@@ -1487,7 +1487,7 @@
         <v>5</v>
       </c>
       <c r="G36" s="2" t="n">
-        <v>44928</v>
+        <v>44930</v>
       </c>
     </row>
     <row r="37">
@@ -1516,7 +1516,7 @@
         <v>5</v>
       </c>
       <c r="G37" s="2" t="n">
-        <v>44928</v>
+        <v>44930</v>
       </c>
     </row>
     <row r="38">
@@ -1545,7 +1545,7 @@
         <v>5</v>
       </c>
       <c r="G38" s="2" t="n">
-        <v>44928</v>
+        <v>44930</v>
       </c>
     </row>
     <row r="39">
@@ -1574,7 +1574,7 @@
         <v>5</v>
       </c>
       <c r="G39" s="2" t="n">
-        <v>44928</v>
+        <v>44930</v>
       </c>
     </row>
     <row r="40">
@@ -1603,7 +1603,7 @@
         <v>5</v>
       </c>
       <c r="G40" s="2" t="n">
-        <v>44928</v>
+        <v>44930</v>
       </c>
     </row>
     <row r="41">
@@ -1632,7 +1632,7 @@
         <v>5</v>
       </c>
       <c r="G41" s="2" t="n">
-        <v>44928</v>
+        <v>44930</v>
       </c>
     </row>
     <row r="42">
@@ -1661,7 +1661,7 @@
         <v>5</v>
       </c>
       <c r="G42" s="2" t="n">
-        <v>44928</v>
+        <v>44930</v>
       </c>
     </row>
     <row r="43">
@@ -1685,10 +1685,10 @@
         </is>
       </c>
       <c r="F43" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G43" s="2" t="n">
-        <v>44928</v>
+        <v>44930</v>
       </c>
     </row>
     <row r="44">
@@ -1712,10 +1712,10 @@
         </is>
       </c>
       <c r="F44" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G44" s="2" t="n">
-        <v>44928</v>
+        <v>44930</v>
       </c>
     </row>
     <row r="45">
@@ -1739,10 +1739,10 @@
         </is>
       </c>
       <c r="F45" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G45" s="2" t="n">
-        <v>44928</v>
+        <v>44930</v>
       </c>
     </row>
     <row r="46">
@@ -1766,10 +1766,10 @@
         </is>
       </c>
       <c r="F46" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G46" s="2" t="n">
-        <v>44928</v>
+        <v>44929</v>
       </c>
     </row>
     <row r="47">
@@ -1793,10 +1793,10 @@
         </is>
       </c>
       <c r="F47" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G47" s="2" t="n">
-        <v>44928</v>
+        <v>44930</v>
       </c>
     </row>
     <row r="48">
@@ -1820,10 +1820,10 @@
         </is>
       </c>
       <c r="F48" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G48" s="2" t="n">
-        <v>44928</v>
+        <v>44930</v>
       </c>
     </row>
     <row r="49">
@@ -1847,10 +1847,10 @@
         </is>
       </c>
       <c r="F49" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G49" s="2" t="n">
-        <v>44928</v>
+        <v>44930</v>
       </c>
     </row>
     <row r="50">
@@ -1874,10 +1874,10 @@
         </is>
       </c>
       <c r="F50" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G50" s="2" t="n">
-        <v>44928</v>
+        <v>44930</v>
       </c>
     </row>
     <row r="51">
@@ -1901,10 +1901,10 @@
         </is>
       </c>
       <c r="F51" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G51" s="2" t="n">
-        <v>44928</v>
+        <v>44930</v>
       </c>
     </row>
     <row r="52">
@@ -1928,10 +1928,10 @@
         </is>
       </c>
       <c r="F52" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G52" s="2" t="n">
-        <v>44928</v>
+        <v>44930</v>
       </c>
     </row>
     <row r="53">
@@ -1955,10 +1955,10 @@
         </is>
       </c>
       <c r="F53" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G53" s="2" t="n">
-        <v>44928</v>
+        <v>44929</v>
       </c>
     </row>
     <row r="54">
@@ -1982,10 +1982,10 @@
         </is>
       </c>
       <c r="F54" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G54" s="2" t="n">
-        <v>44928</v>
+        <v>44929</v>
       </c>
     </row>
     <row r="55">
@@ -2009,10 +2009,10 @@
         </is>
       </c>
       <c r="F55" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G55" s="2" t="n">
-        <v>44928</v>
+        <v>44930</v>
       </c>
     </row>
     <row r="56">
@@ -2036,10 +2036,10 @@
         </is>
       </c>
       <c r="F56" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G56" s="2" t="n">
-        <v>44928</v>
+        <v>44930</v>
       </c>
     </row>
     <row r="57">
@@ -2063,10 +2063,10 @@
         </is>
       </c>
       <c r="F57" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G57" s="2" t="n">
-        <v>44928</v>
+        <v>44929</v>
       </c>
     </row>
     <row r="58">
@@ -2090,10 +2090,10 @@
         </is>
       </c>
       <c r="F58" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G58" s="2" t="n">
-        <v>44928</v>
+        <v>44929</v>
       </c>
     </row>
     <row r="59">
@@ -2117,10 +2117,10 @@
         </is>
       </c>
       <c r="F59" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G59" s="2" t="n">
-        <v>44928</v>
+        <v>44930</v>
       </c>
     </row>
     <row r="60">
@@ -2144,10 +2144,10 @@
         </is>
       </c>
       <c r="F60" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G60" s="2" t="n">
-        <v>44928</v>
+        <v>44930</v>
       </c>
     </row>
     <row r="61">
@@ -2171,10 +2171,10 @@
         </is>
       </c>
       <c r="F61" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G61" s="2" t="n">
-        <v>44928</v>
+        <v>44930</v>
       </c>
     </row>
     <row r="62">
@@ -2198,10 +2198,10 @@
         </is>
       </c>
       <c r="F62" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G62" s="2" t="n">
-        <v>44928</v>
+        <v>44930</v>
       </c>
     </row>
     <row r="63">
@@ -2225,10 +2225,10 @@
         </is>
       </c>
       <c r="F63" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G63" s="2" t="n">
-        <v>44928</v>
+        <v>44930</v>
       </c>
     </row>
     <row r="64">
@@ -2252,10 +2252,10 @@
         </is>
       </c>
       <c r="F64" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G64" s="2" t="n">
-        <v>44928</v>
+        <v>44930</v>
       </c>
     </row>
     <row r="65">
@@ -2279,10 +2279,10 @@
         </is>
       </c>
       <c r="F65" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G65" s="2" t="n">
-        <v>44928</v>
+        <v>44930</v>
       </c>
     </row>
     <row r="66">
@@ -2306,10 +2306,10 @@
         </is>
       </c>
       <c r="F66" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G66" s="2" t="n">
-        <v>44928</v>
+        <v>44930</v>
       </c>
     </row>
     <row r="67">
@@ -2333,10 +2333,10 @@
         </is>
       </c>
       <c r="F67" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G67" s="2" t="n">
-        <v>44928</v>
+        <v>44930</v>
       </c>
     </row>
     <row r="68">
@@ -2360,10 +2360,10 @@
         </is>
       </c>
       <c r="F68" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G68" s="2" t="n">
-        <v>44928</v>
+        <v>44930</v>
       </c>
     </row>
     <row r="69">
@@ -2387,10 +2387,307 @@
         </is>
       </c>
       <c r="F69" t="n">
+        <v>3</v>
+      </c>
+      <c r="G69" s="2" t="n">
+        <v>44930</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="inlineStr"/>
+      <c r="B70" s="2" t="n">
+        <v>44929</v>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>massacre</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>the killing of a large number of people especially in a cruel way</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>the bloody massacre of innocent civilians</t>
+        </is>
+      </c>
+      <c r="F70" t="n">
         <v>1</v>
       </c>
-      <c r="G69" s="2" t="n">
-        <v>44928</v>
+      <c r="G70" s="2" t="n">
+        <v>44930</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="inlineStr"/>
+      <c r="B71" s="2" t="n">
+        <v>44929</v>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>liable</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>legally responsible for paying the cost of something / likely to do something</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>You will be liable for any damage caused. / We're all liable to make mistakes when we're tired.</t>
+        </is>
+      </c>
+      <c r="F71" t="n">
+        <v>1</v>
+      </c>
+      <c r="G71" s="2" t="n">
+        <v>44930</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="inlineStr"/>
+      <c r="B72" s="2" t="n">
+        <v>44929</v>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>attain</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>to succeed in getting something, usually after a lot of effort</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>Most of our students attained five ‘A’ grades in their exams.</t>
+        </is>
+      </c>
+      <c r="F72" t="n">
+        <v>1</v>
+      </c>
+      <c r="G72" s="2" t="n">
+        <v>44930</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="inlineStr"/>
+      <c r="B73" s="2" t="n">
+        <v>44929</v>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>footage</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>part of a film showing a particular event</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>old film footage of the moon landing</t>
+        </is>
+      </c>
+      <c r="F73" t="n">
+        <v>1</v>
+      </c>
+      <c r="G73" s="2" t="n">
+        <v>44930</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="inlineStr"/>
+      <c r="B74" s="2" t="n">
+        <v>44929</v>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>disturbing</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>making you feel anxious and upset or shocked</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>a disturbing piece of news</t>
+        </is>
+      </c>
+      <c r="F74" t="n">
+        <v>1</v>
+      </c>
+      <c r="G74" s="2" t="n">
+        <v>44930</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="inlineStr"/>
+      <c r="B75" s="2" t="n">
+        <v>44929</v>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>allegedly</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>expressed as though something is a fact but without giving any proof</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>crimes allegedly committed during the war</t>
+        </is>
+      </c>
+      <c r="F75" t="n">
+        <v>0</v>
+      </c>
+      <c r="G75" s="2" t="n">
+        <v>44930</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="inlineStr"/>
+      <c r="B76" s="2" t="n">
+        <v>44929</v>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>compelling</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>that makes you pay attention to it because it is so interesting and exciting</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>Her latest book makes compelling reading</t>
+        </is>
+      </c>
+      <c r="F76" t="n">
+        <v>0</v>
+      </c>
+      <c r="G76" s="2" t="n">
+        <v>44930</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="inlineStr"/>
+      <c r="B77" s="2" t="n">
+        <v>44929</v>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>niche</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>a comfortable or suitable role, job, way of life, etc</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>He eventually found his niche in sports journalism.</t>
+        </is>
+      </c>
+      <c r="F77" t="n">
+        <v>1</v>
+      </c>
+      <c r="G77" s="2" t="n">
+        <v>44930</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="inlineStr"/>
+      <c r="B78" s="2" t="n">
+        <v>44929</v>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>devastate</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>to completely destroy a place or an area</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>The bomb devastated much of the old part of the city.</t>
+        </is>
+      </c>
+      <c r="F78" t="n">
+        <v>0</v>
+      </c>
+      <c r="G78" s="2" t="n">
+        <v>44930</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="inlineStr"/>
+      <c r="B79" s="2" t="n">
+        <v>44929</v>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>unveil</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>to show or introduce a new plan, product, etc. to the public for the first time</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>The government has unveiled plans for new energy legislation.</t>
+        </is>
+      </c>
+      <c r="F79" t="n">
+        <v>1</v>
+      </c>
+      <c r="G79" s="2" t="n">
+        <v>44930</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="inlineStr"/>
+      <c r="B80" s="2" t="n">
+        <v>44929</v>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>lap</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>the top part of your legs that forms a flat surface when you are sitting down</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>you'll have to sit on my lap.</t>
+        </is>
+      </c>
+      <c r="F80" t="n">
+        <v>2</v>
+      </c>
+      <c r="G80" s="2" t="n">
+        <v>44930</v>
       </c>
     </row>
   </sheetData>

--- a/capture.xlsx
+++ b/capture.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G80"/>
+  <dimension ref="A1:G91"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2690,6 +2690,304 @@
         <v>44930</v>
       </c>
     </row>
+    <row r="81">
+      <c r="A81" s="1" t="inlineStr"/>
+      <c r="B81" s="2" t="n">
+        <v>44930</v>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>stir</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>mix / to move, or to make something move, slightly / to make somebody excited or make them feel something strongly</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>She stirred her tea. / She heard the baby stir in the next room. / It's a book that really stirs the imagination</t>
+        </is>
+      </c>
+      <c r="F81" t="n">
+        <v>0</v>
+      </c>
+      <c r="G81" s="2" t="n">
+        <v>44929</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="inlineStr"/>
+      <c r="B82" s="2" t="n">
+        <v>44930</v>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>preservation</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>the act of keeping something in its original state or in good condition</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>building/environmental/food preservation</t>
+        </is>
+      </c>
+      <c r="F82" t="n">
+        <v>0</v>
+      </c>
+      <c r="G82" s="2" t="n">
+        <v>44929</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="inlineStr"/>
+      <c r="B83" s="2" t="n">
+        <v>44930</v>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>spouse</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>a husband or wife</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>Fill in your spouse’s name here.</t>
+        </is>
+      </c>
+      <c r="F83" t="n">
+        <v>0</v>
+      </c>
+      <c r="G83" s="2" t="n">
+        <v>44929</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="inlineStr"/>
+      <c r="B84" s="2" t="n">
+        <v>44930</v>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>utility</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>a service provided for the public, for example an electricity, water or gas supply</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>a privatized electricity utility</t>
+        </is>
+      </c>
+      <c r="F84" t="n">
+        <v>0</v>
+      </c>
+      <c r="G84" s="2" t="n">
+        <v>44929</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="inlineStr"/>
+      <c r="B85" s="2" t="n">
+        <v>44930</v>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>verse</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>a group of lines that form a unit in a poem or song</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+a hymn with six verses</t>
+        </is>
+      </c>
+      <c r="F85" t="n">
+        <v>0</v>
+      </c>
+      <c r="G85" s="2" t="n">
+        <v>44929</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="inlineStr"/>
+      <c r="B86" s="2" t="n">
+        <v>44930</v>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>venture</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>a business project or activity, especially one that involves taking risks</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>A disastrous business venture lost him thousands of dollars.</t>
+        </is>
+      </c>
+      <c r="F86" t="n">
+        <v>0</v>
+      </c>
+      <c r="G86" s="2" t="n">
+        <v>44929</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="inlineStr"/>
+      <c r="B87" s="2" t="n">
+        <v>44930</v>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>contractor</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>a person or company that has a contract to do work or provide goods or services for another company</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>a building/roofing/electrical contractor</t>
+        </is>
+      </c>
+      <c r="F87" t="n">
+        <v>0</v>
+      </c>
+      <c r="G87" s="2" t="n">
+        <v>44929</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="inlineStr"/>
+      <c r="B88" s="2" t="n">
+        <v>44930</v>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>weave</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>c1[transitive, intransitive]to make cloth, a carpet, a basket, etc. by crossing threads or narrow pieces of material across, over and under each other by hand or on a machine called a loom</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>Most spiders weave webs that are almost invisible.</t>
+        </is>
+      </c>
+      <c r="F88" t="n">
+        <v>0</v>
+      </c>
+      <c r="G88" s="2" t="n">
+        <v>44929</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="inlineStr"/>
+      <c r="B89" s="2" t="n">
+        <v>44930</v>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>refusal</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>an act of saying or showing that you will not do, give or accept something</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>the refusal of a request/an invitation/an offer</t>
+        </is>
+      </c>
+      <c r="F89" t="n">
+        <v>0</v>
+      </c>
+      <c r="G89" s="2" t="n">
+        <v>44929</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="inlineStr"/>
+      <c r="B90" s="2" t="n">
+        <v>44930</v>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>interfere</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>to get involved in and try to influence a situation that should not really involve you, in a way that annoys other people</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>I wish my mother would stop interfering and let me make my own decisions.</t>
+        </is>
+      </c>
+      <c r="F90" t="n">
+        <v>0</v>
+      </c>
+      <c r="G90" s="2" t="n">
+        <v>44929</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="inlineStr"/>
+      <c r="B91" s="2" t="n">
+        <v>44930</v>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>chronic</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>c1lasting for a long time; difficult to cure</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>chronic bronchitis/arthritis/asthma</t>
+        </is>
+      </c>
+      <c r="F91" t="n">
+        <v>0</v>
+      </c>
+      <c r="G91" s="2" t="n">
+        <v>44929</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/capture.xlsx
+++ b/capture.xlsx
@@ -510,13 +510,13 @@
         <v>5</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>44951</v>
+        <v>44954</v>
       </c>
       <c r="H2" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -545,13 +545,13 @@
         <v>5</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>44948</v>
+        <v>44954</v>
       </c>
       <c r="H3" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -580,13 +580,13 @@
         <v>5</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>44951</v>
+        <v>44954</v>
       </c>
       <c r="H4" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -615,13 +615,13 @@
         <v>5</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>44948</v>
+        <v>44954</v>
       </c>
       <c r="H5" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6">
@@ -650,13 +650,13 @@
         <v>5</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>44939</v>
+        <v>44954</v>
       </c>
       <c r="H6" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7">
@@ -685,13 +685,13 @@
         <v>5</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>44951</v>
+        <v>44954</v>
       </c>
       <c r="H7" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8">
@@ -720,13 +720,13 @@
         <v>5</v>
       </c>
       <c r="G8" s="2" t="n">
-        <v>44951</v>
+        <v>44954</v>
       </c>
       <c r="H8" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9">
@@ -755,13 +755,13 @@
         <v>5</v>
       </c>
       <c r="G9" s="2" t="n">
-        <v>44951</v>
+        <v>44954</v>
       </c>
       <c r="H9" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10">
@@ -790,13 +790,13 @@
         <v>5</v>
       </c>
       <c r="G10" s="2" t="n">
-        <v>44945</v>
+        <v>44954</v>
       </c>
       <c r="H10" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11">
@@ -825,13 +825,13 @@
         <v>5</v>
       </c>
       <c r="G11" s="2" t="n">
-        <v>44945</v>
+        <v>44954</v>
       </c>
       <c r="H11" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12">
@@ -860,13 +860,13 @@
         <v>5</v>
       </c>
       <c r="G12" s="2" t="n">
-        <v>44951</v>
+        <v>44954</v>
       </c>
       <c r="H12" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13">
@@ -895,13 +895,13 @@
         <v>5</v>
       </c>
       <c r="G13" s="2" t="n">
-        <v>44942</v>
+        <v>44954</v>
       </c>
       <c r="H13" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14">
@@ -930,13 +930,13 @@
         <v>5</v>
       </c>
       <c r="G14" s="2" t="n">
-        <v>44945</v>
+        <v>44954</v>
       </c>
       <c r="H14" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15">
@@ -965,13 +965,13 @@
         <v>5</v>
       </c>
       <c r="G15" s="2" t="n">
-        <v>44948</v>
+        <v>44954</v>
       </c>
       <c r="H15" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16">
@@ -1000,13 +1000,13 @@
         <v>5</v>
       </c>
       <c r="G16" s="2" t="n">
-        <v>44951</v>
+        <v>44954</v>
       </c>
       <c r="H16" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17">
@@ -1035,13 +1035,13 @@
         <v>5</v>
       </c>
       <c r="G17" s="2" t="n">
-        <v>44951</v>
+        <v>44954</v>
       </c>
       <c r="H17" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18">
@@ -1070,13 +1070,13 @@
         <v>5</v>
       </c>
       <c r="G18" s="2" t="n">
-        <v>44948</v>
+        <v>44954</v>
       </c>
       <c r="H18" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
@@ -1105,13 +1105,13 @@
         <v>5</v>
       </c>
       <c r="G19" s="2" t="n">
-        <v>44948</v>
+        <v>44954</v>
       </c>
       <c r="H19" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
@@ -1140,13 +1140,13 @@
         <v>5</v>
       </c>
       <c r="G20" s="2" t="n">
-        <v>44948</v>
+        <v>44954</v>
       </c>
       <c r="H20" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
@@ -1175,13 +1175,13 @@
         <v>5</v>
       </c>
       <c r="G21" s="2" t="n">
-        <v>44948</v>
+        <v>44954</v>
       </c>
       <c r="H21" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22">
@@ -1210,13 +1210,13 @@
         <v>5</v>
       </c>
       <c r="G22" s="2" t="n">
-        <v>44942</v>
+        <v>44954</v>
       </c>
       <c r="H22" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23">
@@ -1246,13 +1246,13 @@
         <v>5</v>
       </c>
       <c r="G23" s="2" t="n">
-        <v>44951</v>
+        <v>44954</v>
       </c>
       <c r="H23" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24">
@@ -1281,13 +1281,13 @@
         <v>5</v>
       </c>
       <c r="G24" s="2" t="n">
-        <v>44951</v>
+        <v>44954</v>
       </c>
       <c r="H24" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25">
@@ -1316,13 +1316,13 @@
         <v>5</v>
       </c>
       <c r="G25" s="2" t="n">
-        <v>44942</v>
+        <v>44954</v>
       </c>
       <c r="H25" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26">
@@ -1351,13 +1351,13 @@
         <v>5</v>
       </c>
       <c r="G26" s="2" t="n">
-        <v>44951</v>
+        <v>44954</v>
       </c>
       <c r="H26" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27">
@@ -1386,13 +1386,13 @@
         <v>5</v>
       </c>
       <c r="G27" s="2" t="n">
-        <v>44945</v>
+        <v>44954</v>
       </c>
       <c r="H27" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28">
@@ -1421,13 +1421,13 @@
         <v>5</v>
       </c>
       <c r="G28" s="2" t="n">
-        <v>44948</v>
+        <v>44954</v>
       </c>
       <c r="H28" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="29">
@@ -1456,13 +1456,13 @@
         <v>5</v>
       </c>
       <c r="G29" s="2" t="n">
-        <v>44951</v>
+        <v>44954</v>
       </c>
       <c r="H29" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="30">
@@ -1491,13 +1491,13 @@
         <v>5</v>
       </c>
       <c r="G30" s="2" t="n">
-        <v>44951</v>
+        <v>44954</v>
       </c>
       <c r="H30" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31">
@@ -1526,13 +1526,13 @@
         <v>5</v>
       </c>
       <c r="G31" s="2" t="n">
-        <v>44942</v>
+        <v>44954</v>
       </c>
       <c r="H31" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="32">
@@ -1561,13 +1561,13 @@
         <v>5</v>
       </c>
       <c r="G32" s="2" t="n">
-        <v>44951</v>
+        <v>44954</v>
       </c>
       <c r="H32" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="33">
@@ -1596,13 +1596,13 @@
         <v>5</v>
       </c>
       <c r="G33" s="2" t="n">
-        <v>44951</v>
+        <v>44954</v>
       </c>
       <c r="H33" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="34">
@@ -1631,13 +1631,13 @@
         <v>5</v>
       </c>
       <c r="G34" s="2" t="n">
-        <v>44951</v>
+        <v>44954</v>
       </c>
       <c r="H34" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="35">
@@ -1666,13 +1666,13 @@
         <v>5</v>
       </c>
       <c r="G35" s="2" t="n">
-        <v>44942</v>
+        <v>44954</v>
       </c>
       <c r="H35" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="36">
@@ -1701,13 +1701,13 @@
         <v>5</v>
       </c>
       <c r="G36" s="2" t="n">
-        <v>44951</v>
+        <v>44954</v>
       </c>
       <c r="H36" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="37">
@@ -1736,13 +1736,13 @@
         <v>5</v>
       </c>
       <c r="G37" s="2" t="n">
-        <v>44933</v>
+        <v>44954</v>
       </c>
       <c r="H37" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38">
@@ -1771,13 +1771,13 @@
         <v>5</v>
       </c>
       <c r="G38" s="2" t="n">
-        <v>44945</v>
+        <v>44954</v>
       </c>
       <c r="H38" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="39">
@@ -1806,13 +1806,13 @@
         <v>5</v>
       </c>
       <c r="G39" s="2" t="n">
-        <v>44951</v>
+        <v>44954</v>
       </c>
       <c r="H39" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="40">
@@ -1841,13 +1841,13 @@
         <v>5</v>
       </c>
       <c r="G40" s="2" t="n">
-        <v>44948</v>
+        <v>44954</v>
       </c>
       <c r="H40" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="41">
@@ -1876,13 +1876,13 @@
         <v>5</v>
       </c>
       <c r="G41" s="2" t="n">
-        <v>44948</v>
+        <v>44954</v>
       </c>
       <c r="H41" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="42">
@@ -1911,13 +1911,13 @@
         <v>5</v>
       </c>
       <c r="G42" s="2" t="n">
-        <v>44951</v>
+        <v>44954</v>
       </c>
       <c r="H42" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43">
@@ -1944,13 +1944,13 @@
         <v>5</v>
       </c>
       <c r="G43" s="2" t="n">
-        <v>44946</v>
+        <v>44954</v>
       </c>
       <c r="H43" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="44">
@@ -1977,13 +1977,13 @@
         <v>5</v>
       </c>
       <c r="G44" s="2" t="n">
-        <v>44937</v>
+        <v>44954</v>
       </c>
       <c r="H44" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="45">
@@ -2010,13 +2010,13 @@
         <v>5</v>
       </c>
       <c r="G45" s="2" t="n">
-        <v>44946</v>
+        <v>44954</v>
       </c>
       <c r="H45" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="46">
@@ -2043,13 +2043,13 @@
         <v>5</v>
       </c>
       <c r="G46" s="2" t="n">
-        <v>44949</v>
+        <v>44954</v>
       </c>
       <c r="H46" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="47">
@@ -2076,13 +2076,13 @@
         <v>5</v>
       </c>
       <c r="G47" s="2" t="n">
-        <v>44946</v>
+        <v>44954</v>
       </c>
       <c r="H47" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I47" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="48">
@@ -2109,13 +2109,13 @@
         <v>5</v>
       </c>
       <c r="G48" s="2" t="n">
-        <v>44946</v>
+        <v>44954</v>
       </c>
       <c r="H48" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I48" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="49">
@@ -2142,13 +2142,13 @@
         <v>5</v>
       </c>
       <c r="G49" s="2" t="n">
-        <v>44952</v>
+        <v>44954</v>
       </c>
       <c r="H49" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I49" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="50">
@@ -2175,13 +2175,13 @@
         <v>5</v>
       </c>
       <c r="G50" s="2" t="n">
-        <v>44952</v>
+        <v>44954</v>
       </c>
       <c r="H50" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51">
@@ -2208,13 +2208,13 @@
         <v>5</v>
       </c>
       <c r="G51" s="2" t="n">
-        <v>44944</v>
+        <v>44954</v>
       </c>
       <c r="H51" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I51" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="52">
@@ -2241,13 +2241,13 @@
         <v>5</v>
       </c>
       <c r="G52" s="2" t="n">
-        <v>44950</v>
+        <v>44954</v>
       </c>
       <c r="H52" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53">
@@ -2274,13 +2274,13 @@
         <v>5</v>
       </c>
       <c r="G53" s="2" t="n">
-        <v>44944</v>
+        <v>44954</v>
       </c>
       <c r="H53" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54">
@@ -2307,13 +2307,13 @@
         <v>5</v>
       </c>
       <c r="G54" s="2" t="n">
-        <v>44941</v>
+        <v>44954</v>
       </c>
       <c r="H54" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55">
@@ -2340,13 +2340,13 @@
         <v>5</v>
       </c>
       <c r="G55" s="2" t="n">
-        <v>44950</v>
+        <v>44954</v>
       </c>
       <c r="H55" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I55" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="56">
@@ -2373,13 +2373,13 @@
         <v>5</v>
       </c>
       <c r="G56" s="2" t="n">
-        <v>44950</v>
+        <v>44954</v>
       </c>
       <c r="H56" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I56" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="57">
@@ -2406,13 +2406,13 @@
         <v>5</v>
       </c>
       <c r="G57" s="2" t="n">
-        <v>44950</v>
+        <v>44954</v>
       </c>
       <c r="H57" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I57" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="58">
@@ -2439,13 +2439,13 @@
         <v>5</v>
       </c>
       <c r="G58" s="2" t="n">
-        <v>44950</v>
+        <v>44954</v>
       </c>
       <c r="H58" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I58" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="59">
@@ -2472,13 +2472,13 @@
         <v>5</v>
       </c>
       <c r="G59" s="2" t="n">
-        <v>44938</v>
+        <v>44954</v>
       </c>
       <c r="H59" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60">
@@ -2505,13 +2505,13 @@
         <v>5</v>
       </c>
       <c r="G60" s="2" t="n">
-        <v>44941</v>
+        <v>44954</v>
       </c>
       <c r="H60" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I60" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="61">
@@ -2538,13 +2538,13 @@
         <v>5</v>
       </c>
       <c r="G61" s="2" t="n">
-        <v>44948</v>
+        <v>44954</v>
       </c>
       <c r="H61" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I61" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="62">
@@ -2571,13 +2571,13 @@
         <v>5</v>
       </c>
       <c r="G62" s="2" t="n">
-        <v>44951</v>
+        <v>44954</v>
       </c>
       <c r="H62" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I62" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="63">
@@ -2604,13 +2604,13 @@
         <v>5</v>
       </c>
       <c r="G63" s="2" t="n">
-        <v>44951</v>
+        <v>44954</v>
       </c>
       <c r="H63" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I63" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="64">
@@ -2637,13 +2637,13 @@
         <v>5</v>
       </c>
       <c r="G64" s="2" t="n">
-        <v>44951</v>
+        <v>44954</v>
       </c>
       <c r="H64" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2670,13 +2670,13 @@
         <v>5</v>
       </c>
       <c r="G65" s="2" t="n">
-        <v>44948</v>
+        <v>44954</v>
       </c>
       <c r="H65" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2703,13 +2703,13 @@
         <v>5</v>
       </c>
       <c r="G66" s="2" t="n">
-        <v>44951</v>
+        <v>44954</v>
       </c>
       <c r="H66" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2736,13 +2736,13 @@
         <v>5</v>
       </c>
       <c r="G67" s="2" t="n">
-        <v>44948</v>
+        <v>44954</v>
       </c>
       <c r="H67" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I67" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68">
@@ -2769,13 +2769,13 @@
         <v>5</v>
       </c>
       <c r="G68" s="2" t="n">
-        <v>44948</v>
+        <v>44954</v>
       </c>
       <c r="H68" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I68" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="69">
@@ -2802,13 +2802,13 @@
         <v>5</v>
       </c>
       <c r="G69" s="2" t="n">
-        <v>44951</v>
+        <v>44954</v>
       </c>
       <c r="H69" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I69" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="70">
@@ -2835,13 +2835,13 @@
         <v>5</v>
       </c>
       <c r="G70" s="2" t="n">
-        <v>44944</v>
+        <v>44954</v>
       </c>
       <c r="H70" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71">
@@ -2868,13 +2868,13 @@
         <v>5</v>
       </c>
       <c r="G71" s="2" t="n">
-        <v>44950</v>
+        <v>44954</v>
       </c>
       <c r="H71" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I71" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="72">
@@ -2901,13 +2901,13 @@
         <v>5</v>
       </c>
       <c r="G72" s="2" t="n">
-        <v>44941</v>
+        <v>44954</v>
       </c>
       <c r="H72" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73">
@@ -2934,13 +2934,13 @@
         <v>5</v>
       </c>
       <c r="G73" s="2" t="n">
-        <v>44941</v>
+        <v>44954</v>
       </c>
       <c r="H73" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I73" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74">
@@ -2967,13 +2967,13 @@
         <v>5</v>
       </c>
       <c r="G74" s="2" t="n">
-        <v>44950</v>
+        <v>44954</v>
       </c>
       <c r="H74" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I74" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="75">
@@ -3000,13 +3000,13 @@
         <v>5</v>
       </c>
       <c r="G75" s="2" t="n">
-        <v>44941</v>
+        <v>44954</v>
       </c>
       <c r="H75" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I75" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="76">
@@ -3033,13 +3033,13 @@
         <v>5</v>
       </c>
       <c r="G76" s="2" t="n">
-        <v>44944</v>
+        <v>44954</v>
       </c>
       <c r="H76" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I76" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="77">
@@ -3066,13 +3066,13 @@
         <v>5</v>
       </c>
       <c r="G77" s="2" t="n">
-        <v>44938</v>
+        <v>44954</v>
       </c>
       <c r="H77" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78">
@@ -3099,13 +3099,13 @@
         <v>5</v>
       </c>
       <c r="G78" s="2" t="n">
-        <v>44950</v>
+        <v>44954</v>
       </c>
       <c r="H78" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I78" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="79">
@@ -3132,13 +3132,13 @@
         <v>5</v>
       </c>
       <c r="G79" s="2" t="n">
-        <v>44941</v>
+        <v>44954</v>
       </c>
       <c r="H79" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I79" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="80">
@@ -3165,13 +3165,13 @@
         <v>5</v>
       </c>
       <c r="G80" s="2" t="n">
-        <v>44950</v>
+        <v>44954</v>
       </c>
       <c r="H80" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I80" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="81">
@@ -3198,13 +3198,13 @@
         <v>5</v>
       </c>
       <c r="G81" s="2" t="n">
-        <v>44948</v>
+        <v>44954</v>
       </c>
       <c r="H81" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82">
@@ -3231,13 +3231,13 @@
         <v>5</v>
       </c>
       <c r="G82" s="2" t="n">
-        <v>44942</v>
+        <v>44954</v>
       </c>
       <c r="H82" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I82" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="83">
@@ -3264,13 +3264,13 @@
         <v>5</v>
       </c>
       <c r="G83" s="2" t="n">
-        <v>44951</v>
+        <v>44954</v>
       </c>
       <c r="H83" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I83" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="84">
@@ -3297,13 +3297,13 @@
         <v>5</v>
       </c>
       <c r="G84" s="2" t="n">
-        <v>44951</v>
+        <v>44954</v>
       </c>
       <c r="H84" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I84" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85">
@@ -3331,13 +3331,13 @@
         <v>5</v>
       </c>
       <c r="G85" s="2" t="n">
-        <v>44948</v>
+        <v>44954</v>
       </c>
       <c r="H85" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I85" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86">
@@ -3364,13 +3364,13 @@
         <v>5</v>
       </c>
       <c r="G86" s="2" t="n">
-        <v>44945</v>
+        <v>44954</v>
       </c>
       <c r="H86" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87">
@@ -3397,13 +3397,13 @@
         <v>5</v>
       </c>
       <c r="G87" s="2" t="n">
-        <v>44951</v>
+        <v>44954</v>
       </c>
       <c r="H87" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88">
@@ -3430,13 +3430,13 @@
         <v>5</v>
       </c>
       <c r="G88" s="2" t="n">
-        <v>44951</v>
+        <v>44954</v>
       </c>
       <c r="H88" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89">
@@ -3463,13 +3463,13 @@
         <v>5</v>
       </c>
       <c r="G89" s="2" t="n">
-        <v>44942</v>
+        <v>44954</v>
       </c>
       <c r="H89" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I89" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="90">
@@ -3496,13 +3496,13 @@
         <v>5</v>
       </c>
       <c r="G90" s="2" t="n">
-        <v>44951</v>
+        <v>44954</v>
       </c>
       <c r="H90" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I90" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="91">
@@ -3529,13 +3529,13 @@
         <v>5</v>
       </c>
       <c r="G91" s="2" t="n">
-        <v>44951</v>
+        <v>44954</v>
       </c>
       <c r="H91" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92">
@@ -3562,13 +3562,13 @@
         <v>5</v>
       </c>
       <c r="G92" s="2" t="n">
-        <v>44951</v>
+        <v>44954</v>
       </c>
       <c r="H92" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I92" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="93">
@@ -3595,13 +3595,13 @@
         <v>5</v>
       </c>
       <c r="G93" s="2" t="n">
-        <v>44951</v>
+        <v>44954</v>
       </c>
       <c r="H93" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I93" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="94">
@@ -3628,13 +3628,13 @@
         <v>5</v>
       </c>
       <c r="G94" s="2" t="n">
-        <v>44951</v>
+        <v>44954</v>
       </c>
       <c r="H94" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I94" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="95">
@@ -3661,13 +3661,13 @@
         <v>5</v>
       </c>
       <c r="G95" s="2" t="n">
-        <v>44937</v>
+        <v>44954</v>
       </c>
       <c r="H95" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I95" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="96">
@@ -3694,13 +3694,13 @@
         <v>5</v>
       </c>
       <c r="G96" s="2" t="n">
-        <v>44945</v>
+        <v>44954</v>
       </c>
       <c r="H96" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I96" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="97">
@@ -3727,13 +3727,13 @@
         <v>5</v>
       </c>
       <c r="G97" s="2" t="n">
-        <v>44951</v>
+        <v>44954</v>
       </c>
       <c r="H97" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -3760,13 +3760,13 @@
         <v>5</v>
       </c>
       <c r="G98" s="2" t="n">
-        <v>44948</v>
+        <v>44954</v>
       </c>
       <c r="H98" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I98" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="99">
@@ -3793,13 +3793,13 @@
         <v>5</v>
       </c>
       <c r="G99" s="2" t="n">
-        <v>44951</v>
+        <v>44954</v>
       </c>
       <c r="H99" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I99" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="100">
@@ -3826,13 +3826,13 @@
         <v>5</v>
       </c>
       <c r="G100" s="2" t="n">
-        <v>44951</v>
+        <v>44954</v>
       </c>
       <c r="H100" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101">
@@ -3859,13 +3859,13 @@
         <v>5</v>
       </c>
       <c r="G101" s="2" t="n">
-        <v>44938</v>
+        <v>44954</v>
       </c>
       <c r="H101" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I101" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="102">
@@ -3892,13 +3892,13 @@
         <v>5</v>
       </c>
       <c r="G102" s="2" t="n">
-        <v>44951</v>
+        <v>44954</v>
       </c>
       <c r="H102" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="103">
@@ -3925,13 +3925,13 @@
         <v>5</v>
       </c>
       <c r="G103" s="2" t="n">
-        <v>44951</v>
+        <v>44954</v>
       </c>
       <c r="H103" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I103" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="104">
@@ -3958,13 +3958,13 @@
         <v>5</v>
       </c>
       <c r="G104" s="2" t="n">
-        <v>44951</v>
+        <v>44954</v>
       </c>
       <c r="H104" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I104" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="105">
@@ -3991,13 +3991,13 @@
         <v>5</v>
       </c>
       <c r="G105" s="2" t="n">
-        <v>44951</v>
+        <v>44954</v>
       </c>
       <c r="H105" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I105" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="106">
@@ -4024,13 +4024,13 @@
         <v>5</v>
       </c>
       <c r="G106" s="2" t="n">
-        <v>44952</v>
+        <v>44954</v>
       </c>
       <c r="H106" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I106" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="107">
@@ -4057,13 +4057,13 @@
         <v>5</v>
       </c>
       <c r="G107" s="2" t="n">
-        <v>44949</v>
+        <v>44954</v>
       </c>
       <c r="H107" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I107" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="108">
@@ -4090,13 +4090,13 @@
         <v>5</v>
       </c>
       <c r="G108" s="2" t="n">
-        <v>44952</v>
+        <v>44954</v>
       </c>
       <c r="H108" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I108" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="109">
@@ -4123,13 +4123,13 @@
         <v>5</v>
       </c>
       <c r="G109" s="2" t="n">
-        <v>44949</v>
+        <v>44954</v>
       </c>
       <c r="H109" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I109" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="110">
@@ -4156,13 +4156,13 @@
         <v>5</v>
       </c>
       <c r="G110" s="2" t="n">
-        <v>44949</v>
+        <v>44954</v>
       </c>
       <c r="H110" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I110" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="111">
@@ -4189,13 +4189,13 @@
         <v>5</v>
       </c>
       <c r="G111" s="2" t="n">
-        <v>44949</v>
+        <v>44954</v>
       </c>
       <c r="H111" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I111" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="112">
@@ -4222,13 +4222,13 @@
         <v>5</v>
       </c>
       <c r="G112" s="2" t="n">
-        <v>44949</v>
+        <v>44954</v>
       </c>
       <c r="H112" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I112" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="113">
@@ -4255,13 +4255,13 @@
         <v>5</v>
       </c>
       <c r="G113" s="2" t="n">
-        <v>44952</v>
+        <v>44954</v>
       </c>
       <c r="H113" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I113" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="114">
@@ -4288,13 +4288,13 @@
         <v>5</v>
       </c>
       <c r="G114" s="2" t="n">
-        <v>44952</v>
+        <v>44954</v>
       </c>
       <c r="H114" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I114" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="115">
@@ -4321,13 +4321,13 @@
         <v>5</v>
       </c>
       <c r="G115" s="2" t="n">
-        <v>44952</v>
+        <v>44954</v>
       </c>
       <c r="H115" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I115" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="116">
@@ -4354,13 +4354,13 @@
         <v>5</v>
       </c>
       <c r="G116" s="2" t="n">
-        <v>44946</v>
+        <v>44954</v>
       </c>
       <c r="H116" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I116" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="117">
@@ -4387,13 +4387,13 @@
         <v>5</v>
       </c>
       <c r="G117" s="2" t="n">
-        <v>44951</v>
+        <v>44954</v>
       </c>
       <c r="H117" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I117" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="118">
@@ -4420,13 +4420,13 @@
         <v>5</v>
       </c>
       <c r="G118" s="2" t="n">
-        <v>44948</v>
+        <v>44954</v>
       </c>
       <c r="H118" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I118" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="119">
@@ -4453,13 +4453,13 @@
         <v>5</v>
       </c>
       <c r="G119" s="2" t="n">
-        <v>44951</v>
+        <v>44954</v>
       </c>
       <c r="H119" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I119" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="120">
@@ -4486,13 +4486,13 @@
         <v>5</v>
       </c>
       <c r="G120" s="2" t="n">
-        <v>44942</v>
+        <v>44954</v>
       </c>
       <c r="H120" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I120" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="121">
@@ -4519,13 +4519,13 @@
         <v>5</v>
       </c>
       <c r="G121" s="2" t="n">
-        <v>44945</v>
+        <v>44954</v>
       </c>
       <c r="H121" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I121" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="122">
@@ -4552,13 +4552,13 @@
         <v>5</v>
       </c>
       <c r="G122" s="2" t="n">
-        <v>44940</v>
+        <v>44954</v>
       </c>
       <c r="H122" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I122" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="123">
@@ -4585,13 +4585,13 @@
         <v>5</v>
       </c>
       <c r="G123" s="2" t="n">
-        <v>44948</v>
+        <v>44954</v>
       </c>
       <c r="H123" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I123" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="124">
@@ -4618,13 +4618,13 @@
         <v>5</v>
       </c>
       <c r="G124" s="2" t="n">
-        <v>44948</v>
+        <v>44954</v>
       </c>
       <c r="H124" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I124" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="125">
@@ -4651,13 +4651,13 @@
         <v>5</v>
       </c>
       <c r="G125" s="2" t="n">
-        <v>44948</v>
+        <v>44954</v>
       </c>
       <c r="H125" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I125" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="126">
@@ -4684,13 +4684,13 @@
         <v>5</v>
       </c>
       <c r="G126" s="2" t="n">
-        <v>44951</v>
+        <v>44954</v>
       </c>
       <c r="H126" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I126" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="127">
@@ -4717,13 +4717,13 @@
         <v>5</v>
       </c>
       <c r="G127" s="2" t="n">
-        <v>44948</v>
+        <v>44954</v>
       </c>
       <c r="H127" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I127" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="128">
@@ -4750,13 +4750,13 @@
         <v>5</v>
       </c>
       <c r="G128" s="2" t="n">
-        <v>44948</v>
+        <v>44954</v>
       </c>
       <c r="H128" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I128" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="129">
@@ -4783,13 +4783,13 @@
         <v>5</v>
       </c>
       <c r="G129" s="2" t="n">
-        <v>44948</v>
+        <v>44954</v>
       </c>
       <c r="H129" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I129" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="130">
@@ -4816,13 +4816,13 @@
         <v>5</v>
       </c>
       <c r="G130" s="2" t="n">
-        <v>44948</v>
+        <v>44954</v>
       </c>
       <c r="H130" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I130" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="131">
@@ -4849,13 +4849,13 @@
         <v>5</v>
       </c>
       <c r="G131" s="2" t="n">
-        <v>44941</v>
+        <v>44954</v>
       </c>
       <c r="H131" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I131" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="132">
@@ -4882,13 +4882,13 @@
         <v>5</v>
       </c>
       <c r="G132" s="2" t="n">
-        <v>44951</v>
+        <v>44954</v>
       </c>
       <c r="H132" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I132" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="133">
@@ -4915,13 +4915,13 @@
         <v>5</v>
       </c>
       <c r="G133" s="2" t="n">
-        <v>44948</v>
+        <v>44954</v>
       </c>
       <c r="H133" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I133" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="134">
@@ -4948,13 +4948,13 @@
         <v>5</v>
       </c>
       <c r="G134" s="2" t="n">
-        <v>44949</v>
+        <v>44954</v>
       </c>
       <c r="H134" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I134" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="135">
@@ -4981,13 +4981,13 @@
         <v>5</v>
       </c>
       <c r="G135" s="2" t="n">
-        <v>44952</v>
+        <v>44954</v>
       </c>
       <c r="H135" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I135" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="136">
@@ -5014,13 +5014,13 @@
         <v>5</v>
       </c>
       <c r="G136" s="2" t="n">
-        <v>44949</v>
+        <v>44954</v>
       </c>
       <c r="H136" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I136" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="137">
@@ -5047,13 +5047,13 @@
         <v>5</v>
       </c>
       <c r="G137" s="2" t="n">
-        <v>44952</v>
+        <v>44954</v>
       </c>
       <c r="H137" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="138">
@@ -5080,13 +5080,13 @@
         <v>5</v>
       </c>
       <c r="G138" s="2" t="n">
-        <v>44949</v>
+        <v>44954</v>
       </c>
       <c r="H138" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I138" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="139">
@@ -5113,13 +5113,13 @@
         <v>5</v>
       </c>
       <c r="G139" s="2" t="n">
-        <v>44943</v>
+        <v>44954</v>
       </c>
       <c r="H139" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I139" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="140">
@@ -5146,13 +5146,13 @@
         <v>5</v>
       </c>
       <c r="G140" s="2" t="n">
-        <v>44952</v>
+        <v>44954</v>
       </c>
       <c r="H140" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I140" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="141">
@@ -5179,13 +5179,13 @@
         <v>5</v>
       </c>
       <c r="G141" s="2" t="n">
-        <v>44943</v>
+        <v>44954</v>
       </c>
       <c r="H141" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I141" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="142">
@@ -5212,13 +5212,13 @@
         <v>5</v>
       </c>
       <c r="G142" s="2" t="n">
-        <v>44952</v>
+        <v>44954</v>
       </c>
       <c r="H142" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I142" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="143">
@@ -5245,13 +5245,13 @@
         <v>5</v>
       </c>
       <c r="G143" s="2" t="n">
-        <v>44952</v>
+        <v>44954</v>
       </c>
       <c r="H143" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I143" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="144">
@@ -5278,13 +5278,13 @@
         <v>5</v>
       </c>
       <c r="G144" s="2" t="n">
-        <v>44944</v>
+        <v>44954</v>
       </c>
       <c r="H144" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I144" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="145">
@@ -5311,13 +5311,13 @@
         <v>5</v>
       </c>
       <c r="G145" s="2" t="n">
-        <v>44945</v>
+        <v>44954</v>
       </c>
       <c r="H145" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I145" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="146">
@@ -5344,13 +5344,13 @@
         <v>5</v>
       </c>
       <c r="G146" s="2" t="n">
-        <v>44942</v>
+        <v>44954</v>
       </c>
       <c r="H146" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I146" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="147">
@@ -5377,13 +5377,13 @@
         <v>5</v>
       </c>
       <c r="G147" s="2" t="n">
-        <v>44950</v>
+        <v>44954</v>
       </c>
       <c r="H147" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I147" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="148">
@@ -5410,13 +5410,13 @@
         <v>5</v>
       </c>
       <c r="G148" s="2" t="n">
-        <v>44950</v>
+        <v>44954</v>
       </c>
       <c r="H148" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I148" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="149">
@@ -5443,13 +5443,13 @@
         <v>5</v>
       </c>
       <c r="G149" s="2" t="n">
-        <v>44950</v>
+        <v>44954</v>
       </c>
       <c r="H149" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I149" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="150">
@@ -5476,13 +5476,13 @@
         <v>5</v>
       </c>
       <c r="G150" s="2" t="n">
-        <v>44946</v>
+        <v>44954</v>
       </c>
       <c r="H150" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I150" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="151">
@@ -5509,13 +5509,13 @@
         <v>5</v>
       </c>
       <c r="G151" s="2" t="n">
-        <v>44950</v>
+        <v>44954</v>
       </c>
       <c r="H151" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I151" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="152">
@@ -5542,13 +5542,13 @@
         <v>5</v>
       </c>
       <c r="G152" s="2" t="n">
-        <v>44950</v>
+        <v>44954</v>
       </c>
       <c r="H152" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I152" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="153">
@@ -5575,13 +5575,13 @@
         <v>5</v>
       </c>
       <c r="G153" s="2" t="n">
-        <v>44950</v>
+        <v>44954</v>
       </c>
       <c r="H153" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I153" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="154">
@@ -5608,13 +5608,13 @@
         <v>5</v>
       </c>
       <c r="G154" s="2" t="n">
-        <v>44950</v>
+        <v>44954</v>
       </c>
       <c r="H154" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I154" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="155">
@@ -5641,13 +5641,13 @@
         <v>5</v>
       </c>
       <c r="G155" s="2" t="n">
-        <v>44945</v>
+        <v>44954</v>
       </c>
       <c r="H155" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I155" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="156">
@@ -5675,13 +5675,13 @@
         <v>5</v>
       </c>
       <c r="G156" s="2" t="n">
-        <v>44946</v>
+        <v>44954</v>
       </c>
       <c r="H156" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I156" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="157">
@@ -5708,13 +5708,13 @@
         <v>5</v>
       </c>
       <c r="G157" s="2" t="n">
-        <v>44952</v>
+        <v>44954</v>
       </c>
       <c r="H157" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I157" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="158">
@@ -5741,13 +5741,13 @@
         <v>5</v>
       </c>
       <c r="G158" s="2" t="n">
-        <v>44952</v>
+        <v>44954</v>
       </c>
       <c r="H158" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I158" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="159">
@@ -5774,13 +5774,13 @@
         <v>5</v>
       </c>
       <c r="G159" s="2" t="n">
-        <v>44949</v>
+        <v>44954</v>
       </c>
       <c r="H159" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I159" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="160">
@@ -5807,13 +5807,13 @@
         <v>5</v>
       </c>
       <c r="G160" s="2" t="n">
-        <v>44946</v>
+        <v>44954</v>
       </c>
       <c r="H160" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I160" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="161">
@@ -5840,13 +5840,13 @@
         <v>5</v>
       </c>
       <c r="G161" s="2" t="n">
-        <v>44952</v>
+        <v>44954</v>
       </c>
       <c r="H161" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I161" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="162">
@@ -5873,13 +5873,13 @@
         <v>5</v>
       </c>
       <c r="G162" s="2" t="n">
-        <v>44949</v>
+        <v>44954</v>
       </c>
       <c r="H162" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I162" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="163">
@@ -5906,13 +5906,13 @@
         <v>5</v>
       </c>
       <c r="G163" s="2" t="n">
-        <v>44952</v>
+        <v>44954</v>
       </c>
       <c r="H163" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I163" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="164">
@@ -5939,13 +5939,13 @@
         <v>5</v>
       </c>
       <c r="G164" s="2" t="n">
-        <v>44949</v>
+        <v>44954</v>
       </c>
       <c r="H164" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I164" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="165">
@@ -5972,13 +5972,13 @@
         <v>5</v>
       </c>
       <c r="G165" s="2" t="n">
-        <v>44952</v>
+        <v>44954</v>
       </c>
       <c r="H165" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I165" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="166">
@@ -6005,13 +6005,13 @@
         <v>5</v>
       </c>
       <c r="G166" s="2" t="n">
-        <v>44946</v>
+        <v>44954</v>
       </c>
       <c r="H166" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I166" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="167">
@@ -6038,13 +6038,13 @@
         <v>5</v>
       </c>
       <c r="G167" s="2" t="n">
-        <v>44952</v>
+        <v>44954</v>
       </c>
       <c r="H167" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I167" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="168">
@@ -6071,13 +6071,13 @@
         <v>5</v>
       </c>
       <c r="G168" s="2" t="n">
-        <v>44952</v>
+        <v>44954</v>
       </c>
       <c r="H168" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I168" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="169">
@@ -6104,13 +6104,13 @@
         <v>5</v>
       </c>
       <c r="G169" s="2" t="n">
-        <v>44952</v>
+        <v>44954</v>
       </c>
       <c r="H169" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I169" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="170">
@@ -6137,13 +6137,13 @@
         <v>5</v>
       </c>
       <c r="G170" s="2" t="n">
-        <v>44946</v>
+        <v>44954</v>
       </c>
       <c r="H170" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I170" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="171">
@@ -6170,13 +6170,13 @@
         <v>5</v>
       </c>
       <c r="G171" s="2" t="n">
-        <v>44944</v>
+        <v>44954</v>
       </c>
       <c r="H171" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I171" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="172">
@@ -6203,13 +6203,13 @@
         <v>5</v>
       </c>
       <c r="G172" s="2" t="n">
-        <v>44951</v>
+        <v>44954</v>
       </c>
       <c r="H172" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I172" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="173">
@@ -6236,13 +6236,13 @@
         <v>5</v>
       </c>
       <c r="G173" s="2" t="n">
-        <v>44951</v>
+        <v>44954</v>
       </c>
       <c r="H173" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I173" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="174">
@@ -6269,13 +6269,13 @@
         <v>5</v>
       </c>
       <c r="G174" s="2" t="n">
-        <v>44951</v>
+        <v>44954</v>
       </c>
       <c r="H174" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I174" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="175">
@@ -6302,13 +6302,13 @@
         <v>5</v>
       </c>
       <c r="G175" s="2" t="n">
-        <v>44949</v>
+        <v>44954</v>
       </c>
       <c r="H175" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I175" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="176">
@@ -6335,13 +6335,13 @@
         <v>5</v>
       </c>
       <c r="G176" s="2" t="n">
-        <v>44949</v>
+        <v>44954</v>
       </c>
       <c r="H176" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I176" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="177">
@@ -6368,13 +6368,13 @@
         <v>5</v>
       </c>
       <c r="G177" s="2" t="n">
-        <v>44951</v>
+        <v>44954</v>
       </c>
       <c r="H177" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I177" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="178">
@@ -6401,13 +6401,13 @@
         <v>5</v>
       </c>
       <c r="G178" s="2" t="n">
-        <v>44950</v>
+        <v>44954</v>
       </c>
       <c r="H178" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I178" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="179">
@@ -6434,13 +6434,13 @@
         <v>5</v>
       </c>
       <c r="G179" s="2" t="n">
-        <v>44951</v>
+        <v>44954</v>
       </c>
       <c r="H179" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I179" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="180">
@@ -6467,13 +6467,13 @@
         <v>5</v>
       </c>
       <c r="G180" s="2" t="n">
-        <v>44950</v>
+        <v>44954</v>
       </c>
       <c r="H180" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I180" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="181">
@@ -6500,13 +6500,13 @@
         <v>5</v>
       </c>
       <c r="G181" s="2" t="n">
-        <v>44951</v>
+        <v>44954</v>
       </c>
       <c r="H181" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I181" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="182">
@@ -6533,13 +6533,13 @@
         <v>5</v>
       </c>
       <c r="G182" s="2" t="n">
-        <v>44951</v>
+        <v>44954</v>
       </c>
       <c r="H182" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I182" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="183">
@@ -6566,13 +6566,13 @@
         <v>5</v>
       </c>
       <c r="G183" s="2" t="n">
-        <v>44952</v>
+        <v>44954</v>
       </c>
       <c r="H183" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I183" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="184">
@@ -6599,13 +6599,13 @@
         <v>5</v>
       </c>
       <c r="G184" s="2" t="n">
-        <v>44951</v>
+        <v>44954</v>
       </c>
       <c r="H184" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I184" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="185">
@@ -6632,13 +6632,13 @@
         <v>5</v>
       </c>
       <c r="G185" s="2" t="n">
-        <v>44951</v>
+        <v>44954</v>
       </c>
       <c r="H185" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I185" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="186">
@@ -6665,13 +6665,13 @@
         <v>5</v>
       </c>
       <c r="G186" s="2" t="n">
-        <v>44951</v>
+        <v>44954</v>
       </c>
       <c r="H186" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I186" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="187">
@@ -6698,13 +6698,13 @@
         <v>5</v>
       </c>
       <c r="G187" s="2" t="n">
-        <v>44949</v>
+        <v>44954</v>
       </c>
       <c r="H187" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I187" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="188">
@@ -6731,13 +6731,13 @@
         <v>5</v>
       </c>
       <c r="G188" s="2" t="n">
-        <v>44951</v>
+        <v>44954</v>
       </c>
       <c r="H188" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I188" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="189">
@@ -6764,13 +6764,13 @@
         <v>5</v>
       </c>
       <c r="G189" s="2" t="n">
-        <v>44949</v>
+        <v>44954</v>
       </c>
       <c r="H189" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I189" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="190">
@@ -6797,13 +6797,13 @@
         <v>5</v>
       </c>
       <c r="G190" s="2" t="n">
-        <v>44951</v>
+        <v>44954</v>
       </c>
       <c r="H190" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I190" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="191">
@@ -6830,13 +6830,13 @@
         <v>5</v>
       </c>
       <c r="G191" s="2" t="n">
-        <v>44951</v>
+        <v>44954</v>
       </c>
       <c r="H191" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I191" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="192">
@@ -6863,13 +6863,13 @@
         <v>5</v>
       </c>
       <c r="G192" s="2" t="n">
-        <v>44952</v>
+        <v>44954</v>
       </c>
       <c r="H192" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I192" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="193">
@@ -6896,13 +6896,13 @@
         <v>5</v>
       </c>
       <c r="G193" s="2" t="n">
-        <v>44952</v>
+        <v>44954</v>
       </c>
       <c r="H193" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I193" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="194">
@@ -6929,13 +6929,13 @@
         <v>5</v>
       </c>
       <c r="G194" s="2" t="n">
-        <v>44951</v>
+        <v>44954</v>
       </c>
       <c r="H194" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I194" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="195">
@@ -6962,13 +6962,13 @@
         <v>5</v>
       </c>
       <c r="G195" s="2" t="n">
-        <v>44951</v>
+        <v>44954</v>
       </c>
       <c r="H195" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I195" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="196">
@@ -6992,16 +6992,16 @@
         </is>
       </c>
       <c r="F196" t="n">
+        <v>5</v>
+      </c>
+      <c r="G196" s="2" t="n">
+        <v>44954</v>
+      </c>
+      <c r="H196" s="2" t="n">
+        <v>44954</v>
+      </c>
+      <c r="I196" t="n">
         <v>4</v>
-      </c>
-      <c r="G196" s="2" t="n">
-        <v>44953</v>
-      </c>
-      <c r="H196" s="2" t="n">
-        <v>117642</v>
-      </c>
-      <c r="I196" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="197">
@@ -7025,10 +7025,10 @@
         </is>
       </c>
       <c r="F197" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G197" s="2" t="n">
-        <v>44953</v>
+        <v>44954</v>
       </c>
       <c r="H197" s="2" t="n">
         <v>117642</v>
@@ -7058,16 +7058,16 @@
         </is>
       </c>
       <c r="F198" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G198" s="2" t="n">
-        <v>44953</v>
+        <v>44954</v>
       </c>
       <c r="H198" s="2" t="n">
-        <v>117642</v>
+        <v>44954</v>
       </c>
       <c r="I198" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="199">
@@ -7091,10 +7091,10 @@
         </is>
       </c>
       <c r="F199" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G199" s="2" t="n">
-        <v>44953</v>
+        <v>44954</v>
       </c>
       <c r="H199" s="2" t="n">
         <v>117642</v>
@@ -7124,10 +7124,10 @@
         </is>
       </c>
       <c r="F200" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G200" s="2" t="n">
-        <v>44953</v>
+        <v>44954</v>
       </c>
       <c r="H200" s="2" t="n">
         <v>117642</v>
@@ -7157,10 +7157,10 @@
         </is>
       </c>
       <c r="F201" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G201" s="2" t="n">
-        <v>44953</v>
+        <v>44954</v>
       </c>
       <c r="H201" s="2" t="n">
         <v>117642</v>
@@ -7190,16 +7190,16 @@
         </is>
       </c>
       <c r="F202" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G202" s="2" t="n">
-        <v>44953</v>
+        <v>44954</v>
       </c>
       <c r="H202" s="2" t="n">
-        <v>117642</v>
+        <v>44954</v>
       </c>
       <c r="I202" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="203">
@@ -7223,10 +7223,10 @@
         </is>
       </c>
       <c r="F203" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G203" s="2" t="n">
-        <v>44953</v>
+        <v>44954</v>
       </c>
       <c r="H203" s="2" t="n">
         <v>117642</v>
@@ -7256,10 +7256,10 @@
         </is>
       </c>
       <c r="F204" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G204" s="2" t="n">
-        <v>44953</v>
+        <v>44954</v>
       </c>
       <c r="H204" s="2" t="n">
         <v>117642</v>
@@ -7289,10 +7289,10 @@
         </is>
       </c>
       <c r="F205" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G205" s="2" t="n">
-        <v>44953</v>
+        <v>44954</v>
       </c>
       <c r="H205" s="2" t="n">
         <v>117642</v>
@@ -7322,10 +7322,10 @@
         </is>
       </c>
       <c r="F206" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G206" s="2" t="n">
-        <v>44953</v>
+        <v>44954</v>
       </c>
       <c r="H206" s="2" t="n">
         <v>117642</v>
@@ -7355,10 +7355,10 @@
         </is>
       </c>
       <c r="F207" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G207" s="2" t="n">
-        <v>44953</v>
+        <v>44954</v>
       </c>
       <c r="H207" s="2" t="n">
         <v>117642</v>
@@ -7388,10 +7388,10 @@
         </is>
       </c>
       <c r="F208" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G208" s="2" t="n">
-        <v>44953</v>
+        <v>44954</v>
       </c>
       <c r="H208" s="2" t="n">
         <v>117642</v>
@@ -7421,10 +7421,10 @@
         </is>
       </c>
       <c r="F209" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G209" s="2" t="n">
-        <v>44953</v>
+        <v>44954</v>
       </c>
       <c r="H209" s="2" t="n">
         <v>117642</v>
@@ -7454,10 +7454,10 @@
         </is>
       </c>
       <c r="F210" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G210" s="2" t="n">
-        <v>44953</v>
+        <v>44954</v>
       </c>
       <c r="H210" s="2" t="n">
         <v>117642</v>
@@ -7487,10 +7487,10 @@
         </is>
       </c>
       <c r="F211" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G211" s="2" t="n">
-        <v>44953</v>
+        <v>44954</v>
       </c>
       <c r="H211" s="2" t="n">
         <v>117642</v>
@@ -7520,10 +7520,10 @@
         </is>
       </c>
       <c r="F212" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G212" s="2" t="n">
-        <v>44953</v>
+        <v>44954</v>
       </c>
       <c r="H212" s="2" t="n">
         <v>117642</v>
@@ -7553,10 +7553,10 @@
         </is>
       </c>
       <c r="F213" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G213" s="2" t="n">
-        <v>44953</v>
+        <v>44954</v>
       </c>
       <c r="H213" s="2" t="n">
         <v>117642</v>
@@ -7589,7 +7589,7 @@
         <v>3</v>
       </c>
       <c r="G214" s="2" t="n">
-        <v>44953</v>
+        <v>44954</v>
       </c>
       <c r="H214" s="2" t="n">
         <v>117642</v>
@@ -7619,16 +7619,16 @@
         </is>
       </c>
       <c r="F215" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G215" s="2" t="n">
-        <v>44953</v>
+        <v>44954</v>
       </c>
       <c r="H215" s="2" t="n">
-        <v>117642</v>
+        <v>44954</v>
       </c>
       <c r="I215" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="216">
@@ -7652,10 +7652,10 @@
         </is>
       </c>
       <c r="F216" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G216" s="2" t="n">
-        <v>44953</v>
+        <v>44954</v>
       </c>
       <c r="H216" s="2" t="n">
         <v>117642</v>
@@ -7685,10 +7685,10 @@
         </is>
       </c>
       <c r="F217" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G217" s="2" t="n">
-        <v>44953</v>
+        <v>44954</v>
       </c>
       <c r="H217" s="2" t="n">
         <v>117642</v>
@@ -7718,10 +7718,10 @@
         </is>
       </c>
       <c r="F218" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G218" s="2" t="n">
-        <v>44953</v>
+        <v>44954</v>
       </c>
       <c r="H218" s="2" t="n">
         <v>117642</v>
@@ -7751,10 +7751,10 @@
         </is>
       </c>
       <c r="F219" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G219" s="2" t="n">
-        <v>44953</v>
+        <v>44954</v>
       </c>
       <c r="H219" s="2" t="n">
         <v>117642</v>
@@ -7784,10 +7784,10 @@
         </is>
       </c>
       <c r="F220" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G220" s="2" t="n">
-        <v>44953</v>
+        <v>44954</v>
       </c>
       <c r="H220" s="2" t="n">
         <v>117642</v>
@@ -7820,7 +7820,7 @@
         <v>0</v>
       </c>
       <c r="G221" s="2" t="n">
-        <v>44953</v>
+        <v>44954</v>
       </c>
       <c r="H221" s="2" t="n">
         <v>117642</v>
@@ -7850,10 +7850,10 @@
         </is>
       </c>
       <c r="F222" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G222" s="2" t="n">
-        <v>44953</v>
+        <v>44954</v>
       </c>
       <c r="H222" s="2" t="n">
         <v>117642</v>

--- a/capture.xlsx
+++ b/capture.xlsx
@@ -16,9 +16,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
     <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="166" formatCode="yyyy-mm-dd"/>
+    <numFmt numFmtId="167" formatCode="YYYY-MM-DD"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -58,12 +60,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -429,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I222"/>
+  <dimension ref="A1:I305"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -509,14 +512,14 @@
       <c r="F2" t="n">
         <v>5</v>
       </c>
-      <c r="G2" s="2" t="n">
-        <v>44954</v>
+      <c r="G2" s="3" t="n">
+        <v>44966</v>
       </c>
       <c r="H2" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -544,14 +547,14 @@
       <c r="F3" t="n">
         <v>5</v>
       </c>
-      <c r="G3" s="2" t="n">
-        <v>44954</v>
+      <c r="G3" s="3" t="n">
+        <v>44966</v>
       </c>
       <c r="H3" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -579,14 +582,14 @@
       <c r="F4" t="n">
         <v>5</v>
       </c>
-      <c r="G4" s="2" t="n">
-        <v>44954</v>
+      <c r="G4" s="3" t="n">
+        <v>44966</v>
       </c>
       <c r="H4" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -614,14 +617,14 @@
       <c r="F5" t="n">
         <v>5</v>
       </c>
-      <c r="G5" s="2" t="n">
-        <v>44954</v>
+      <c r="G5" s="3" t="n">
+        <v>44966</v>
       </c>
       <c r="H5" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -649,14 +652,14 @@
       <c r="F6" t="n">
         <v>5</v>
       </c>
-      <c r="G6" s="2" t="n">
-        <v>44954</v>
+      <c r="G6" s="3" t="n">
+        <v>44966</v>
       </c>
       <c r="H6" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I6" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -684,14 +687,14 @@
       <c r="F7" t="n">
         <v>5</v>
       </c>
-      <c r="G7" s="2" t="n">
-        <v>44954</v>
+      <c r="G7" s="3" t="n">
+        <v>44966</v>
       </c>
       <c r="H7" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I7" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8">
@@ -719,14 +722,14 @@
       <c r="F8" t="n">
         <v>5</v>
       </c>
-      <c r="G8" s="2" t="n">
-        <v>44954</v>
+      <c r="G8" s="3" t="n">
+        <v>44966</v>
       </c>
       <c r="H8" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I8" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9">
@@ -754,14 +757,14 @@
       <c r="F9" t="n">
         <v>5</v>
       </c>
-      <c r="G9" s="2" t="n">
-        <v>44954</v>
+      <c r="G9" s="3" t="n">
+        <v>44966</v>
       </c>
       <c r="H9" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -789,14 +792,14 @@
       <c r="F10" t="n">
         <v>5</v>
       </c>
-      <c r="G10" s="2" t="n">
-        <v>44954</v>
+      <c r="G10" s="3" t="n">
+        <v>44966</v>
       </c>
       <c r="H10" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I10" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -824,14 +827,14 @@
       <c r="F11" t="n">
         <v>5</v>
       </c>
-      <c r="G11" s="2" t="n">
-        <v>44954</v>
+      <c r="G11" s="3" t="n">
+        <v>44966</v>
       </c>
       <c r="H11" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -859,14 +862,14 @@
       <c r="F12" t="n">
         <v>5</v>
       </c>
-      <c r="G12" s="2" t="n">
-        <v>44954</v>
+      <c r="G12" s="3" t="n">
+        <v>44966</v>
       </c>
       <c r="H12" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I12" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13">
@@ -894,14 +897,14 @@
       <c r="F13" t="n">
         <v>5</v>
       </c>
-      <c r="G13" s="2" t="n">
-        <v>44954</v>
+      <c r="G13" s="3" t="n">
+        <v>44966</v>
       </c>
       <c r="H13" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14">
@@ -929,14 +932,14 @@
       <c r="F14" t="n">
         <v>5</v>
       </c>
-      <c r="G14" s="2" t="n">
-        <v>44954</v>
+      <c r="G14" s="3" t="n">
+        <v>44966</v>
       </c>
       <c r="H14" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I14" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15">
@@ -964,14 +967,14 @@
       <c r="F15" t="n">
         <v>5</v>
       </c>
-      <c r="G15" s="2" t="n">
-        <v>44954</v>
+      <c r="G15" s="3" t="n">
+        <v>44966</v>
       </c>
       <c r="H15" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I15" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16">
@@ -999,14 +1002,14 @@
       <c r="F16" t="n">
         <v>5</v>
       </c>
-      <c r="G16" s="2" t="n">
-        <v>44954</v>
+      <c r="G16" s="3" t="n">
+        <v>44966</v>
       </c>
       <c r="H16" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1034,8 +1037,8 @@
       <c r="F17" t="n">
         <v>5</v>
       </c>
-      <c r="G17" s="2" t="n">
-        <v>44954</v>
+      <c r="G17" s="3" t="n">
+        <v>44966</v>
       </c>
       <c r="H17" s="2" t="n">
         <v>117642</v>
@@ -1069,14 +1072,14 @@
       <c r="F18" t="n">
         <v>5</v>
       </c>
-      <c r="G18" s="2" t="n">
-        <v>44954</v>
+      <c r="G18" s="3" t="n">
+        <v>44966</v>
       </c>
       <c r="H18" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -1104,8 +1107,8 @@
       <c r="F19" t="n">
         <v>5</v>
       </c>
-      <c r="G19" s="2" t="n">
-        <v>44954</v>
+      <c r="G19" s="3" t="n">
+        <v>44966</v>
       </c>
       <c r="H19" s="2" t="n">
         <v>117642</v>
@@ -1139,14 +1142,14 @@
       <c r="F20" t="n">
         <v>5</v>
       </c>
-      <c r="G20" s="2" t="n">
-        <v>44954</v>
+      <c r="G20" s="3" t="n">
+        <v>44966</v>
       </c>
       <c r="H20" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I20" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21">
@@ -1174,14 +1177,14 @@
       <c r="F21" t="n">
         <v>5</v>
       </c>
-      <c r="G21" s="2" t="n">
-        <v>44954</v>
+      <c r="G21" s="3" t="n">
+        <v>44966</v>
       </c>
       <c r="H21" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
@@ -1209,14 +1212,14 @@
       <c r="F22" t="n">
         <v>5</v>
       </c>
-      <c r="G22" s="2" t="n">
-        <v>44954</v>
+      <c r="G22" s="3" t="n">
+        <v>44966</v>
       </c>
       <c r="H22" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -1245,14 +1248,14 @@
       <c r="F23" t="n">
         <v>5</v>
       </c>
-      <c r="G23" s="2" t="n">
-        <v>44954</v>
+      <c r="G23" s="3" t="n">
+        <v>44966</v>
       </c>
       <c r="H23" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I23" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24">
@@ -1280,14 +1283,14 @@
       <c r="F24" t="n">
         <v>5</v>
       </c>
-      <c r="G24" s="2" t="n">
-        <v>44954</v>
+      <c r="G24" s="3" t="n">
+        <v>44966</v>
       </c>
       <c r="H24" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1315,8 +1318,8 @@
       <c r="F25" t="n">
         <v>5</v>
       </c>
-      <c r="G25" s="2" t="n">
-        <v>44954</v>
+      <c r="G25" s="3" t="n">
+        <v>44966</v>
       </c>
       <c r="H25" s="2" t="n">
         <v>117642</v>
@@ -1350,14 +1353,14 @@
       <c r="F26" t="n">
         <v>5</v>
       </c>
-      <c r="G26" s="2" t="n">
-        <v>44954</v>
+      <c r="G26" s="3" t="n">
+        <v>44966</v>
       </c>
       <c r="H26" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I26" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="27">
@@ -1385,8 +1388,8 @@
       <c r="F27" t="n">
         <v>5</v>
       </c>
-      <c r="G27" s="2" t="n">
-        <v>44954</v>
+      <c r="G27" s="3" t="n">
+        <v>44966</v>
       </c>
       <c r="H27" s="2" t="n">
         <v>117642</v>
@@ -1420,8 +1423,8 @@
       <c r="F28" t="n">
         <v>5</v>
       </c>
-      <c r="G28" s="2" t="n">
-        <v>44954</v>
+      <c r="G28" s="3" t="n">
+        <v>44966</v>
       </c>
       <c r="H28" s="2" t="n">
         <v>117642</v>
@@ -1455,14 +1458,14 @@
       <c r="F29" t="n">
         <v>5</v>
       </c>
-      <c r="G29" s="2" t="n">
-        <v>44954</v>
+      <c r="G29" s="3" t="n">
+        <v>44966</v>
       </c>
       <c r="H29" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I29" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30">
@@ -1490,14 +1493,14 @@
       <c r="F30" t="n">
         <v>5</v>
       </c>
-      <c r="G30" s="2" t="n">
-        <v>44954</v>
+      <c r="G30" s="3" t="n">
+        <v>44966</v>
       </c>
       <c r="H30" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31">
@@ -1525,14 +1528,14 @@
       <c r="F31" t="n">
         <v>5</v>
       </c>
-      <c r="G31" s="2" t="n">
-        <v>44954</v>
+      <c r="G31" s="3" t="n">
+        <v>44966</v>
       </c>
       <c r="H31" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I31" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -1560,14 +1563,14 @@
       <c r="F32" t="n">
         <v>5</v>
       </c>
-      <c r="G32" s="2" t="n">
-        <v>44954</v>
+      <c r="G32" s="3" t="n">
+        <v>44966</v>
       </c>
       <c r="H32" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I32" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -1595,14 +1598,14 @@
       <c r="F33" t="n">
         <v>5</v>
       </c>
-      <c r="G33" s="2" t="n">
-        <v>44954</v>
+      <c r="G33" s="3" t="n">
+        <v>44966</v>
       </c>
       <c r="H33" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I33" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34">
@@ -1630,14 +1633,14 @@
       <c r="F34" t="n">
         <v>5</v>
       </c>
-      <c r="G34" s="2" t="n">
-        <v>44954</v>
+      <c r="G34" s="3" t="n">
+        <v>44966</v>
       </c>
       <c r="H34" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I34" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -1665,14 +1668,14 @@
       <c r="F35" t="n">
         <v>5</v>
       </c>
-      <c r="G35" s="2" t="n">
-        <v>44954</v>
+      <c r="G35" s="3" t="n">
+        <v>44966</v>
       </c>
       <c r="H35" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I35" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36">
@@ -1700,14 +1703,14 @@
       <c r="F36" t="n">
         <v>5</v>
       </c>
-      <c r="G36" s="2" t="n">
-        <v>44954</v>
+      <c r="G36" s="3" t="n">
+        <v>44966</v>
       </c>
       <c r="H36" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I36" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37">
@@ -1735,14 +1738,14 @@
       <c r="F37" t="n">
         <v>5</v>
       </c>
-      <c r="G37" s="2" t="n">
-        <v>44954</v>
+      <c r="G37" s="3" t="n">
+        <v>44966</v>
       </c>
       <c r="H37" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I37" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="38">
@@ -1770,14 +1773,14 @@
       <c r="F38" t="n">
         <v>5</v>
       </c>
-      <c r="G38" s="2" t="n">
-        <v>44954</v>
+      <c r="G38" s="3" t="n">
+        <v>44966</v>
       </c>
       <c r="H38" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I38" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -1805,14 +1808,14 @@
       <c r="F39" t="n">
         <v>5</v>
       </c>
-      <c r="G39" s="2" t="n">
-        <v>44954</v>
+      <c r="G39" s="3" t="n">
+        <v>44966</v>
       </c>
       <c r="H39" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I39" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40">
@@ -1840,14 +1843,14 @@
       <c r="F40" t="n">
         <v>5</v>
       </c>
-      <c r="G40" s="2" t="n">
-        <v>44954</v>
+      <c r="G40" s="3" t="n">
+        <v>44966</v>
       </c>
       <c r="H40" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I40" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41">
@@ -1875,14 +1878,14 @@
       <c r="F41" t="n">
         <v>5</v>
       </c>
-      <c r="G41" s="2" t="n">
-        <v>44954</v>
+      <c r="G41" s="3" t="n">
+        <v>44966</v>
       </c>
       <c r="H41" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I41" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42">
@@ -1910,14 +1913,14 @@
       <c r="F42" t="n">
         <v>5</v>
       </c>
-      <c r="G42" s="2" t="n">
-        <v>44954</v>
+      <c r="G42" s="3" t="n">
+        <v>44966</v>
       </c>
       <c r="H42" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I42" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="43">
@@ -1943,14 +1946,14 @@
       <c r="F43" t="n">
         <v>5</v>
       </c>
-      <c r="G43" s="2" t="n">
-        <v>44954</v>
+      <c r="G43" s="3" t="n">
+        <v>44966</v>
       </c>
       <c r="H43" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I43" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="44">
@@ -1976,14 +1979,14 @@
       <c r="F44" t="n">
         <v>5</v>
       </c>
-      <c r="G44" s="2" t="n">
-        <v>44954</v>
+      <c r="G44" s="3" t="n">
+        <v>44966</v>
       </c>
       <c r="H44" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I44" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="45">
@@ -2009,14 +2012,14 @@
       <c r="F45" t="n">
         <v>5</v>
       </c>
-      <c r="G45" s="2" t="n">
-        <v>44954</v>
+      <c r="G45" s="3" t="n">
+        <v>44966</v>
       </c>
       <c r="H45" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I45" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46">
@@ -2042,14 +2045,14 @@
       <c r="F46" t="n">
         <v>5</v>
       </c>
-      <c r="G46" s="2" t="n">
-        <v>44954</v>
+      <c r="G46" s="3" t="n">
+        <v>44966</v>
       </c>
       <c r="H46" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I46" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="47">
@@ -2075,14 +2078,14 @@
       <c r="F47" t="n">
         <v>5</v>
       </c>
-      <c r="G47" s="2" t="n">
-        <v>44954</v>
+      <c r="G47" s="3" t="n">
+        <v>44966</v>
       </c>
       <c r="H47" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I47" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -2108,14 +2111,14 @@
       <c r="F48" t="n">
         <v>5</v>
       </c>
-      <c r="G48" s="2" t="n">
-        <v>44954</v>
+      <c r="G48" s="3" t="n">
+        <v>44966</v>
       </c>
       <c r="H48" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I48" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -2141,14 +2144,14 @@
       <c r="F49" t="n">
         <v>5</v>
       </c>
-      <c r="G49" s="2" t="n">
-        <v>44954</v>
+      <c r="G49" s="3" t="n">
+        <v>44966</v>
       </c>
       <c r="H49" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I49" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50">
@@ -2174,14 +2177,14 @@
       <c r="F50" t="n">
         <v>5</v>
       </c>
-      <c r="G50" s="2" t="n">
-        <v>44954</v>
+      <c r="G50" s="3" t="n">
+        <v>44966</v>
       </c>
       <c r="H50" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I50" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
@@ -2207,14 +2210,14 @@
       <c r="F51" t="n">
         <v>5</v>
       </c>
-      <c r="G51" s="2" t="n">
-        <v>44954</v>
+      <c r="G51" s="3" t="n">
+        <v>44966</v>
       </c>
       <c r="H51" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I51" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
@@ -2240,14 +2243,14 @@
       <c r="F52" t="n">
         <v>5</v>
       </c>
-      <c r="G52" s="2" t="n">
-        <v>44954</v>
+      <c r="G52" s="3" t="n">
+        <v>44966</v>
       </c>
       <c r="H52" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I52" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="53">
@@ -2273,14 +2276,14 @@
       <c r="F53" t="n">
         <v>5</v>
       </c>
-      <c r="G53" s="2" t="n">
-        <v>44954</v>
+      <c r="G53" s="3" t="n">
+        <v>44966</v>
       </c>
       <c r="H53" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I53" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="54">
@@ -2306,14 +2309,14 @@
       <c r="F54" t="n">
         <v>5</v>
       </c>
-      <c r="G54" s="2" t="n">
-        <v>44954</v>
+      <c r="G54" s="3" t="n">
+        <v>44966</v>
       </c>
       <c r="H54" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I54" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="55">
@@ -2339,8 +2342,8 @@
       <c r="F55" t="n">
         <v>5</v>
       </c>
-      <c r="G55" s="2" t="n">
-        <v>44954</v>
+      <c r="G55" s="3" t="n">
+        <v>44966</v>
       </c>
       <c r="H55" s="2" t="n">
         <v>117642</v>
@@ -2372,14 +2375,14 @@
       <c r="F56" t="n">
         <v>5</v>
       </c>
-      <c r="G56" s="2" t="n">
-        <v>44954</v>
+      <c r="G56" s="3" t="n">
+        <v>44966</v>
       </c>
       <c r="H56" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I56" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57">
@@ -2405,14 +2408,14 @@
       <c r="F57" t="n">
         <v>5</v>
       </c>
-      <c r="G57" s="2" t="n">
-        <v>44954</v>
+      <c r="G57" s="3" t="n">
+        <v>44966</v>
       </c>
       <c r="H57" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I57" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58">
@@ -2438,14 +2441,14 @@
       <c r="F58" t="n">
         <v>5</v>
       </c>
-      <c r="G58" s="2" t="n">
-        <v>44954</v>
+      <c r="G58" s="3" t="n">
+        <v>44966</v>
       </c>
       <c r="H58" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I58" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59">
@@ -2471,8 +2474,8 @@
       <c r="F59" t="n">
         <v>5</v>
       </c>
-      <c r="G59" s="2" t="n">
-        <v>44954</v>
+      <c r="G59" s="3" t="n">
+        <v>44966</v>
       </c>
       <c r="H59" s="2" t="n">
         <v>117642</v>
@@ -2504,14 +2507,14 @@
       <c r="F60" t="n">
         <v>5</v>
       </c>
-      <c r="G60" s="2" t="n">
-        <v>44954</v>
+      <c r="G60" s="3" t="n">
+        <v>44966</v>
       </c>
       <c r="H60" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I60" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61">
@@ -2537,14 +2540,14 @@
       <c r="F61" t="n">
         <v>5</v>
       </c>
-      <c r="G61" s="2" t="n">
-        <v>44954</v>
+      <c r="G61" s="3" t="n">
+        <v>44966</v>
       </c>
       <c r="H61" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I61" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
@@ -2570,14 +2573,14 @@
       <c r="F62" t="n">
         <v>5</v>
       </c>
-      <c r="G62" s="2" t="n">
-        <v>44954</v>
+      <c r="G62" s="3" t="n">
+        <v>44966</v>
       </c>
       <c r="H62" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I62" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63">
@@ -2603,14 +2606,14 @@
       <c r="F63" t="n">
         <v>5</v>
       </c>
-      <c r="G63" s="2" t="n">
-        <v>44954</v>
+      <c r="G63" s="3" t="n">
+        <v>44966</v>
       </c>
       <c r="H63" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I63" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64">
@@ -2636,14 +2639,14 @@
       <c r="F64" t="n">
         <v>5</v>
       </c>
-      <c r="G64" s="2" t="n">
-        <v>44954</v>
+      <c r="G64" s="3" t="n">
+        <v>44966</v>
       </c>
       <c r="H64" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I64" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="65">
@@ -2669,14 +2672,14 @@
       <c r="F65" t="n">
         <v>5</v>
       </c>
-      <c r="G65" s="2" t="n">
-        <v>44954</v>
+      <c r="G65" s="3" t="n">
+        <v>44966</v>
       </c>
       <c r="H65" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66">
@@ -2702,8 +2705,8 @@
       <c r="F66" t="n">
         <v>5</v>
       </c>
-      <c r="G66" s="2" t="n">
-        <v>44954</v>
+      <c r="G66" s="3" t="n">
+        <v>44966</v>
       </c>
       <c r="H66" s="2" t="n">
         <v>117642</v>
@@ -2735,14 +2738,14 @@
       <c r="F67" t="n">
         <v>5</v>
       </c>
-      <c r="G67" s="2" t="n">
-        <v>44954</v>
+      <c r="G67" s="3" t="n">
+        <v>44966</v>
       </c>
       <c r="H67" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I67" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
@@ -2768,14 +2771,14 @@
       <c r="F68" t="n">
         <v>5</v>
       </c>
-      <c r="G68" s="2" t="n">
-        <v>44954</v>
+      <c r="G68" s="3" t="n">
+        <v>44966</v>
       </c>
       <c r="H68" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I68" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69">
@@ -2801,14 +2804,14 @@
       <c r="F69" t="n">
         <v>5</v>
       </c>
-      <c r="G69" s="2" t="n">
-        <v>44954</v>
+      <c r="G69" s="3" t="n">
+        <v>44966</v>
       </c>
       <c r="H69" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I69" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70">
@@ -2834,8 +2837,8 @@
       <c r="F70" t="n">
         <v>5</v>
       </c>
-      <c r="G70" s="2" t="n">
-        <v>44954</v>
+      <c r="G70" s="3" t="n">
+        <v>44966</v>
       </c>
       <c r="H70" s="2" t="n">
         <v>117642</v>
@@ -2867,14 +2870,14 @@
       <c r="F71" t="n">
         <v>5</v>
       </c>
-      <c r="G71" s="2" t="n">
-        <v>44954</v>
+      <c r="G71" s="3" t="n">
+        <v>44966</v>
       </c>
       <c r="H71" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I71" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72">
@@ -2900,14 +2903,14 @@
       <c r="F72" t="n">
         <v>5</v>
       </c>
-      <c r="G72" s="2" t="n">
-        <v>44954</v>
+      <c r="G72" s="3" t="n">
+        <v>44966</v>
       </c>
       <c r="H72" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I72" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73">
@@ -2933,14 +2936,14 @@
       <c r="F73" t="n">
         <v>5</v>
       </c>
-      <c r="G73" s="2" t="n">
-        <v>44954</v>
+      <c r="G73" s="3" t="n">
+        <v>44966</v>
       </c>
       <c r="H73" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I73" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="74">
@@ -2966,14 +2969,14 @@
       <c r="F74" t="n">
         <v>5</v>
       </c>
-      <c r="G74" s="2" t="n">
-        <v>44954</v>
+      <c r="G74" s="3" t="n">
+        <v>44966</v>
       </c>
       <c r="H74" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I74" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="75">
@@ -2999,14 +3002,14 @@
       <c r="F75" t="n">
         <v>5</v>
       </c>
-      <c r="G75" s="2" t="n">
-        <v>44954</v>
+      <c r="G75" s="3" t="n">
+        <v>44966</v>
       </c>
       <c r="H75" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I75" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="76">
@@ -3032,14 +3035,14 @@
       <c r="F76" t="n">
         <v>5</v>
       </c>
-      <c r="G76" s="2" t="n">
-        <v>44954</v>
+      <c r="G76" s="3" t="n">
+        <v>44966</v>
       </c>
       <c r="H76" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I76" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="77">
@@ -3065,8 +3068,8 @@
       <c r="F77" t="n">
         <v>5</v>
       </c>
-      <c r="G77" s="2" t="n">
-        <v>44954</v>
+      <c r="G77" s="3" t="n">
+        <v>44966</v>
       </c>
       <c r="H77" s="2" t="n">
         <v>117642</v>
@@ -3098,8 +3101,8 @@
       <c r="F78" t="n">
         <v>5</v>
       </c>
-      <c r="G78" s="2" t="n">
-        <v>44954</v>
+      <c r="G78" s="3" t="n">
+        <v>44966</v>
       </c>
       <c r="H78" s="2" t="n">
         <v>117642</v>
@@ -3131,14 +3134,14 @@
       <c r="F79" t="n">
         <v>5</v>
       </c>
-      <c r="G79" s="2" t="n">
-        <v>44954</v>
+      <c r="G79" s="3" t="n">
+        <v>44966</v>
       </c>
       <c r="H79" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I79" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80">
@@ -3164,14 +3167,14 @@
       <c r="F80" t="n">
         <v>5</v>
       </c>
-      <c r="G80" s="2" t="n">
-        <v>44954</v>
+      <c r="G80" s="3" t="n">
+        <v>44966</v>
       </c>
       <c r="H80" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I80" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -3197,8 +3200,8 @@
       <c r="F81" t="n">
         <v>5</v>
       </c>
-      <c r="G81" s="2" t="n">
-        <v>44954</v>
+      <c r="G81" s="3" t="n">
+        <v>44966</v>
       </c>
       <c r="H81" s="2" t="n">
         <v>117642</v>
@@ -3230,14 +3233,14 @@
       <c r="F82" t="n">
         <v>5</v>
       </c>
-      <c r="G82" s="2" t="n">
-        <v>44954</v>
+      <c r="G82" s="3" t="n">
+        <v>44966</v>
       </c>
       <c r="H82" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I82" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="83">
@@ -3263,14 +3266,14 @@
       <c r="F83" t="n">
         <v>5</v>
       </c>
-      <c r="G83" s="2" t="n">
-        <v>44954</v>
+      <c r="G83" s="3" t="n">
+        <v>44966</v>
       </c>
       <c r="H83" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I83" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="84">
@@ -3296,8 +3299,8 @@
       <c r="F84" t="n">
         <v>5</v>
       </c>
-      <c r="G84" s="2" t="n">
-        <v>44954</v>
+      <c r="G84" s="3" t="n">
+        <v>44966</v>
       </c>
       <c r="H84" s="2" t="n">
         <v>117642</v>
@@ -3330,14 +3333,14 @@
       <c r="F85" t="n">
         <v>5</v>
       </c>
-      <c r="G85" s="2" t="n">
-        <v>44954</v>
+      <c r="G85" s="3" t="n">
+        <v>44966</v>
       </c>
       <c r="H85" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I85" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="86">
@@ -3363,14 +3366,14 @@
       <c r="F86" t="n">
         <v>5</v>
       </c>
-      <c r="G86" s="2" t="n">
-        <v>44954</v>
+      <c r="G86" s="3" t="n">
+        <v>44966</v>
       </c>
       <c r="H86" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I86" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87">
@@ -3396,14 +3399,14 @@
       <c r="F87" t="n">
         <v>5</v>
       </c>
-      <c r="G87" s="2" t="n">
-        <v>44954</v>
+      <c r="G87" s="3" t="n">
+        <v>44966</v>
       </c>
       <c r="H87" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I87" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="88">
@@ -3429,14 +3432,14 @@
       <c r="F88" t="n">
         <v>5</v>
       </c>
-      <c r="G88" s="2" t="n">
-        <v>44954</v>
+      <c r="G88" s="3" t="n">
+        <v>44966</v>
       </c>
       <c r="H88" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
@@ -3462,14 +3465,14 @@
       <c r="F89" t="n">
         <v>5</v>
       </c>
-      <c r="G89" s="2" t="n">
-        <v>44954</v>
+      <c r="G89" s="3" t="n">
+        <v>44966</v>
       </c>
       <c r="H89" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I89" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90">
@@ -3495,14 +3498,14 @@
       <c r="F90" t="n">
         <v>5</v>
       </c>
-      <c r="G90" s="2" t="n">
-        <v>44954</v>
+      <c r="G90" s="3" t="n">
+        <v>44966</v>
       </c>
       <c r="H90" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I90" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91">
@@ -3528,14 +3531,14 @@
       <c r="F91" t="n">
         <v>5</v>
       </c>
-      <c r="G91" s="2" t="n">
-        <v>44954</v>
+      <c r="G91" s="3" t="n">
+        <v>44966</v>
       </c>
       <c r="H91" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I91" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="92">
@@ -3561,14 +3564,14 @@
       <c r="F92" t="n">
         <v>5</v>
       </c>
-      <c r="G92" s="2" t="n">
-        <v>44954</v>
+      <c r="G92" s="3" t="n">
+        <v>44966</v>
       </c>
       <c r="H92" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I92" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="93">
@@ -3594,14 +3597,14 @@
       <c r="F93" t="n">
         <v>5</v>
       </c>
-      <c r="G93" s="2" t="n">
-        <v>44954</v>
+      <c r="G93" s="3" t="n">
+        <v>44966</v>
       </c>
       <c r="H93" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I93" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="94">
@@ -3627,14 +3630,14 @@
       <c r="F94" t="n">
         <v>5</v>
       </c>
-      <c r="G94" s="2" t="n">
-        <v>44954</v>
+      <c r="G94" s="3" t="n">
+        <v>44966</v>
       </c>
       <c r="H94" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I94" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="95">
@@ -3660,14 +3663,14 @@
       <c r="F95" t="n">
         <v>5</v>
       </c>
-      <c r="G95" s="2" t="n">
-        <v>44954</v>
+      <c r="G95" s="3" t="n">
+        <v>44966</v>
       </c>
       <c r="H95" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I95" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="96">
@@ -3693,14 +3696,14 @@
       <c r="F96" t="n">
         <v>5</v>
       </c>
-      <c r="G96" s="2" t="n">
-        <v>44954</v>
+      <c r="G96" s="3" t="n">
+        <v>44966</v>
       </c>
       <c r="H96" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I96" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="97">
@@ -3726,8 +3729,8 @@
       <c r="F97" t="n">
         <v>5</v>
       </c>
-      <c r="G97" s="2" t="n">
-        <v>44954</v>
+      <c r="G97" s="3" t="n">
+        <v>44966</v>
       </c>
       <c r="H97" s="2" t="n">
         <v>117642</v>
@@ -3759,8 +3762,8 @@
       <c r="F98" t="n">
         <v>5</v>
       </c>
-      <c r="G98" s="2" t="n">
-        <v>44954</v>
+      <c r="G98" s="3" t="n">
+        <v>44966</v>
       </c>
       <c r="H98" s="2" t="n">
         <v>117642</v>
@@ -3792,14 +3795,14 @@
       <c r="F99" t="n">
         <v>5</v>
       </c>
-      <c r="G99" s="2" t="n">
-        <v>44954</v>
+      <c r="G99" s="3" t="n">
+        <v>44966</v>
       </c>
       <c r="H99" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I99" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
@@ -3825,14 +3828,14 @@
       <c r="F100" t="n">
         <v>5</v>
       </c>
-      <c r="G100" s="2" t="n">
-        <v>44954</v>
+      <c r="G100" s="3" t="n">
+        <v>44966</v>
       </c>
       <c r="H100" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101">
@@ -3858,14 +3861,14 @@
       <c r="F101" t="n">
         <v>5</v>
       </c>
-      <c r="G101" s="2" t="n">
-        <v>44954</v>
+      <c r="G101" s="3" t="n">
+        <v>44966</v>
       </c>
       <c r="H101" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I101" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="102">
@@ -3891,14 +3894,14 @@
       <c r="F102" t="n">
         <v>5</v>
       </c>
-      <c r="G102" s="2" t="n">
-        <v>44954</v>
+      <c r="G102" s="3" t="n">
+        <v>44966</v>
       </c>
       <c r="H102" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I102" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="103">
@@ -3924,14 +3927,14 @@
       <c r="F103" t="n">
         <v>5</v>
       </c>
-      <c r="G103" s="2" t="n">
-        <v>44954</v>
+      <c r="G103" s="3" t="n">
+        <v>44966</v>
       </c>
       <c r="H103" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I103" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104">
@@ -3957,14 +3960,14 @@
       <c r="F104" t="n">
         <v>5</v>
       </c>
-      <c r="G104" s="2" t="n">
-        <v>44954</v>
+      <c r="G104" s="3" t="n">
+        <v>44966</v>
       </c>
       <c r="H104" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I104" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="105">
@@ -3990,14 +3993,14 @@
       <c r="F105" t="n">
         <v>5</v>
       </c>
-      <c r="G105" s="2" t="n">
-        <v>44954</v>
+      <c r="G105" s="3" t="n">
+        <v>44966</v>
       </c>
       <c r="H105" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I105" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="106">
@@ -4023,14 +4026,14 @@
       <c r="F106" t="n">
         <v>5</v>
       </c>
-      <c r="G106" s="2" t="n">
-        <v>44954</v>
+      <c r="G106" s="3" t="n">
+        <v>44966</v>
       </c>
       <c r="H106" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I106" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="107">
@@ -4056,14 +4059,14 @@
       <c r="F107" t="n">
         <v>5</v>
       </c>
-      <c r="G107" s="2" t="n">
-        <v>44954</v>
+      <c r="G107" s="3" t="n">
+        <v>44966</v>
       </c>
       <c r="H107" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I107" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="108">
@@ -4089,14 +4092,14 @@
       <c r="F108" t="n">
         <v>5</v>
       </c>
-      <c r="G108" s="2" t="n">
-        <v>44954</v>
+      <c r="G108" s="3" t="n">
+        <v>44966</v>
       </c>
       <c r="H108" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I108" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109">
@@ -4122,14 +4125,14 @@
       <c r="F109" t="n">
         <v>5</v>
       </c>
-      <c r="G109" s="2" t="n">
-        <v>44954</v>
+      <c r="G109" s="3" t="n">
+        <v>44966</v>
       </c>
       <c r="H109" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I109" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110">
@@ -4155,8 +4158,8 @@
       <c r="F110" t="n">
         <v>5</v>
       </c>
-      <c r="G110" s="2" t="n">
-        <v>44954</v>
+      <c r="G110" s="3" t="n">
+        <v>44966</v>
       </c>
       <c r="H110" s="2" t="n">
         <v>117642</v>
@@ -4188,14 +4191,14 @@
       <c r="F111" t="n">
         <v>5</v>
       </c>
-      <c r="G111" s="2" t="n">
-        <v>44954</v>
+      <c r="G111" s="3" t="n">
+        <v>44966</v>
       </c>
       <c r="H111" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I111" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="112">
@@ -4221,14 +4224,14 @@
       <c r="F112" t="n">
         <v>5</v>
       </c>
-      <c r="G112" s="2" t="n">
-        <v>44954</v>
+      <c r="G112" s="3" t="n">
+        <v>44966</v>
       </c>
       <c r="H112" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I112" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113">
@@ -4254,14 +4257,14 @@
       <c r="F113" t="n">
         <v>5</v>
       </c>
-      <c r="G113" s="2" t="n">
-        <v>44954</v>
+      <c r="G113" s="3" t="n">
+        <v>44966</v>
       </c>
       <c r="H113" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I113" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="114">
@@ -4287,14 +4290,14 @@
       <c r="F114" t="n">
         <v>5</v>
       </c>
-      <c r="G114" s="2" t="n">
-        <v>44954</v>
+      <c r="G114" s="3" t="n">
+        <v>44966</v>
       </c>
       <c r="H114" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I114" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="115">
@@ -4320,14 +4323,14 @@
       <c r="F115" t="n">
         <v>5</v>
       </c>
-      <c r="G115" s="2" t="n">
-        <v>44954</v>
+      <c r="G115" s="3" t="n">
+        <v>44966</v>
       </c>
       <c r="H115" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I115" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="116">
@@ -4353,8 +4356,8 @@
       <c r="F116" t="n">
         <v>5</v>
       </c>
-      <c r="G116" s="2" t="n">
-        <v>44954</v>
+      <c r="G116" s="3" t="n">
+        <v>44966</v>
       </c>
       <c r="H116" s="2" t="n">
         <v>117642</v>
@@ -4386,14 +4389,14 @@
       <c r="F117" t="n">
         <v>5</v>
       </c>
-      <c r="G117" s="2" t="n">
-        <v>44954</v>
+      <c r="G117" s="3" t="n">
+        <v>44966</v>
       </c>
       <c r="H117" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I117" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="118">
@@ -4419,14 +4422,14 @@
       <c r="F118" t="n">
         <v>5</v>
       </c>
-      <c r="G118" s="2" t="n">
-        <v>44954</v>
+      <c r="G118" s="3" t="n">
+        <v>44966</v>
       </c>
       <c r="H118" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I118" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119">
@@ -4452,14 +4455,14 @@
       <c r="F119" t="n">
         <v>5</v>
       </c>
-      <c r="G119" s="2" t="n">
-        <v>44954</v>
+      <c r="G119" s="3" t="n">
+        <v>44966</v>
       </c>
       <c r="H119" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I119" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120">
@@ -4485,14 +4488,14 @@
       <c r="F120" t="n">
         <v>5</v>
       </c>
-      <c r="G120" s="2" t="n">
-        <v>44954</v>
+      <c r="G120" s="3" t="n">
+        <v>44966</v>
       </c>
       <c r="H120" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I120" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="121">
@@ -4518,14 +4521,14 @@
       <c r="F121" t="n">
         <v>5</v>
       </c>
-      <c r="G121" s="2" t="n">
-        <v>44954</v>
+      <c r="G121" s="3" t="n">
+        <v>44966</v>
       </c>
       <c r="H121" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I121" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="122">
@@ -4551,14 +4554,14 @@
       <c r="F122" t="n">
         <v>5</v>
       </c>
-      <c r="G122" s="2" t="n">
-        <v>44954</v>
+      <c r="G122" s="3" t="n">
+        <v>44966</v>
       </c>
       <c r="H122" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I122" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="123">
@@ -4584,14 +4587,14 @@
       <c r="F123" t="n">
         <v>5</v>
       </c>
-      <c r="G123" s="2" t="n">
-        <v>44954</v>
+      <c r="G123" s="3" t="n">
+        <v>44966</v>
       </c>
       <c r="H123" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I123" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="124">
@@ -4617,14 +4620,14 @@
       <c r="F124" t="n">
         <v>5</v>
       </c>
-      <c r="G124" s="2" t="n">
-        <v>44954</v>
+      <c r="G124" s="3" t="n">
+        <v>44966</v>
       </c>
       <c r="H124" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I124" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125">
@@ -4650,14 +4653,14 @@
       <c r="F125" t="n">
         <v>5</v>
       </c>
-      <c r="G125" s="2" t="n">
-        <v>44954</v>
+      <c r="G125" s="3" t="n">
+        <v>44966</v>
       </c>
       <c r="H125" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I125" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="126">
@@ -4683,14 +4686,14 @@
       <c r="F126" t="n">
         <v>5</v>
       </c>
-      <c r="G126" s="2" t="n">
-        <v>44954</v>
+      <c r="G126" s="3" t="n">
+        <v>44966</v>
       </c>
       <c r="H126" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I126" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="127">
@@ -4716,14 +4719,14 @@
       <c r="F127" t="n">
         <v>5</v>
       </c>
-      <c r="G127" s="2" t="n">
-        <v>44954</v>
+      <c r="G127" s="3" t="n">
+        <v>44966</v>
       </c>
       <c r="H127" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I127" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="128">
@@ -4749,14 +4752,14 @@
       <c r="F128" t="n">
         <v>5</v>
       </c>
-      <c r="G128" s="2" t="n">
-        <v>44954</v>
+      <c r="G128" s="3" t="n">
+        <v>44966</v>
       </c>
       <c r="H128" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I128" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="129">
@@ -4782,14 +4785,14 @@
       <c r="F129" t="n">
         <v>5</v>
       </c>
-      <c r="G129" s="2" t="n">
-        <v>44954</v>
+      <c r="G129" s="3" t="n">
+        <v>44966</v>
       </c>
       <c r="H129" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I129" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130">
@@ -4815,14 +4818,14 @@
       <c r="F130" t="n">
         <v>5</v>
       </c>
-      <c r="G130" s="2" t="n">
-        <v>44954</v>
+      <c r="G130" s="3" t="n">
+        <v>44966</v>
       </c>
       <c r="H130" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I130" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="131">
@@ -4848,14 +4851,14 @@
       <c r="F131" t="n">
         <v>5</v>
       </c>
-      <c r="G131" s="2" t="n">
-        <v>44954</v>
+      <c r="G131" s="3" t="n">
+        <v>44966</v>
       </c>
       <c r="H131" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I131" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="132">
@@ -4881,8 +4884,8 @@
       <c r="F132" t="n">
         <v>5</v>
       </c>
-      <c r="G132" s="2" t="n">
-        <v>44954</v>
+      <c r="G132" s="3" t="n">
+        <v>44966</v>
       </c>
       <c r="H132" s="2" t="n">
         <v>117642</v>
@@ -4914,8 +4917,8 @@
       <c r="F133" t="n">
         <v>5</v>
       </c>
-      <c r="G133" s="2" t="n">
-        <v>44954</v>
+      <c r="G133" s="3" t="n">
+        <v>44966</v>
       </c>
       <c r="H133" s="2" t="n">
         <v>117642</v>
@@ -4947,14 +4950,14 @@
       <c r="F134" t="n">
         <v>5</v>
       </c>
-      <c r="G134" s="2" t="n">
-        <v>44954</v>
+      <c r="G134" s="3" t="n">
+        <v>44966</v>
       </c>
       <c r="H134" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I134" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135">
@@ -4980,8 +4983,8 @@
       <c r="F135" t="n">
         <v>5</v>
       </c>
-      <c r="G135" s="2" t="n">
-        <v>44954</v>
+      <c r="G135" s="3" t="n">
+        <v>44966</v>
       </c>
       <c r="H135" s="2" t="n">
         <v>117642</v>
@@ -5013,14 +5016,14 @@
       <c r="F136" t="n">
         <v>5</v>
       </c>
-      <c r="G136" s="2" t="n">
-        <v>44954</v>
+      <c r="G136" s="3" t="n">
+        <v>44966</v>
       </c>
       <c r="H136" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I136" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="137">
@@ -5046,14 +5049,14 @@
       <c r="F137" t="n">
         <v>5</v>
       </c>
-      <c r="G137" s="2" t="n">
-        <v>44954</v>
+      <c r="G137" s="3" t="n">
+        <v>44966</v>
       </c>
       <c r="H137" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I137" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="138">
@@ -5079,14 +5082,14 @@
       <c r="F138" t="n">
         <v>5</v>
       </c>
-      <c r="G138" s="2" t="n">
-        <v>44954</v>
+      <c r="G138" s="3" t="n">
+        <v>44966</v>
       </c>
       <c r="H138" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I138" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139">
@@ -5112,14 +5115,14 @@
       <c r="F139" t="n">
         <v>5</v>
       </c>
-      <c r="G139" s="2" t="n">
-        <v>44954</v>
+      <c r="G139" s="3" t="n">
+        <v>44966</v>
       </c>
       <c r="H139" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I139" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="140">
@@ -5145,14 +5148,14 @@
       <c r="F140" t="n">
         <v>5</v>
       </c>
-      <c r="G140" s="2" t="n">
-        <v>44954</v>
+      <c r="G140" s="3" t="n">
+        <v>44966</v>
       </c>
       <c r="H140" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I140" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="141">
@@ -5178,14 +5181,14 @@
       <c r="F141" t="n">
         <v>5</v>
       </c>
-      <c r="G141" s="2" t="n">
-        <v>44954</v>
+      <c r="G141" s="3" t="n">
+        <v>44966</v>
       </c>
       <c r="H141" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I141" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="142">
@@ -5211,14 +5214,14 @@
       <c r="F142" t="n">
         <v>5</v>
       </c>
-      <c r="G142" s="2" t="n">
-        <v>44954</v>
+      <c r="G142" s="3" t="n">
+        <v>44966</v>
       </c>
       <c r="H142" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I142" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="143">
@@ -5244,14 +5247,14 @@
       <c r="F143" t="n">
         <v>5</v>
       </c>
-      <c r="G143" s="2" t="n">
-        <v>44954</v>
+      <c r="G143" s="3" t="n">
+        <v>44966</v>
       </c>
       <c r="H143" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I143" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="144">
@@ -5277,14 +5280,14 @@
       <c r="F144" t="n">
         <v>5</v>
       </c>
-      <c r="G144" s="2" t="n">
-        <v>44954</v>
+      <c r="G144" s="3" t="n">
+        <v>44966</v>
       </c>
       <c r="H144" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I144" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="145">
@@ -5310,14 +5313,14 @@
       <c r="F145" t="n">
         <v>5</v>
       </c>
-      <c r="G145" s="2" t="n">
-        <v>44954</v>
+      <c r="G145" s="3" t="n">
+        <v>44966</v>
       </c>
       <c r="H145" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I145" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="146">
@@ -5343,14 +5346,14 @@
       <c r="F146" t="n">
         <v>5</v>
       </c>
-      <c r="G146" s="2" t="n">
-        <v>44954</v>
+      <c r="G146" s="3" t="n">
+        <v>44966</v>
       </c>
       <c r="H146" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I146" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="147">
@@ -5376,14 +5379,14 @@
       <c r="F147" t="n">
         <v>5</v>
       </c>
-      <c r="G147" s="2" t="n">
-        <v>44954</v>
+      <c r="G147" s="3" t="n">
+        <v>44966</v>
       </c>
       <c r="H147" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I147" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="148">
@@ -5409,8 +5412,8 @@
       <c r="F148" t="n">
         <v>5</v>
       </c>
-      <c r="G148" s="2" t="n">
-        <v>44954</v>
+      <c r="G148" s="3" t="n">
+        <v>44966</v>
       </c>
       <c r="H148" s="2" t="n">
         <v>117642</v>
@@ -5442,14 +5445,14 @@
       <c r="F149" t="n">
         <v>5</v>
       </c>
-      <c r="G149" s="2" t="n">
-        <v>44954</v>
+      <c r="G149" s="3" t="n">
+        <v>44966</v>
       </c>
       <c r="H149" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I149" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="150">
@@ -5475,14 +5478,14 @@
       <c r="F150" t="n">
         <v>5</v>
       </c>
-      <c r="G150" s="2" t="n">
-        <v>44954</v>
+      <c r="G150" s="3" t="n">
+        <v>44966</v>
       </c>
       <c r="H150" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I150" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="151">
@@ -5508,14 +5511,14 @@
       <c r="F151" t="n">
         <v>5</v>
       </c>
-      <c r="G151" s="2" t="n">
-        <v>44954</v>
+      <c r="G151" s="3" t="n">
+        <v>44966</v>
       </c>
       <c r="H151" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I151" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="152">
@@ -5541,14 +5544,14 @@
       <c r="F152" t="n">
         <v>5</v>
       </c>
-      <c r="G152" s="2" t="n">
-        <v>44954</v>
+      <c r="G152" s="3" t="n">
+        <v>44966</v>
       </c>
       <c r="H152" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I152" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="153">
@@ -5574,14 +5577,14 @@
       <c r="F153" t="n">
         <v>5</v>
       </c>
-      <c r="G153" s="2" t="n">
-        <v>44954</v>
+      <c r="G153" s="3" t="n">
+        <v>44966</v>
       </c>
       <c r="H153" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I153" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="154">
@@ -5607,8 +5610,8 @@
       <c r="F154" t="n">
         <v>5</v>
       </c>
-      <c r="G154" s="2" t="n">
-        <v>44954</v>
+      <c r="G154" s="3" t="n">
+        <v>44966</v>
       </c>
       <c r="H154" s="2" t="n">
         <v>117642</v>
@@ -5640,14 +5643,14 @@
       <c r="F155" t="n">
         <v>5</v>
       </c>
-      <c r="G155" s="2" t="n">
-        <v>44954</v>
+      <c r="G155" s="3" t="n">
+        <v>44966</v>
       </c>
       <c r="H155" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I155" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156">
@@ -5674,14 +5677,14 @@
       <c r="F156" t="n">
         <v>5</v>
       </c>
-      <c r="G156" s="2" t="n">
-        <v>44954</v>
+      <c r="G156" s="3" t="n">
+        <v>44966</v>
       </c>
       <c r="H156" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I156" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157">
@@ -5707,14 +5710,14 @@
       <c r="F157" t="n">
         <v>5</v>
       </c>
-      <c r="G157" s="2" t="n">
-        <v>44954</v>
+      <c r="G157" s="3" t="n">
+        <v>44966</v>
       </c>
       <c r="H157" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I157" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="158">
@@ -5740,14 +5743,14 @@
       <c r="F158" t="n">
         <v>5</v>
       </c>
-      <c r="G158" s="2" t="n">
-        <v>44954</v>
+      <c r="G158" s="3" t="n">
+        <v>44966</v>
       </c>
       <c r="H158" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I158" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159">
@@ -5773,8 +5776,8 @@
       <c r="F159" t="n">
         <v>5</v>
       </c>
-      <c r="G159" s="2" t="n">
-        <v>44954</v>
+      <c r="G159" s="3" t="n">
+        <v>44966</v>
       </c>
       <c r="H159" s="2" t="n">
         <v>117642</v>
@@ -5806,14 +5809,14 @@
       <c r="F160" t="n">
         <v>5</v>
       </c>
-      <c r="G160" s="2" t="n">
-        <v>44954</v>
+      <c r="G160" s="3" t="n">
+        <v>44966</v>
       </c>
       <c r="H160" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I160" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="161">
@@ -5839,14 +5842,14 @@
       <c r="F161" t="n">
         <v>5</v>
       </c>
-      <c r="G161" s="2" t="n">
-        <v>44954</v>
+      <c r="G161" s="3" t="n">
+        <v>44966</v>
       </c>
       <c r="H161" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I161" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="162">
@@ -5872,14 +5875,14 @@
       <c r="F162" t="n">
         <v>5</v>
       </c>
-      <c r="G162" s="2" t="n">
-        <v>44954</v>
+      <c r="G162" s="3" t="n">
+        <v>44966</v>
       </c>
       <c r="H162" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I162" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="163">
@@ -5905,14 +5908,14 @@
       <c r="F163" t="n">
         <v>5</v>
       </c>
-      <c r="G163" s="2" t="n">
-        <v>44954</v>
+      <c r="G163" s="3" t="n">
+        <v>44966</v>
       </c>
       <c r="H163" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I163" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="164">
@@ -5938,14 +5941,14 @@
       <c r="F164" t="n">
         <v>5</v>
       </c>
-      <c r="G164" s="2" t="n">
-        <v>44954</v>
+      <c r="G164" s="3" t="n">
+        <v>44966</v>
       </c>
       <c r="H164" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I164" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="165">
@@ -5971,14 +5974,14 @@
       <c r="F165" t="n">
         <v>5</v>
       </c>
-      <c r="G165" s="2" t="n">
-        <v>44954</v>
+      <c r="G165" s="3" t="n">
+        <v>44966</v>
       </c>
       <c r="H165" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I165" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166">
@@ -6004,14 +6007,14 @@
       <c r="F166" t="n">
         <v>5</v>
       </c>
-      <c r="G166" s="2" t="n">
-        <v>44954</v>
+      <c r="G166" s="3" t="n">
+        <v>44966</v>
       </c>
       <c r="H166" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I166" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167">
@@ -6037,8 +6040,8 @@
       <c r="F167" t="n">
         <v>5</v>
       </c>
-      <c r="G167" s="2" t="n">
-        <v>44954</v>
+      <c r="G167" s="3" t="n">
+        <v>44966</v>
       </c>
       <c r="H167" s="2" t="n">
         <v>117642</v>
@@ -6070,14 +6073,14 @@
       <c r="F168" t="n">
         <v>5</v>
       </c>
-      <c r="G168" s="2" t="n">
-        <v>44954</v>
+      <c r="G168" s="3" t="n">
+        <v>44966</v>
       </c>
       <c r="H168" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I168" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="169">
@@ -6103,14 +6106,14 @@
       <c r="F169" t="n">
         <v>5</v>
       </c>
-      <c r="G169" s="2" t="n">
-        <v>44954</v>
+      <c r="G169" s="3" t="n">
+        <v>44966</v>
       </c>
       <c r="H169" s="2" t="n">
-        <v>117642</v>
+        <v>44963</v>
       </c>
       <c r="I169" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="170">
@@ -6136,14 +6139,14 @@
       <c r="F170" t="n">
         <v>5</v>
       </c>
-      <c r="G170" s="2" t="n">
-        <v>44954</v>
+      <c r="G170" s="3" t="n">
+        <v>44966</v>
       </c>
       <c r="H170" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I170" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171">
@@ -6169,8 +6172,8 @@
       <c r="F171" t="n">
         <v>5</v>
       </c>
-      <c r="G171" s="2" t="n">
-        <v>44954</v>
+      <c r="G171" s="3" t="n">
+        <v>44966</v>
       </c>
       <c r="H171" s="2" t="n">
         <v>117642</v>
@@ -6202,14 +6205,14 @@
       <c r="F172" t="n">
         <v>5</v>
       </c>
-      <c r="G172" s="2" t="n">
-        <v>44954</v>
+      <c r="G172" s="3" t="n">
+        <v>44966</v>
       </c>
       <c r="H172" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I172" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="173">
@@ -6235,14 +6238,14 @@
       <c r="F173" t="n">
         <v>5</v>
       </c>
-      <c r="G173" s="2" t="n">
-        <v>44954</v>
+      <c r="G173" s="3" t="n">
+        <v>44966</v>
       </c>
       <c r="H173" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I173" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="174">
@@ -6268,14 +6271,14 @@
       <c r="F174" t="n">
         <v>5</v>
       </c>
-      <c r="G174" s="2" t="n">
-        <v>44954</v>
+      <c r="G174" s="3" t="n">
+        <v>44966</v>
       </c>
       <c r="H174" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I174" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175">
@@ -6301,8 +6304,8 @@
       <c r="F175" t="n">
         <v>5</v>
       </c>
-      <c r="G175" s="2" t="n">
-        <v>44954</v>
+      <c r="G175" s="3" t="n">
+        <v>44966</v>
       </c>
       <c r="H175" s="2" t="n">
         <v>117642</v>
@@ -6334,14 +6337,14 @@
       <c r="F176" t="n">
         <v>5</v>
       </c>
-      <c r="G176" s="2" t="n">
-        <v>44954</v>
+      <c r="G176" s="3" t="n">
+        <v>44966</v>
       </c>
       <c r="H176" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I176" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="177">
@@ -6367,14 +6370,14 @@
       <c r="F177" t="n">
         <v>5</v>
       </c>
-      <c r="G177" s="2" t="n">
-        <v>44954</v>
+      <c r="G177" s="3" t="n">
+        <v>44966</v>
       </c>
       <c r="H177" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I177" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="178">
@@ -6400,14 +6403,14 @@
       <c r="F178" t="n">
         <v>5</v>
       </c>
-      <c r="G178" s="2" t="n">
-        <v>44954</v>
+      <c r="G178" s="3" t="n">
+        <v>44966</v>
       </c>
       <c r="H178" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I178" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="179">
@@ -6433,14 +6436,14 @@
       <c r="F179" t="n">
         <v>5</v>
       </c>
-      <c r="G179" s="2" t="n">
-        <v>44954</v>
+      <c r="G179" s="3" t="n">
+        <v>44966</v>
       </c>
       <c r="H179" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I179" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="180">
@@ -6466,14 +6469,14 @@
       <c r="F180" t="n">
         <v>5</v>
       </c>
-      <c r="G180" s="2" t="n">
-        <v>44954</v>
+      <c r="G180" s="3" t="n">
+        <v>44966</v>
       </c>
       <c r="H180" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I180" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181">
@@ -6499,14 +6502,14 @@
       <c r="F181" t="n">
         <v>5</v>
       </c>
-      <c r="G181" s="2" t="n">
-        <v>44954</v>
+      <c r="G181" s="3" t="n">
+        <v>44966</v>
       </c>
       <c r="H181" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I181" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="182">
@@ -6532,14 +6535,14 @@
       <c r="F182" t="n">
         <v>5</v>
       </c>
-      <c r="G182" s="2" t="n">
-        <v>44954</v>
+      <c r="G182" s="3" t="n">
+        <v>44966</v>
       </c>
       <c r="H182" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I182" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="183">
@@ -6565,14 +6568,14 @@
       <c r="F183" t="n">
         <v>5</v>
       </c>
-      <c r="G183" s="2" t="n">
-        <v>44954</v>
+      <c r="G183" s="3" t="n">
+        <v>44966</v>
       </c>
       <c r="H183" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I183" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="184">
@@ -6598,14 +6601,14 @@
       <c r="F184" t="n">
         <v>5</v>
       </c>
-      <c r="G184" s="2" t="n">
-        <v>44954</v>
+      <c r="G184" s="3" t="n">
+        <v>44966</v>
       </c>
       <c r="H184" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I184" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="185">
@@ -6631,14 +6634,14 @@
       <c r="F185" t="n">
         <v>5</v>
       </c>
-      <c r="G185" s="2" t="n">
-        <v>44954</v>
+      <c r="G185" s="3" t="n">
+        <v>44966</v>
       </c>
       <c r="H185" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I185" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="186">
@@ -6664,8 +6667,8 @@
       <c r="F186" t="n">
         <v>5</v>
       </c>
-      <c r="G186" s="2" t="n">
-        <v>44954</v>
+      <c r="G186" s="3" t="n">
+        <v>44966</v>
       </c>
       <c r="H186" s="2" t="n">
         <v>117642</v>
@@ -6697,14 +6700,14 @@
       <c r="F187" t="n">
         <v>5</v>
       </c>
-      <c r="G187" s="2" t="n">
-        <v>44954</v>
+      <c r="G187" s="3" t="n">
+        <v>44966</v>
       </c>
       <c r="H187" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I187" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="188">
@@ -6730,14 +6733,14 @@
       <c r="F188" t="n">
         <v>5</v>
       </c>
-      <c r="G188" s="2" t="n">
-        <v>44954</v>
+      <c r="G188" s="3" t="n">
+        <v>44966</v>
       </c>
       <c r="H188" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I188" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="189">
@@ -6763,14 +6766,14 @@
       <c r="F189" t="n">
         <v>5</v>
       </c>
-      <c r="G189" s="2" t="n">
-        <v>44954</v>
+      <c r="G189" s="3" t="n">
+        <v>44966</v>
       </c>
       <c r="H189" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I189" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="190">
@@ -6796,14 +6799,14 @@
       <c r="F190" t="n">
         <v>5</v>
       </c>
-      <c r="G190" s="2" t="n">
-        <v>44954</v>
+      <c r="G190" s="3" t="n">
+        <v>44966</v>
       </c>
       <c r="H190" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I190" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="191">
@@ -6829,14 +6832,14 @@
       <c r="F191" t="n">
         <v>5</v>
       </c>
-      <c r="G191" s="2" t="n">
-        <v>44954</v>
+      <c r="G191" s="3" t="n">
+        <v>44966</v>
       </c>
       <c r="H191" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I191" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="192">
@@ -6862,8 +6865,8 @@
       <c r="F192" t="n">
         <v>5</v>
       </c>
-      <c r="G192" s="2" t="n">
-        <v>44954</v>
+      <c r="G192" s="3" t="n">
+        <v>44966</v>
       </c>
       <c r="H192" s="2" t="n">
         <v>117642</v>
@@ -6895,14 +6898,14 @@
       <c r="F193" t="n">
         <v>5</v>
       </c>
-      <c r="G193" s="2" t="n">
-        <v>44954</v>
+      <c r="G193" s="3" t="n">
+        <v>44966</v>
       </c>
       <c r="H193" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I193" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="194">
@@ -6928,14 +6931,14 @@
       <c r="F194" t="n">
         <v>5</v>
       </c>
-      <c r="G194" s="2" t="n">
-        <v>44954</v>
+      <c r="G194" s="3" t="n">
+        <v>44966</v>
       </c>
       <c r="H194" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I194" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="195">
@@ -6961,14 +6964,14 @@
       <c r="F195" t="n">
         <v>5</v>
       </c>
-      <c r="G195" s="2" t="n">
-        <v>44954</v>
+      <c r="G195" s="3" t="n">
+        <v>44966</v>
       </c>
       <c r="H195" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I195" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="196">
@@ -6994,14 +6997,14 @@
       <c r="F196" t="n">
         <v>5</v>
       </c>
-      <c r="G196" s="2" t="n">
-        <v>44954</v>
+      <c r="G196" s="3" t="n">
+        <v>44966</v>
       </c>
       <c r="H196" s="2" t="n">
         <v>44954</v>
       </c>
       <c r="I196" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="197">
@@ -7025,13 +7028,13 @@
         </is>
       </c>
       <c r="F197" t="n">
-        <v>3</v>
-      </c>
-      <c r="G197" s="2" t="n">
-        <v>44954</v>
+        <v>5</v>
+      </c>
+      <c r="G197" s="3" t="n">
+        <v>44966</v>
       </c>
       <c r="H197" s="2" t="n">
-        <v>117642</v>
+        <v>44956</v>
       </c>
       <c r="I197" t="n">
         <v>0</v>
@@ -7060,14 +7063,14 @@
       <c r="F198" t="n">
         <v>5</v>
       </c>
-      <c r="G198" s="2" t="n">
-        <v>44954</v>
+      <c r="G198" s="3" t="n">
+        <v>44966</v>
       </c>
       <c r="H198" s="2" t="n">
         <v>44954</v>
       </c>
       <c r="I198" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="199">
@@ -7091,16 +7094,16 @@
         </is>
       </c>
       <c r="F199" t="n">
+        <v>5</v>
+      </c>
+      <c r="G199" s="3" t="n">
+        <v>44966</v>
+      </c>
+      <c r="H199" s="2" t="n">
+        <v>44956</v>
+      </c>
+      <c r="I199" t="n">
         <v>3</v>
-      </c>
-      <c r="G199" s="2" t="n">
-        <v>44954</v>
-      </c>
-      <c r="H199" s="2" t="n">
-        <v>117642</v>
-      </c>
-      <c r="I199" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="200">
@@ -7124,16 +7127,16 @@
         </is>
       </c>
       <c r="F200" t="n">
+        <v>5</v>
+      </c>
+      <c r="G200" s="3" t="n">
+        <v>44966</v>
+      </c>
+      <c r="H200" s="2" t="n">
+        <v>44958</v>
+      </c>
+      <c r="I200" t="n">
         <v>1</v>
-      </c>
-      <c r="G200" s="2" t="n">
-        <v>44954</v>
-      </c>
-      <c r="H200" s="2" t="n">
-        <v>117642</v>
-      </c>
-      <c r="I200" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="201">
@@ -7157,16 +7160,16 @@
         </is>
       </c>
       <c r="F201" t="n">
-        <v>4</v>
-      </c>
-      <c r="G201" s="2" t="n">
-        <v>44954</v>
+        <v>5</v>
+      </c>
+      <c r="G201" s="3" t="n">
+        <v>44966</v>
       </c>
       <c r="H201" s="2" t="n">
-        <v>117642</v>
+        <v>44955</v>
       </c>
       <c r="I201" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="202">
@@ -7192,14 +7195,14 @@
       <c r="F202" t="n">
         <v>5</v>
       </c>
-      <c r="G202" s="2" t="n">
-        <v>44954</v>
+      <c r="G202" s="3" t="n">
+        <v>44966</v>
       </c>
       <c r="H202" s="2" t="n">
         <v>44954</v>
       </c>
       <c r="I202" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="203">
@@ -7223,16 +7226,16 @@
         </is>
       </c>
       <c r="F203" t="n">
-        <v>4</v>
-      </c>
-      <c r="G203" s="2" t="n">
-        <v>44954</v>
+        <v>5</v>
+      </c>
+      <c r="G203" s="3" t="n">
+        <v>44966</v>
       </c>
       <c r="H203" s="2" t="n">
-        <v>117642</v>
+        <v>44955</v>
       </c>
       <c r="I203" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="204">
@@ -7256,13 +7259,13 @@
         </is>
       </c>
       <c r="F204" t="n">
-        <v>2</v>
-      </c>
-      <c r="G204" s="2" t="n">
-        <v>44954</v>
+        <v>5</v>
+      </c>
+      <c r="G204" s="3" t="n">
+        <v>44966</v>
       </c>
       <c r="H204" s="2" t="n">
-        <v>117642</v>
+        <v>44957</v>
       </c>
       <c r="I204" t="n">
         <v>0</v>
@@ -7289,16 +7292,16 @@
         </is>
       </c>
       <c r="F205" t="n">
+        <v>5</v>
+      </c>
+      <c r="G205" s="3" t="n">
+        <v>44966</v>
+      </c>
+      <c r="H205" s="2" t="n">
+        <v>44958</v>
+      </c>
+      <c r="I205" t="n">
         <v>2</v>
-      </c>
-      <c r="G205" s="2" t="n">
-        <v>44954</v>
-      </c>
-      <c r="H205" s="2" t="n">
-        <v>117642</v>
-      </c>
-      <c r="I205" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="206">
@@ -7322,16 +7325,16 @@
         </is>
       </c>
       <c r="F206" t="n">
-        <v>2</v>
-      </c>
-      <c r="G206" s="2" t="n">
-        <v>44954</v>
+        <v>5</v>
+      </c>
+      <c r="G206" s="3" t="n">
+        <v>44966</v>
       </c>
       <c r="H206" s="2" t="n">
-        <v>117642</v>
+        <v>44957</v>
       </c>
       <c r="I206" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="207">
@@ -7355,16 +7358,16 @@
         </is>
       </c>
       <c r="F207" t="n">
+        <v>5</v>
+      </c>
+      <c r="G207" s="3" t="n">
+        <v>44966</v>
+      </c>
+      <c r="H207" s="2" t="n">
+        <v>44955</v>
+      </c>
+      <c r="I207" t="n">
         <v>4</v>
-      </c>
-      <c r="G207" s="2" t="n">
-        <v>44954</v>
-      </c>
-      <c r="H207" s="2" t="n">
-        <v>117642</v>
-      </c>
-      <c r="I207" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="208">
@@ -7388,16 +7391,16 @@
         </is>
       </c>
       <c r="F208" t="n">
-        <v>4</v>
-      </c>
-      <c r="G208" s="2" t="n">
-        <v>44954</v>
+        <v>5</v>
+      </c>
+      <c r="G208" s="3" t="n">
+        <v>44966</v>
       </c>
       <c r="H208" s="2" t="n">
-        <v>117642</v>
+        <v>44955</v>
       </c>
       <c r="I208" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="209">
@@ -7421,16 +7424,16 @@
         </is>
       </c>
       <c r="F209" t="n">
-        <v>4</v>
-      </c>
-      <c r="G209" s="2" t="n">
-        <v>44954</v>
+        <v>5</v>
+      </c>
+      <c r="G209" s="3" t="n">
+        <v>44966</v>
       </c>
       <c r="H209" s="2" t="n">
-        <v>117642</v>
+        <v>44955</v>
       </c>
       <c r="I209" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="210">
@@ -7454,16 +7457,16 @@
         </is>
       </c>
       <c r="F210" t="n">
-        <v>3</v>
-      </c>
-      <c r="G210" s="2" t="n">
-        <v>44954</v>
+        <v>5</v>
+      </c>
+      <c r="G210" s="3" t="n">
+        <v>44966</v>
       </c>
       <c r="H210" s="2" t="n">
-        <v>117642</v>
+        <v>44956</v>
       </c>
       <c r="I210" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="211">
@@ -7487,16 +7490,16 @@
         </is>
       </c>
       <c r="F211" t="n">
-        <v>4</v>
-      </c>
-      <c r="G211" s="2" t="n">
-        <v>44954</v>
+        <v>5</v>
+      </c>
+      <c r="G211" s="3" t="n">
+        <v>44966</v>
       </c>
       <c r="H211" s="2" t="n">
-        <v>117642</v>
+        <v>44955</v>
       </c>
       <c r="I211" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="212">
@@ -7520,16 +7523,16 @@
         </is>
       </c>
       <c r="F212" t="n">
-        <v>2</v>
-      </c>
-      <c r="G212" s="2" t="n">
-        <v>44954</v>
+        <v>5</v>
+      </c>
+      <c r="G212" s="3" t="n">
+        <v>44966</v>
       </c>
       <c r="H212" s="2" t="n">
-        <v>117642</v>
+        <v>44957</v>
       </c>
       <c r="I212" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="213">
@@ -7553,16 +7556,16 @@
         </is>
       </c>
       <c r="F213" t="n">
-        <v>2</v>
-      </c>
-      <c r="G213" s="2" t="n">
-        <v>44954</v>
+        <v>5</v>
+      </c>
+      <c r="G213" s="3" t="n">
+        <v>44966</v>
       </c>
       <c r="H213" s="2" t="n">
-        <v>117642</v>
+        <v>44958</v>
       </c>
       <c r="I213" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="214">
@@ -7586,16 +7589,16 @@
         </is>
       </c>
       <c r="F214" t="n">
-        <v>3</v>
-      </c>
-      <c r="G214" s="2" t="n">
-        <v>44954</v>
+        <v>5</v>
+      </c>
+      <c r="G214" s="3" t="n">
+        <v>44966</v>
       </c>
       <c r="H214" s="2" t="n">
-        <v>117642</v>
+        <v>44962</v>
       </c>
       <c r="I214" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="215">
@@ -7621,14 +7624,14 @@
       <c r="F215" t="n">
         <v>5</v>
       </c>
-      <c r="G215" s="2" t="n">
-        <v>44954</v>
+      <c r="G215" s="3" t="n">
+        <v>44966</v>
       </c>
       <c r="H215" s="2" t="n">
         <v>44954</v>
       </c>
       <c r="I215" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="216">
@@ -7652,16 +7655,16 @@
         </is>
       </c>
       <c r="F216" t="n">
+        <v>5</v>
+      </c>
+      <c r="G216" s="3" t="n">
+        <v>44966</v>
+      </c>
+      <c r="H216" s="2" t="n">
+        <v>44955</v>
+      </c>
+      <c r="I216" t="n">
         <v>4</v>
-      </c>
-      <c r="G216" s="2" t="n">
-        <v>44954</v>
-      </c>
-      <c r="H216" s="2" t="n">
-        <v>117642</v>
-      </c>
-      <c r="I216" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="217">
@@ -7685,13 +7688,13 @@
         </is>
       </c>
       <c r="F217" t="n">
-        <v>4</v>
-      </c>
-      <c r="G217" s="2" t="n">
-        <v>44954</v>
+        <v>5</v>
+      </c>
+      <c r="G217" s="3" t="n">
+        <v>44966</v>
       </c>
       <c r="H217" s="2" t="n">
-        <v>117642</v>
+        <v>44955</v>
       </c>
       <c r="I217" t="n">
         <v>0</v>
@@ -7718,16 +7721,16 @@
         </is>
       </c>
       <c r="F218" t="n">
-        <v>3</v>
-      </c>
-      <c r="G218" s="2" t="n">
-        <v>44954</v>
+        <v>5</v>
+      </c>
+      <c r="G218" s="3" t="n">
+        <v>44966</v>
       </c>
       <c r="H218" s="2" t="n">
-        <v>117642</v>
+        <v>44956</v>
       </c>
       <c r="I218" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="219">
@@ -7751,16 +7754,16 @@
         </is>
       </c>
       <c r="F219" t="n">
-        <v>4</v>
-      </c>
-      <c r="G219" s="2" t="n">
-        <v>44954</v>
+        <v>5</v>
+      </c>
+      <c r="G219" s="3" t="n">
+        <v>44966</v>
       </c>
       <c r="H219" s="2" t="n">
-        <v>117642</v>
+        <v>44955</v>
       </c>
       <c r="I219" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="220">
@@ -7784,16 +7787,16 @@
         </is>
       </c>
       <c r="F220" t="n">
-        <v>3</v>
-      </c>
-      <c r="G220" s="2" t="n">
-        <v>44954</v>
+        <v>5</v>
+      </c>
+      <c r="G220" s="3" t="n">
+        <v>44966</v>
       </c>
       <c r="H220" s="2" t="n">
-        <v>117642</v>
+        <v>44956</v>
       </c>
       <c r="I220" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="221">
@@ -7817,16 +7820,16 @@
         </is>
       </c>
       <c r="F221" t="n">
-        <v>0</v>
-      </c>
-      <c r="G221" s="2" t="n">
-        <v>44954</v>
+        <v>5</v>
+      </c>
+      <c r="G221" s="3" t="n">
+        <v>44966</v>
       </c>
       <c r="H221" s="2" t="n">
-        <v>117642</v>
+        <v>44959</v>
       </c>
       <c r="I221" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="222">
@@ -7850,15 +7853,2754 @@
         </is>
       </c>
       <c r="F222" t="n">
+        <v>5</v>
+      </c>
+      <c r="G222" s="3" t="n">
+        <v>44966</v>
+      </c>
+      <c r="H222" s="2" t="n">
+        <v>44958</v>
+      </c>
+      <c r="I222" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="1" t="inlineStr"/>
+      <c r="B223" s="2" t="n">
+        <v>44957</v>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>dub</t>
+        </is>
+      </c>
+      <c r="D223" t="inlineStr">
+        <is>
+          <t>to give somebody/something a particular name, often in a humorous or critical way</t>
+        </is>
+      </c>
+      <c r="E223" t="inlineStr">
+        <is>
+          <t>The media dubbed anorexia ‘the slimming disease’</t>
+        </is>
+      </c>
+      <c r="F223" t="n">
+        <v>5</v>
+      </c>
+      <c r="G223" s="3" t="n">
+        <v>44966</v>
+      </c>
+      <c r="H223" s="2" t="n">
+        <v>44963</v>
+      </c>
+      <c r="I223" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="1" t="inlineStr"/>
+      <c r="B224" s="2" t="n">
+        <v>44957</v>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>liver</t>
+        </is>
+      </c>
+      <c r="D224" t="inlineStr">
+        <is>
+          <t>a large organ in the body that cleans the blood and produces bile</t>
+        </is>
+      </c>
+      <c r="E224" t="inlineStr">
+        <is>
+          <t>He had a liver transplant at the age of 12</t>
+        </is>
+      </c>
+      <c r="F224" t="n">
+        <v>5</v>
+      </c>
+      <c r="G224" s="3" t="n">
+        <v>44966</v>
+      </c>
+      <c r="H224" s="2" t="n">
+        <v>44961</v>
+      </c>
+      <c r="I224" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="1" t="inlineStr"/>
+      <c r="B225" s="2" t="n">
+        <v>44957</v>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>structural</t>
+        </is>
+      </c>
+      <c r="D225" t="inlineStr">
+        <is>
+          <t>connected with the way in which something is built or organized</t>
+        </is>
+      </c>
+      <c r="E225" t="inlineStr">
+        <is>
+          <t>Storms have caused structural damage to hundreds of homes.</t>
+        </is>
+      </c>
+      <c r="F225" t="n">
+        <v>5</v>
+      </c>
+      <c r="G225" s="3" t="n">
+        <v>44966</v>
+      </c>
+      <c r="H225" s="2" t="n">
+        <v>44962</v>
+      </c>
+      <c r="I225" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" s="1" t="inlineStr"/>
+      <c r="B226" s="2" t="n">
+        <v>44957</v>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>rape</t>
+        </is>
+      </c>
+      <c r="D226" t="inlineStr">
+        <is>
+          <t>the crime of forcing somebody to have sex when they do not want it or are not able to agree to it</t>
+        </is>
+      </c>
+      <c r="E226" t="inlineStr">
+        <is>
+          <t>He was charged with rape.</t>
+        </is>
+      </c>
+      <c r="F226" t="n">
+        <v>5</v>
+      </c>
+      <c r="G226" s="3" t="n">
+        <v>44966</v>
+      </c>
+      <c r="H226" s="2" t="n">
+        <v>44961</v>
+      </c>
+      <c r="I226" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" s="1" t="inlineStr"/>
+      <c r="B227" s="2" t="n">
+        <v>44957</v>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>indictment</t>
+        </is>
+      </c>
+      <c r="D227" t="inlineStr">
+        <is>
+          <t>a sign that a system, society, etc. is very bad or very wrong</t>
+        </is>
+      </c>
+      <c r="E227" t="inlineStr">
+        <is>
+          <t>The poverty in our cities is a damning indictment of modern society.</t>
+        </is>
+      </c>
+      <c r="F227" t="n">
+        <v>4</v>
+      </c>
+      <c r="G227" s="3" t="n">
+        <v>44966</v>
+      </c>
+      <c r="H227" s="2" t="n">
+        <v>117642</v>
+      </c>
+      <c r="I227" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" s="1" t="inlineStr"/>
+      <c r="B228" s="2" t="n">
+        <v>44957</v>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>depict</t>
+        </is>
+      </c>
+      <c r="D228" t="inlineStr">
+        <is>
+          <t>to show an image of somebody/something in a picture</t>
+        </is>
+      </c>
+      <c r="E228" t="inlineStr">
+        <is>
+          <t>depict somebody/something (as somebody/something) a painting depicting the Virgin and Child</t>
+        </is>
+      </c>
+      <c r="F228" t="n">
+        <v>5</v>
+      </c>
+      <c r="G228" s="3" t="n">
+        <v>44966</v>
+      </c>
+      <c r="H228" s="2" t="n">
+        <v>44961</v>
+      </c>
+      <c r="I228" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" s="1" t="inlineStr"/>
+      <c r="B229" s="2" t="n">
+        <v>44957</v>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>stark</t>
+        </is>
+      </c>
+      <c r="D229" t="inlineStr">
+        <is>
+          <t>unpleasant; real, and impossible to avoid</t>
+        </is>
+      </c>
+      <c r="E229" t="inlineStr">
+        <is>
+          <t>The author paints a stark picture of life in a prison camp.</t>
+        </is>
+      </c>
+      <c r="F229" t="n">
+        <v>5</v>
+      </c>
+      <c r="G229" s="3" t="n">
+        <v>44966</v>
+      </c>
+      <c r="H229" s="2" t="n">
+        <v>44963</v>
+      </c>
+      <c r="I229" t="n">
         <v>1</v>
       </c>
-      <c r="G222" s="2" t="n">
-        <v>44954</v>
-      </c>
-      <c r="H222" s="2" t="n">
-        <v>117642</v>
-      </c>
-      <c r="I222" t="n">
+    </row>
+    <row r="230">
+      <c r="A230" s="1" t="inlineStr"/>
+      <c r="B230" s="2" t="n">
+        <v>44957</v>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>fate</t>
+        </is>
+      </c>
+      <c r="D230" t="inlineStr">
+        <is>
+          <t>the things, especially bad things, that will happen or have happened to somebody/something</t>
+        </is>
+      </c>
+      <c r="E230" t="inlineStr">
+        <is>
+          <t>She sat outside, waiting to find out her fate.</t>
+        </is>
+      </c>
+      <c r="F230" t="n">
+        <v>5</v>
+      </c>
+      <c r="G230" s="3" t="n">
+        <v>44966</v>
+      </c>
+      <c r="H230" s="2" t="n">
+        <v>44961</v>
+      </c>
+      <c r="I230" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" s="1" t="inlineStr"/>
+      <c r="B231" s="2" t="n">
+        <v>44957</v>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>abundance</t>
+        </is>
+      </c>
+      <c r="D231" t="inlineStr">
+        <is>
+          <t>a large quantity that is more than enough</t>
+        </is>
+      </c>
+      <c r="E231" t="inlineStr">
+        <is>
+          <t>The brochure promised beautiful walks with an abundance of wildlife.</t>
+        </is>
+      </c>
+      <c r="F231" t="n">
+        <v>5</v>
+      </c>
+      <c r="G231" s="3" t="n">
+        <v>44966</v>
+      </c>
+      <c r="H231" s="2" t="n">
+        <v>44965</v>
+      </c>
+      <c r="I231" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" s="1" t="inlineStr"/>
+      <c r="B232" s="2" t="n">
+        <v>44957</v>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>vessel</t>
+        </is>
+      </c>
+      <c r="D232" t="inlineStr">
+        <is>
+          <t>a tube that carries blood through the body of a person or an animal, or liquid through the parts of a plant / a ship or large boat</t>
+        </is>
+      </c>
+      <c r="E232" t="inlineStr">
+        <is>
+          <t>to burst/rupture a blood vessel    /    ocean-going vessels</t>
+        </is>
+      </c>
+      <c r="F232" t="n">
+        <v>5</v>
+      </c>
+      <c r="G232" s="3" t="n">
+        <v>44966</v>
+      </c>
+      <c r="H232" s="2" t="n">
+        <v>44962</v>
+      </c>
+      <c r="I232" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" s="1" t="inlineStr"/>
+      <c r="B233" s="2" t="n">
+        <v>44957</v>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>encompass</t>
+        </is>
+      </c>
+      <c r="D233" t="inlineStr">
+        <is>
+          <t>to include a large number or range of things</t>
+        </is>
+      </c>
+      <c r="E233" t="inlineStr">
+        <is>
+          <t>The job encompasses a wide range of responsibilities</t>
+        </is>
+      </c>
+      <c r="F233" t="n">
+        <v>3</v>
+      </c>
+      <c r="G233" s="3" t="n">
+        <v>44966</v>
+      </c>
+      <c r="H233" s="2" t="n">
+        <v>117642</v>
+      </c>
+      <c r="I233" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" s="1" t="inlineStr"/>
+      <c r="B234" s="2" t="n">
+        <v>44957</v>
+      </c>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>credibility</t>
+        </is>
+      </c>
+      <c r="D234" t="inlineStr">
+        <is>
+          <t>the quality that somebody/something has that makes people believe or trust them</t>
+        </is>
+      </c>
+      <c r="E234" t="inlineStr">
+        <is>
+          <t>to gain/lack/lose credibility</t>
+        </is>
+      </c>
+      <c r="F234" t="n">
+        <v>4</v>
+      </c>
+      <c r="G234" s="3" t="n">
+        <v>44966</v>
+      </c>
+      <c r="H234" s="2" t="n">
+        <v>44962</v>
+      </c>
+      <c r="I234" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" s="1" t="inlineStr"/>
+      <c r="B235" s="2" t="n">
+        <v>44957</v>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>span</t>
+        </is>
+      </c>
+      <c r="D235" t="inlineStr">
+        <is>
+          <t>to last all through a period of time or to cover the whole of it</t>
+        </is>
+      </c>
+      <c r="E235" t="inlineStr">
+        <is>
+          <t>His acting career spanned 55 years.</t>
+        </is>
+      </c>
+      <c r="F235" t="n">
+        <v>5</v>
+      </c>
+      <c r="G235" s="3" t="n">
+        <v>44966</v>
+      </c>
+      <c r="H235" s="2" t="n">
+        <v>44963</v>
+      </c>
+      <c r="I235" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" s="1" t="inlineStr"/>
+      <c r="B236" s="2" t="n">
+        <v>44957</v>
+      </c>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>presume</t>
+        </is>
+      </c>
+      <c r="D236" t="inlineStr">
+        <is>
+          <t>to suppose that something is true, although you do not have actual proof</t>
+        </is>
+      </c>
+      <c r="E236" t="inlineStr">
+        <is>
+          <t>They are very expensive, I presume?</t>
+        </is>
+      </c>
+      <c r="F236" t="n">
+        <v>5</v>
+      </c>
+      <c r="G236" s="3" t="n">
+        <v>44966</v>
+      </c>
+      <c r="H236" s="2" t="n">
+        <v>44962</v>
+      </c>
+      <c r="I236" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" s="1" t="inlineStr"/>
+      <c r="B237" s="2" t="n">
+        <v>44957</v>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>concede</t>
+        </is>
+      </c>
+      <c r="D237" t="inlineStr">
+        <is>
+          <t>to admit that something is true, logical, etc. after first denying it or resisting it</t>
+        </is>
+      </c>
+      <c r="E237" t="inlineStr">
+        <is>
+          <t>speech ‘Not bad,’ she conceded grudgingly.</t>
+        </is>
+      </c>
+      <c r="F237" t="n">
+        <v>1</v>
+      </c>
+      <c r="G237" s="3" t="n">
+        <v>44966</v>
+      </c>
+      <c r="H237" s="2" t="n">
+        <v>117642</v>
+      </c>
+      <c r="I237" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" s="1" t="inlineStr"/>
+      <c r="B238" s="2" t="n">
+        <v>44957</v>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>grid</t>
+        </is>
+      </c>
+      <c r="D238" t="inlineStr">
+        <is>
+          <t>a pattern of straight lines, usually crossing each other to form squares</t>
+        </is>
+      </c>
+      <c r="E238" t="inlineStr">
+        <is>
+          <t>New York’s grid of streets</t>
+        </is>
+      </c>
+      <c r="F238" t="n">
+        <v>5</v>
+      </c>
+      <c r="G238" s="3" t="n">
+        <v>44966</v>
+      </c>
+      <c r="H238" s="2" t="n">
+        <v>44962</v>
+      </c>
+      <c r="I238" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" s="1" t="inlineStr"/>
+      <c r="B239" s="2" t="n">
+        <v>44957</v>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>copper</t>
+        </is>
+      </c>
+      <c r="D239" t="inlineStr">
+        <is>
+          <t>a chemical element. Copper is a soft red-brown metal used for making electric wires, pipes and coins.</t>
+        </is>
+      </c>
+      <c r="E239" t="inlineStr">
+        <is>
+          <t>a copper mine</t>
+        </is>
+      </c>
+      <c r="F239" t="n">
+        <v>5</v>
+      </c>
+      <c r="G239" s="3" t="n">
+        <v>44966</v>
+      </c>
+      <c r="H239" s="2" t="n">
+        <v>44961</v>
+      </c>
+      <c r="I239" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" s="1" t="inlineStr"/>
+      <c r="B240" s="2" t="n">
+        <v>44957</v>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>electoral</t>
+        </is>
+      </c>
+      <c r="D240" t="inlineStr">
+        <is>
+          <t>connected with elections</t>
+        </is>
+      </c>
+      <c r="E240" t="inlineStr">
+        <is>
+          <t>electoral systems/reforms</t>
+        </is>
+      </c>
+      <c r="F240" t="n">
+        <v>5</v>
+      </c>
+      <c r="G240" s="3" t="n">
+        <v>44966</v>
+      </c>
+      <c r="H240" s="2" t="n">
+        <v>44964</v>
+      </c>
+      <c r="I240" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" s="1" t="inlineStr"/>
+      <c r="B241" s="2" t="n">
+        <v>44957</v>
+      </c>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>notable</t>
+        </is>
+      </c>
+      <c r="D241" t="inlineStr">
+        <is>
+          <t>deserving to be noticed or to receive attention; important</t>
+        </is>
+      </c>
+      <c r="E241" t="inlineStr">
+        <is>
+          <t>a notable success/achievement/example</t>
+        </is>
+      </c>
+      <c r="F241" t="n">
+        <v>5</v>
+      </c>
+      <c r="G241" s="3" t="n">
+        <v>44966</v>
+      </c>
+      <c r="H241" s="2" t="n">
+        <v>44963</v>
+      </c>
+      <c r="I241" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" s="1" t="inlineStr"/>
+      <c r="B242" s="2" t="n">
+        <v>44957</v>
+      </c>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>marginal</t>
+        </is>
+      </c>
+      <c r="D242" t="inlineStr">
+        <is>
+          <t>small and not important</t>
+        </is>
+      </c>
+      <c r="E242" t="inlineStr">
+        <is>
+          <t>a marginal improvement in weather conditions</t>
+        </is>
+      </c>
+      <c r="F242" t="n">
+        <v>5</v>
+      </c>
+      <c r="G242" s="3" t="n">
+        <v>44966</v>
+      </c>
+      <c r="H242" s="2" t="n">
+        <v>44963</v>
+      </c>
+      <c r="I242" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" s="1" t="inlineStr"/>
+      <c r="B243" s="2" t="n">
+        <v>44957</v>
+      </c>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>cemetery</t>
+        </is>
+      </c>
+      <c r="D243" t="inlineStr">
+        <is>
+          <t>an area of land used for burying dead people, especially one that is not next to a church</t>
+        </is>
+      </c>
+      <c r="E243" t="inlineStr">
+        <is>
+          <t>He was buried in a private cemetery.</t>
+        </is>
+      </c>
+      <c r="F243" t="n">
+        <v>5</v>
+      </c>
+      <c r="G243" s="3" t="n">
+        <v>44966</v>
+      </c>
+      <c r="H243" s="2" t="n">
+        <v>44961</v>
+      </c>
+      <c r="I243" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" s="1" t="inlineStr"/>
+      <c r="B244" s="2" t="n">
+        <v>44957</v>
+      </c>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t>specification</t>
+        </is>
+      </c>
+      <c r="D244" t="inlineStr">
+        <is>
+          <t>a detailed description of how something is, or should be, designed or made</t>
+        </is>
+      </c>
+      <c r="E244" t="inlineStr">
+        <is>
+          <t>the technical specifications of the new model (= of car)</t>
+        </is>
+      </c>
+      <c r="F244" t="n">
+        <v>5</v>
+      </c>
+      <c r="G244" s="3" t="n">
+        <v>44966</v>
+      </c>
+      <c r="H244" s="2" t="n">
+        <v>44961</v>
+      </c>
+      <c r="I244" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" s="1" t="inlineStr"/>
+      <c r="B245" s="2" t="n">
+        <v>44957</v>
+      </c>
+      <c r="C245" t="inlineStr">
+        <is>
+          <t>integrity</t>
+        </is>
+      </c>
+      <c r="D245" t="inlineStr">
+        <is>
+          <t>the quality of being honest and having strong moral principles</t>
+        </is>
+      </c>
+      <c r="E245" t="inlineStr">
+        <is>
+          <t>She behaved with absolute integrity.</t>
+        </is>
+      </c>
+      <c r="F245" t="n">
+        <v>2</v>
+      </c>
+      <c r="G245" s="3" t="n">
+        <v>44966</v>
+      </c>
+      <c r="H245" s="2" t="n">
+        <v>117642</v>
+      </c>
+      <c r="I245" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" s="1" t="inlineStr"/>
+      <c r="B246" s="2" t="n">
+        <v>44957</v>
+      </c>
+      <c r="C246" t="inlineStr">
+        <is>
+          <t>assassination</t>
+        </is>
+      </c>
+      <c r="D246" t="inlineStr">
+        <is>
+          <t>the murder of an important or famous person, especially for political reasons</t>
+        </is>
+      </c>
+      <c r="E246" t="inlineStr">
+        <is>
+          <t>the assassination of John F. Kennedy</t>
+        </is>
+      </c>
+      <c r="F246" t="n">
+        <v>5</v>
+      </c>
+      <c r="G246" s="3" t="n">
+        <v>44966</v>
+      </c>
+      <c r="H246" s="2" t="n">
+        <v>44963</v>
+      </c>
+      <c r="I246" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" s="1" t="inlineStr"/>
+      <c r="B247" s="2" t="n">
+        <v>44963</v>
+      </c>
+      <c r="C247" t="inlineStr">
+        <is>
+          <t>turnover</t>
+        </is>
+      </c>
+      <c r="D247" t="inlineStr">
+        <is>
+          <t>the total amount of goods or services sold by a company during a particular period of time</t>
+        </is>
+      </c>
+      <c r="E247" t="inlineStr">
+        <is>
+          <t>an annual turnover of $75 million</t>
+        </is>
+      </c>
+      <c r="F247" t="n">
+        <v>4</v>
+      </c>
+      <c r="G247" s="3" t="n">
+        <v>44966</v>
+      </c>
+      <c r="H247" s="2" t="n">
+        <v>117642</v>
+      </c>
+      <c r="I247" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" s="1" t="inlineStr"/>
+      <c r="B248" s="2" t="n">
+        <v>44963</v>
+      </c>
+      <c r="C248" t="inlineStr">
+        <is>
+          <t>contributor</t>
+        </is>
+      </c>
+      <c r="D248" t="inlineStr">
+        <is>
+          <t>a person who writes articles for a magazine, book or website, or who talks on a radio or television /  something that helps to cause something programme or at a meeting / a person or thing that provides money or goods to help pay for or support something</t>
+        </is>
+      </c>
+      <c r="E248" t="inlineStr">
+        <is>
+          <t xml:space="preserve">I am a contributor to several blogs. /Sulphur dioxide is a pollutant and a major contributor to acid rain. / Older people are important contributors to the economy. </t>
+        </is>
+      </c>
+      <c r="F248" t="n">
+        <v>3</v>
+      </c>
+      <c r="G248" s="3" t="n">
+        <v>44966</v>
+      </c>
+      <c r="H248" s="2" t="n">
+        <v>117642</v>
+      </c>
+      <c r="I248" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" s="1" t="inlineStr"/>
+      <c r="B249" s="2" t="n">
+        <v>44963</v>
+      </c>
+      <c r="C249" t="inlineStr">
+        <is>
+          <t>tender</t>
+        </is>
+      </c>
+      <c r="D249" t="inlineStr">
+        <is>
+          <t>kind, gentle and loving / easy to bite through and cut</t>
+        </is>
+      </c>
+      <c r="E249" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> tender words /  This meat is extremely tender.</t>
+        </is>
+      </c>
+      <c r="F249" t="n">
+        <v>4</v>
+      </c>
+      <c r="G249" s="3" t="n">
+        <v>44966</v>
+      </c>
+      <c r="H249" s="2" t="n">
+        <v>117642</v>
+      </c>
+      <c r="I249" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" s="1" t="inlineStr"/>
+      <c r="B250" s="2" t="n">
+        <v>44963</v>
+      </c>
+      <c r="C250" t="inlineStr">
+        <is>
+          <t>discharge</t>
+        </is>
+      </c>
+      <c r="D250" t="inlineStr">
+        <is>
+          <t>to give somebody official permission to leave the police or the armed forces; to make somebody leave the police or the armed forces</t>
+        </is>
+      </c>
+      <c r="E250" t="inlineStr">
+        <is>
+          <t>He was discharged from the army following his injury.</t>
+        </is>
+      </c>
+      <c r="F250" t="n">
+        <v>3</v>
+      </c>
+      <c r="G250" s="3" t="n">
+        <v>44966</v>
+      </c>
+      <c r="H250" s="2" t="n">
+        <v>117642</v>
+      </c>
+      <c r="I250" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" s="1" t="inlineStr"/>
+      <c r="B251" s="2" t="n">
+        <v>44963</v>
+      </c>
+      <c r="C251" t="inlineStr">
+        <is>
+          <t>accountable</t>
+        </is>
+      </c>
+      <c r="D251" t="inlineStr">
+        <is>
+          <t>responsible for your decisions or actions and expected to explain them when you are asked</t>
+        </is>
+      </c>
+      <c r="E251" t="inlineStr">
+        <is>
+          <t>The state spends taxpayers’ money and should be held accountable.</t>
+        </is>
+      </c>
+      <c r="F251" t="n">
+        <v>3</v>
+      </c>
+      <c r="G251" s="3" t="n">
+        <v>44966</v>
+      </c>
+      <c r="H251" s="2" t="n">
+        <v>117642</v>
+      </c>
+      <c r="I251" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" s="1" t="inlineStr"/>
+      <c r="B252" s="2" t="n">
+        <v>44963</v>
+      </c>
+      <c r="C252" t="inlineStr">
+        <is>
+          <t>inclusion</t>
+        </is>
+      </c>
+      <c r="D252" t="inlineStr">
+        <is>
+          <t>the fact of including somebody/something; the fact of being included</t>
+        </is>
+      </c>
+      <c r="E252" t="inlineStr">
+        <is>
+          <t>His inclusion in the team is in doubt.</t>
+        </is>
+      </c>
+      <c r="F252" t="n">
+        <v>4</v>
+      </c>
+      <c r="G252" s="3" t="n">
+        <v>44966</v>
+      </c>
+      <c r="H252" s="2" t="n">
+        <v>117642</v>
+      </c>
+      <c r="I252" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" s="1" t="inlineStr"/>
+      <c r="B253" s="2" t="n">
+        <v>44963</v>
+      </c>
+      <c r="C253" t="inlineStr">
+        <is>
+          <t>unprecedented</t>
+        </is>
+      </c>
+      <c r="D253" t="inlineStr">
+        <is>
+          <t>that has never happened, been done or been known before</t>
+        </is>
+      </c>
+      <c r="E253" t="inlineStr">
+        <is>
+          <t>The situation is unprecedented in modern times.</t>
+        </is>
+      </c>
+      <c r="F253" t="n">
+        <v>3</v>
+      </c>
+      <c r="G253" s="3" t="n">
+        <v>44966</v>
+      </c>
+      <c r="H253" s="2" t="n">
+        <v>117642</v>
+      </c>
+      <c r="I253" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" s="1" t="inlineStr"/>
+      <c r="B254" s="2" t="n">
+        <v>44963</v>
+      </c>
+      <c r="C254" t="inlineStr">
+        <is>
+          <t>gathering</t>
+        </is>
+      </c>
+      <c r="D254" t="inlineStr">
+        <is>
+          <t>a meeting of people for a particular purpose</t>
+        </is>
+      </c>
+      <c r="E254" t="inlineStr">
+        <is>
+          <t>a social/family gathering</t>
+        </is>
+      </c>
+      <c r="F254" t="n">
+        <v>2</v>
+      </c>
+      <c r="G254" s="3" t="n">
+        <v>44966</v>
+      </c>
+      <c r="H254" s="2" t="n">
+        <v>117642</v>
+      </c>
+      <c r="I254" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" s="1" t="inlineStr"/>
+      <c r="B255" s="2" t="n">
+        <v>44963</v>
+      </c>
+      <c r="C255" t="inlineStr">
+        <is>
+          <t>straightforward</t>
+        </is>
+      </c>
+      <c r="D255" t="inlineStr">
+        <is>
+          <t>easy to do or to understand; not complicated</t>
+        </is>
+      </c>
+      <c r="E255" t="inlineStr">
+        <is>
+          <t>It's a relatively straightforward process.</t>
+        </is>
+      </c>
+      <c r="F255" t="n">
+        <v>4</v>
+      </c>
+      <c r="G255" s="3" t="n">
+        <v>44966</v>
+      </c>
+      <c r="H255" s="2" t="n">
+        <v>117642</v>
+      </c>
+      <c r="I255" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" s="1" t="inlineStr"/>
+      <c r="B256" s="2" t="n">
+        <v>44963</v>
+      </c>
+      <c r="C256" t="inlineStr">
+        <is>
+          <t>persist</t>
+        </is>
+      </c>
+      <c r="D256" t="inlineStr">
+        <is>
+          <t>to continue to do something despite difficulties or opposition, in a way that can seem unreasonable</t>
+        </is>
+      </c>
+      <c r="E256" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Why do you persist in blaming yourself for what happened?</t>
+        </is>
+      </c>
+      <c r="F256" t="n">
+        <v>4</v>
+      </c>
+      <c r="G256" s="3" t="n">
+        <v>44966</v>
+      </c>
+      <c r="H256" s="2" t="n">
+        <v>117642</v>
+      </c>
+      <c r="I256" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" s="1" t="inlineStr"/>
+      <c r="B257" s="2" t="n">
+        <v>44963</v>
+      </c>
+      <c r="C257" t="inlineStr">
+        <is>
+          <t>exclusion</t>
+        </is>
+      </c>
+      <c r="D257" t="inlineStr">
+        <is>
+          <t>the act of preventing somebody/something from entering a place or taking part in something</t>
+        </is>
+      </c>
+      <c r="E257" t="inlineStr">
+        <is>
+          <t>He was disappointed with his exclusion from the England squad.</t>
+        </is>
+      </c>
+      <c r="F257" t="n">
+        <v>4</v>
+      </c>
+      <c r="G257" s="3" t="n">
+        <v>44966</v>
+      </c>
+      <c r="H257" s="2" t="n">
+        <v>117642</v>
+      </c>
+      <c r="I257" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" s="1" t="inlineStr"/>
+      <c r="B258" s="2" t="n">
+        <v>44963</v>
+      </c>
+      <c r="C258" t="inlineStr">
+        <is>
+          <t>foster</t>
+        </is>
+      </c>
+      <c r="D258" t="inlineStr">
+        <is>
+          <t>to encourage something to develop</t>
+        </is>
+      </c>
+      <c r="E258" t="inlineStr">
+        <is>
+          <t>The club's aim is to foster better relations within the community.</t>
+        </is>
+      </c>
+      <c r="F258" t="n">
+        <v>3</v>
+      </c>
+      <c r="G258" s="3" t="n">
+        <v>44966</v>
+      </c>
+      <c r="H258" s="2" t="n">
+        <v>117642</v>
+      </c>
+      <c r="I258" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" s="1" t="inlineStr"/>
+      <c r="B259" s="2" t="n">
+        <v>44963</v>
+      </c>
+      <c r="C259" t="inlineStr">
+        <is>
+          <t>militant</t>
+        </is>
+      </c>
+      <c r="D259" t="inlineStr">
+        <is>
+          <t>a person who uses, or is willing to use, force or strong pressure to achieve their aims, especially to achieve social or political change</t>
+        </is>
+      </c>
+      <c r="E259" t="inlineStr">
+        <is>
+          <t>Student militants were fighting with the police.</t>
+        </is>
+      </c>
+      <c r="F259" t="n">
+        <v>4</v>
+      </c>
+      <c r="G259" s="3" t="n">
+        <v>44966</v>
+      </c>
+      <c r="H259" s="2" t="n">
+        <v>117642</v>
+      </c>
+      <c r="I259" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" s="1" t="inlineStr"/>
+      <c r="B260" s="2" t="n">
+        <v>44963</v>
+      </c>
+      <c r="C260" t="inlineStr">
+        <is>
+          <t>counterpart</t>
+        </is>
+      </c>
+      <c r="D260" t="inlineStr">
+        <is>
+          <t>a person or thing that has the same position or function as somebody/something else in a different place or situation</t>
+        </is>
+      </c>
+      <c r="E260" t="inlineStr">
+        <is>
+          <t>The Foreign Minister held talks with his Chinese counterpart.</t>
+        </is>
+      </c>
+      <c r="F260" t="n">
+        <v>2</v>
+      </c>
+      <c r="G260" s="3" t="n">
+        <v>44966</v>
+      </c>
+      <c r="H260" s="2" t="n">
+        <v>117642</v>
+      </c>
+      <c r="I260" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" s="1" t="inlineStr"/>
+      <c r="B261" s="2" t="n">
+        <v>44963</v>
+      </c>
+      <c r="C261" t="inlineStr">
+        <is>
+          <t>lawsuit</t>
+        </is>
+      </c>
+      <c r="D261" t="inlineStr">
+        <is>
+          <t>a claim or complaint against somebody that a person or an organization can make in court</t>
+        </is>
+      </c>
+      <c r="E261" t="inlineStr">
+        <is>
+          <t>He filed a lawsuit against his record label.</t>
+        </is>
+      </c>
+      <c r="F261" t="n">
+        <v>3</v>
+      </c>
+      <c r="G261" s="3" t="n">
+        <v>44966</v>
+      </c>
+      <c r="H261" s="2" t="n">
+        <v>117642</v>
+      </c>
+      <c r="I261" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" s="1" t="inlineStr"/>
+      <c r="B262" s="2" t="n">
+        <v>44963</v>
+      </c>
+      <c r="C262" t="inlineStr">
+        <is>
+          <t>gear</t>
+        </is>
+      </c>
+      <c r="D262" t="inlineStr">
+        <is>
+          <t>equipment in a vehicle that changes the relation between engine speed (or pedal speed on a bicycle) and the speed of the wheels moving forwards or backwards</t>
+        </is>
+      </c>
+      <c r="E262" t="inlineStr">
+        <is>
+          <t>Careless use of the clutch may damage the gears.</t>
+        </is>
+      </c>
+      <c r="F262" t="n">
+        <v>3</v>
+      </c>
+      <c r="G262" s="3" t="n">
+        <v>44966</v>
+      </c>
+      <c r="H262" s="2" t="n">
+        <v>117642</v>
+      </c>
+      <c r="I262" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" s="1" t="inlineStr"/>
+      <c r="B263" s="2" t="n">
+        <v>44963</v>
+      </c>
+      <c r="C263" t="inlineStr">
+        <is>
+          <t>deed</t>
+        </is>
+      </c>
+      <c r="D263" t="inlineStr">
+        <is>
+          <t>to give somebody property or rights using a deed</t>
+        </is>
+      </c>
+      <c r="E263" t="inlineStr">
+        <is>
+          <t>He deeded the property to his wife shortly before his disappearance.</t>
+        </is>
+      </c>
+      <c r="F263" t="n">
+        <v>3</v>
+      </c>
+      <c r="G263" s="3" t="n">
+        <v>44966</v>
+      </c>
+      <c r="H263" s="2" t="n">
+        <v>117642</v>
+      </c>
+      <c r="I263" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" s="1" t="inlineStr"/>
+      <c r="B264" s="2" t="n">
+        <v>44963</v>
+      </c>
+      <c r="C264" t="inlineStr">
+        <is>
+          <t>explosive</t>
+        </is>
+      </c>
+      <c r="D264" t="inlineStr">
+        <is>
+          <t>easily able or likely to explode</t>
+        </is>
+      </c>
+      <c r="E264" t="inlineStr">
+        <is>
+          <t>an explosive mixture of chemicals</t>
+        </is>
+      </c>
+      <c r="F264" t="n">
+        <v>3</v>
+      </c>
+      <c r="G264" s="3" t="n">
+        <v>44966</v>
+      </c>
+      <c r="H264" s="2" t="n">
+        <v>117642</v>
+      </c>
+      <c r="I264" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" s="1" t="inlineStr"/>
+      <c r="B265" s="2" t="n">
+        <v>44963</v>
+      </c>
+      <c r="C265" t="inlineStr">
+        <is>
+          <t>accumulate</t>
+        </is>
+      </c>
+      <c r="D265" t="inlineStr">
+        <is>
+          <t>to gradually get more and more of something over a period of time</t>
+        </is>
+      </c>
+      <c r="E265" t="inlineStr">
+        <is>
+          <t>I seem to have accumulated a lot of books.</t>
+        </is>
+      </c>
+      <c r="F265" t="n">
+        <v>4</v>
+      </c>
+      <c r="G265" s="3" t="n">
+        <v>44966</v>
+      </c>
+      <c r="H265" s="2" t="n">
+        <v>117642</v>
+      </c>
+      <c r="I265" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" s="1" t="inlineStr"/>
+      <c r="B266" s="2" t="n">
+        <v>44963</v>
+      </c>
+      <c r="C266" t="inlineStr">
+        <is>
+          <t>incidence</t>
+        </is>
+      </c>
+      <c r="D266" t="inlineStr">
+        <is>
+          <t>the extent to which something happens or has an effect</t>
+        </is>
+      </c>
+      <c r="E266" t="inlineStr">
+        <is>
+          <t>an area with a high incidence of crime</t>
+        </is>
+      </c>
+      <c r="F266" t="n">
+        <v>4</v>
+      </c>
+      <c r="G266" s="3" t="n">
+        <v>44966</v>
+      </c>
+      <c r="H266" s="2" t="n">
+        <v>117642</v>
+      </c>
+      <c r="I266" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" s="1" t="inlineStr"/>
+      <c r="B267" s="2" t="n">
+        <v>44963</v>
+      </c>
+      <c r="C267" t="inlineStr">
+        <is>
+          <t>confession</t>
+        </is>
+      </c>
+      <c r="D267" t="inlineStr">
+        <is>
+          <t>a statement that a person makes, admitting that they are guilty of a crime; the act of making such a statement</t>
+        </is>
+      </c>
+      <c r="E267" t="inlineStr">
+        <is>
+          <t>After hours of questioning by police, she made a full confession.</t>
+        </is>
+      </c>
+      <c r="F267" t="n">
+        <v>2</v>
+      </c>
+      <c r="G267" s="3" t="n">
+        <v>44966</v>
+      </c>
+      <c r="H267" s="2" t="n">
+        <v>117642</v>
+      </c>
+      <c r="I267" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" s="1" t="inlineStr"/>
+      <c r="B268" s="2" t="n">
+        <v>44963</v>
+      </c>
+      <c r="C268" t="inlineStr">
+        <is>
+          <t>missile</t>
+        </is>
+      </c>
+      <c r="D268" t="inlineStr">
+        <is>
+          <t>a weapon that is sent through the air and that explodes when it hits the thing that it is aimed at</t>
+        </is>
+      </c>
+      <c r="E268" t="inlineStr">
+        <is>
+          <t>nuclear missiles</t>
+        </is>
+      </c>
+      <c r="F268" t="n">
+        <v>4</v>
+      </c>
+      <c r="G268" s="3" t="n">
+        <v>44966</v>
+      </c>
+      <c r="H268" s="2" t="n">
+        <v>117642</v>
+      </c>
+      <c r="I268" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" s="1" t="inlineStr"/>
+      <c r="B269" s="2" t="n">
+        <v>44963</v>
+      </c>
+      <c r="C269" t="inlineStr">
+        <is>
+          <t>notorious</t>
+        </is>
+      </c>
+      <c r="D269" t="inlineStr">
+        <is>
+          <t>well known for being bad</t>
+        </is>
+      </c>
+      <c r="E269" t="inlineStr">
+        <is>
+          <t>a notorious criminal</t>
+        </is>
+      </c>
+      <c r="F269" t="n">
+        <v>2</v>
+      </c>
+      <c r="G269" s="3" t="n">
+        <v>44966</v>
+      </c>
+      <c r="H269" s="2" t="n">
+        <v>117642</v>
+      </c>
+      <c r="I269" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" s="1" t="inlineStr"/>
+      <c r="B270" s="2" t="n">
+        <v>44963</v>
+      </c>
+      <c r="C270" t="inlineStr">
+        <is>
+          <t>specimen</t>
+        </is>
+      </c>
+      <c r="D270" t="inlineStr">
+        <is>
+          <t>a small amount of something that shows what the rest of it is like</t>
+        </is>
+      </c>
+      <c r="E270" t="inlineStr">
+        <is>
+          <t>Astronauts have brought back specimens of rock from the moon.</t>
+        </is>
+      </c>
+      <c r="F270" t="n">
+        <v>2</v>
+      </c>
+      <c r="G270" s="3" t="n">
+        <v>44966</v>
+      </c>
+      <c r="H270" s="2" t="n">
+        <v>117642</v>
+      </c>
+      <c r="I270" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" s="1" t="inlineStr"/>
+      <c r="B271" s="2" t="n">
+        <v>44963</v>
+      </c>
+      <c r="C271" t="inlineStr">
+        <is>
+          <t>steer</t>
+        </is>
+      </c>
+      <c r="D271" t="inlineStr">
+        <is>
+          <t>to control the direction in which a boat, car, etc. moves</t>
+        </is>
+      </c>
+      <c r="E271" t="inlineStr">
+        <is>
+          <t>He steered the boat into the harbour.</t>
+        </is>
+      </c>
+      <c r="F271" t="n">
+        <v>2</v>
+      </c>
+      <c r="G271" s="3" t="n">
+        <v>44966</v>
+      </c>
+      <c r="H271" s="2" t="n">
+        <v>117642</v>
+      </c>
+      <c r="I271" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" s="1" t="inlineStr"/>
+      <c r="B272" s="2" t="n">
+        <v>44963</v>
+      </c>
+      <c r="C272" t="inlineStr">
+        <is>
+          <t>caution</t>
+        </is>
+      </c>
+      <c r="D272" t="inlineStr">
+        <is>
+          <t>care that you take in order to avoid danger or mistakes; the fact of not taking any risks</t>
+        </is>
+      </c>
+      <c r="E272" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> with caution Statistics should be treated with caution.</t>
+        </is>
+      </c>
+      <c r="F272" t="n">
+        <v>3</v>
+      </c>
+      <c r="G272" s="3" t="n">
+        <v>44966</v>
+      </c>
+      <c r="H272" s="2" t="n">
+        <v>117642</v>
+      </c>
+      <c r="I272" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" s="1" t="inlineStr"/>
+      <c r="B273" s="2" t="n">
+        <v>44963</v>
+      </c>
+      <c r="C273" t="inlineStr">
+        <is>
+          <t>superb</t>
+        </is>
+      </c>
+      <c r="D273" t="inlineStr">
+        <is>
+          <t>excellent; of very good quality</t>
+        </is>
+      </c>
+      <c r="E273" t="inlineStr">
+        <is>
+          <t>a superb player</t>
+        </is>
+      </c>
+      <c r="F273" t="n">
+        <v>3</v>
+      </c>
+      <c r="G273" s="3" t="n">
+        <v>44966</v>
+      </c>
+      <c r="H273" s="2" t="n">
+        <v>117642</v>
+      </c>
+      <c r="I273" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" s="1" t="inlineStr"/>
+      <c r="B274" s="2" t="n">
+        <v>44963</v>
+      </c>
+      <c r="C274" t="inlineStr">
+        <is>
+          <t>decisive</t>
+        </is>
+      </c>
+      <c r="D274" t="inlineStr">
+        <is>
+          <t>very important for the final result of a particular situation</t>
+        </is>
+      </c>
+      <c r="E274" t="inlineStr">
+        <is>
+          <t>Climate was a decisive factor in establishing where the tournament should be held.</t>
+        </is>
+      </c>
+      <c r="F274" t="n">
+        <v>1</v>
+      </c>
+      <c r="G274" s="3" t="n">
+        <v>44966</v>
+      </c>
+      <c r="H274" s="2" t="n">
+        <v>117642</v>
+      </c>
+      <c r="I274" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" s="1" t="inlineStr"/>
+      <c r="B275" s="2" t="n">
+        <v>44963</v>
+      </c>
+      <c r="C275" t="inlineStr">
+        <is>
+          <t>projection</t>
+        </is>
+      </c>
+      <c r="D275" t="inlineStr">
+        <is>
+          <t>an estimate or a statement of what figures, amounts, or events will be in the future, or what they were in the past, based on what is happening now</t>
+        </is>
+      </c>
+      <c r="E275" t="inlineStr">
+        <is>
+          <t>Sales have exceeded our projections</t>
+        </is>
+      </c>
+      <c r="F275" t="n">
+        <v>0</v>
+      </c>
+      <c r="G275" s="3" t="n">
+        <v>44966</v>
+      </c>
+      <c r="H275" s="2" t="n">
+        <v>117642</v>
+      </c>
+      <c r="I275" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" s="1" t="inlineStr"/>
+      <c r="B276" s="2" t="n">
+        <v>44963</v>
+      </c>
+      <c r="C276" t="inlineStr">
+        <is>
+          <t>reportedly</t>
+        </is>
+      </c>
+      <c r="D276" t="inlineStr">
+        <is>
+          <t>according to what some people say</t>
+        </is>
+      </c>
+      <c r="E276" t="inlineStr">
+        <is>
+          <t>The band have reportedly decided to split up.</t>
+        </is>
+      </c>
+      <c r="F276" t="n">
+        <v>4</v>
+      </c>
+      <c r="G276" s="3" t="n">
+        <v>44966</v>
+      </c>
+      <c r="H276" s="2" t="n">
+        <v>117642</v>
+      </c>
+      <c r="I276" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" s="1" t="inlineStr"/>
+      <c r="B277" s="2" t="n">
+        <v>44963</v>
+      </c>
+      <c r="C277" t="inlineStr">
+        <is>
+          <t>assault</t>
+        </is>
+      </c>
+      <c r="D277" t="inlineStr">
+        <is>
+          <t>the crime of attacking somebody physically</t>
+        </is>
+      </c>
+      <c r="E277" t="inlineStr">
+        <is>
+          <t>Both men were charged with assault.</t>
+        </is>
+      </c>
+      <c r="F277" t="n">
+        <v>0</v>
+      </c>
+      <c r="G277" s="3" t="n">
+        <v>44966</v>
+      </c>
+      <c r="H277" s="2" t="n">
+        <v>117642</v>
+      </c>
+      <c r="I277" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" s="1" t="inlineStr"/>
+      <c r="B278" s="2" t="n">
+        <v>44963</v>
+      </c>
+      <c r="C278" t="inlineStr">
+        <is>
+          <t>empower</t>
+        </is>
+      </c>
+      <c r="D278" t="inlineStr">
+        <is>
+          <t>to give somebody the power or authority to do something</t>
+        </is>
+      </c>
+      <c r="E278" t="inlineStr">
+        <is>
+          <t>The courts were empowered to impose the death sentence for certain crimes.</t>
+        </is>
+      </c>
+      <c r="F278" t="n">
+        <v>4</v>
+      </c>
+      <c r="G278" s="3" t="n">
+        <v>44966</v>
+      </c>
+      <c r="H278" s="2" t="n">
+        <v>117642</v>
+      </c>
+      <c r="I278" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" s="1" t="inlineStr"/>
+      <c r="B279" s="2" t="n">
+        <v>44963</v>
+      </c>
+      <c r="C279" t="inlineStr">
+        <is>
+          <t>amend</t>
+        </is>
+      </c>
+      <c r="D279" t="inlineStr">
+        <is>
+          <t>to change a law, document, statement, etc. slightly in order to correct a mistake or to improve it</t>
+        </is>
+      </c>
+      <c r="E279" t="inlineStr">
+        <is>
+          <t>He asked to see the amended version.</t>
+        </is>
+      </c>
+      <c r="F279" t="n">
+        <v>2</v>
+      </c>
+      <c r="G279" s="3" t="n">
+        <v>44966</v>
+      </c>
+      <c r="H279" s="2" t="n">
+        <v>117642</v>
+      </c>
+      <c r="I279" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" s="1" t="inlineStr"/>
+      <c r="B280" s="2" t="n">
+        <v>44963</v>
+      </c>
+      <c r="C280" t="inlineStr">
+        <is>
+          <t>strive</t>
+        </is>
+      </c>
+      <c r="D280" t="inlineStr">
+        <is>
+          <t>to try very hard to achieve something</t>
+        </is>
+      </c>
+      <c r="E280" t="inlineStr">
+        <is>
+          <t>strive for something We encourage all members to strive for the highest standards.</t>
+        </is>
+      </c>
+      <c r="F280" t="n">
+        <v>3</v>
+      </c>
+      <c r="G280" s="3" t="n">
+        <v>44966</v>
+      </c>
+      <c r="H280" s="2" t="n">
+        <v>117642</v>
+      </c>
+      <c r="I280" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" s="1" t="inlineStr"/>
+      <c r="B281" s="2" t="n">
+        <v>44963</v>
+      </c>
+      <c r="C281" t="inlineStr">
+        <is>
+          <t>pole</t>
+        </is>
+      </c>
+      <c r="D281" t="inlineStr">
+        <is>
+          <t>a long thin straight piece of wood or metal, especially one with the end placed in the ground, used as a support</t>
+        </is>
+      </c>
+      <c r="E281" t="inlineStr">
+        <is>
+          <t>a tent pole</t>
+        </is>
+      </c>
+      <c r="F281" t="n">
+        <v>3</v>
+      </c>
+      <c r="G281" s="3" t="n">
+        <v>44966</v>
+      </c>
+      <c r="H281" s="2" t="n">
+        <v>117642</v>
+      </c>
+      <c r="I281" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" s="1" t="inlineStr"/>
+      <c r="B282" s="2" t="n">
+        <v>44966</v>
+      </c>
+      <c r="C282" t="inlineStr">
+        <is>
+          <t>governance</t>
+        </is>
+      </c>
+      <c r="D282" t="inlineStr">
+        <is>
+          <t>the activity of governing a country or controlling a company or an organization; the way in which a country is governed or a company or institution is controlled</t>
+        </is>
+      </c>
+      <c r="E282" t="inlineStr">
+        <is>
+          <t>He emphasized the company's commitment to high standards of corporate governance.</t>
+        </is>
+      </c>
+      <c r="F282" t="n">
+        <v>0</v>
+      </c>
+      <c r="G282" s="3" t="n">
+        <v>44966</v>
+      </c>
+      <c r="H282" s="2" t="n">
+        <v>117642</v>
+      </c>
+      <c r="I282" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" s="1" t="inlineStr"/>
+      <c r="B283" s="2" t="n">
+        <v>44966</v>
+      </c>
+      <c r="C283" t="inlineStr">
+        <is>
+          <t>shrug</t>
+        </is>
+      </c>
+      <c r="D283" t="inlineStr">
+        <is>
+          <t>to raise your shoulders and then drop them to show that you do not know or care about something</t>
+        </is>
+      </c>
+      <c r="E283" t="inlineStr">
+        <is>
+          <t>Sam shrugged and said nothing.</t>
+        </is>
+      </c>
+      <c r="F283" t="n">
+        <v>1</v>
+      </c>
+      <c r="G283" s="3" t="n">
+        <v>44966</v>
+      </c>
+      <c r="H283" s="2" t="n">
+        <v>117642</v>
+      </c>
+      <c r="I283" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" s="1" t="inlineStr"/>
+      <c r="B284" s="2" t="n">
+        <v>44966</v>
+      </c>
+      <c r="C284" t="inlineStr">
+        <is>
+          <t>divine</t>
+        </is>
+      </c>
+      <c r="D284" t="inlineStr">
+        <is>
+          <t>coming from or connected with God or a god / wonderful; beautiful</t>
+        </is>
+      </c>
+      <c r="E284" t="inlineStr">
+        <is>
+          <t>That mango tasted divine!</t>
+        </is>
+      </c>
+      <c r="F284" t="n">
+        <v>0</v>
+      </c>
+      <c r="G284" s="3" t="n">
+        <v>44966</v>
+      </c>
+      <c r="H284" s="2" t="n">
+        <v>117642</v>
+      </c>
+      <c r="I284" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" s="1" t="inlineStr"/>
+      <c r="B285" s="2" t="n">
+        <v>44966</v>
+      </c>
+      <c r="C285" t="inlineStr">
+        <is>
+          <t>patent</t>
+        </is>
+      </c>
+      <c r="D285" t="inlineStr">
+        <is>
+          <t>an official right to be the only person to make, use or sell a product or an invention; a document that proves this</t>
+        </is>
+      </c>
+      <c r="E285" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> patent on something to apply for/obtain/take out a patent on an invention</t>
+        </is>
+      </c>
+      <c r="F285" t="n">
+        <v>1</v>
+      </c>
+      <c r="G285" s="3" t="n">
+        <v>44966</v>
+      </c>
+      <c r="H285" s="2" t="n">
+        <v>117642</v>
+      </c>
+      <c r="I285" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" s="1" t="inlineStr"/>
+      <c r="B286" s="2" t="n">
+        <v>44966</v>
+      </c>
+      <c r="C286" t="inlineStr">
+        <is>
+          <t>removal</t>
+        </is>
+      </c>
+      <c r="D286" t="inlineStr">
+        <is>
+          <t>the act of taking somebody/something away from a particular place</t>
+        </is>
+      </c>
+      <c r="E286" t="inlineStr">
+        <is>
+          <t>Clearance of the site required the removal of a number of trees.</t>
+        </is>
+      </c>
+      <c r="F286" t="n">
+        <v>1</v>
+      </c>
+      <c r="G286" s="3" t="n">
+        <v>44966</v>
+      </c>
+      <c r="H286" s="2" t="n">
+        <v>117642</v>
+      </c>
+      <c r="I286" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" s="1" t="inlineStr"/>
+      <c r="B287" s="2" t="n">
+        <v>44966</v>
+      </c>
+      <c r="C287" t="inlineStr">
+        <is>
+          <t>thereafter</t>
+        </is>
+      </c>
+      <c r="D287" t="inlineStr">
+        <is>
+          <t>after the time or event mentioned</t>
+        </is>
+      </c>
+      <c r="E287" t="inlineStr">
+        <is>
+          <t>She married at 17 and gave birth to her first child shortly thereafter.</t>
+        </is>
+      </c>
+      <c r="F287" t="n">
+        <v>1</v>
+      </c>
+      <c r="G287" s="3" t="n">
+        <v>44966</v>
+      </c>
+      <c r="H287" s="2" t="n">
+        <v>117642</v>
+      </c>
+      <c r="I287" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" s="1" t="inlineStr"/>
+      <c r="B288" s="2" t="n">
+        <v>44966</v>
+      </c>
+      <c r="C288" t="inlineStr">
+        <is>
+          <t>disruption</t>
+        </is>
+      </c>
+      <c r="D288" t="inlineStr">
+        <is>
+          <t>a situation in which it is difficult for something to continue in the normal way; the act of stopping something from continuing in the normal way</t>
+        </is>
+      </c>
+      <c r="E288" t="inlineStr">
+        <is>
+          <t>We aim to help you move house with minimum disruption to yourself.</t>
+        </is>
+      </c>
+      <c r="F288" t="n">
+        <v>0</v>
+      </c>
+      <c r="G288" s="3" t="n">
+        <v>44966</v>
+      </c>
+      <c r="H288" s="2" t="n">
+        <v>117642</v>
+      </c>
+      <c r="I288" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" s="1" t="inlineStr"/>
+      <c r="B289" s="2" t="n">
+        <v>44966</v>
+      </c>
+      <c r="C289" t="inlineStr">
+        <is>
+          <t>attorney</t>
+        </is>
+      </c>
+      <c r="D289" t="inlineStr">
+        <is>
+          <t>a lawyer, especially one who can act for somebody in court</t>
+        </is>
+      </c>
+      <c r="E289" t="inlineStr">
+        <is>
+          <t>The prosecuting attorney began with a short opening statement</t>
+        </is>
+      </c>
+      <c r="F289" t="n">
+        <v>0</v>
+      </c>
+      <c r="G289" s="3" t="n">
+        <v>44966</v>
+      </c>
+      <c r="H289" s="2" t="n">
+        <v>117642</v>
+      </c>
+      <c r="I289" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" s="1" t="inlineStr"/>
+      <c r="B290" s="2" t="n">
+        <v>44966</v>
+      </c>
+      <c r="C290" t="inlineStr">
+        <is>
+          <t>unify</t>
+        </is>
+      </c>
+      <c r="D290" t="inlineStr">
+        <is>
+          <t>to join people, things, parts of a country, etc. together so that they form a single unit</t>
+        </is>
+      </c>
+      <c r="E290" t="inlineStr">
+        <is>
+          <t>The new leader hopes to unify the country.</t>
+        </is>
+      </c>
+      <c r="F290" t="n">
+        <v>0</v>
+      </c>
+      <c r="G290" s="3" t="n">
+        <v>44966</v>
+      </c>
+      <c r="H290" s="2" t="n">
+        <v>117642</v>
+      </c>
+      <c r="I290" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" s="1" t="inlineStr"/>
+      <c r="B291" s="2" t="n">
+        <v>44966</v>
+      </c>
+      <c r="C291" t="inlineStr">
+        <is>
+          <t>stimulus</t>
+        </is>
+      </c>
+      <c r="D291" t="inlineStr">
+        <is>
+          <t>something that helps somebody/something to develop better or more quickly</t>
+        </is>
+      </c>
+      <c r="E291" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> stimulus for something Books provide children with ideas and a stimulus for play.</t>
+        </is>
+      </c>
+      <c r="F291" t="n">
+        <v>1</v>
+      </c>
+      <c r="G291" s="3" t="n">
+        <v>44966</v>
+      </c>
+      <c r="H291" s="2" t="n">
+        <v>117642</v>
+      </c>
+      <c r="I291" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" s="1" t="inlineStr"/>
+      <c r="B292" s="2" t="n">
+        <v>44966</v>
+      </c>
+      <c r="C292" t="inlineStr">
+        <is>
+          <t>nonetheless</t>
+        </is>
+      </c>
+      <c r="D292" t="inlineStr">
+        <is>
+          <t>despite this fact</t>
+        </is>
+      </c>
+      <c r="E292" t="inlineStr">
+        <is>
+          <t>The book is too long but, nonetheless, informative and entertaining.</t>
+        </is>
+      </c>
+      <c r="F292" t="n">
+        <v>0</v>
+      </c>
+      <c r="G292" s="3" t="n">
+        <v>44966</v>
+      </c>
+      <c r="H292" s="2" t="n">
+        <v>117642</v>
+      </c>
+      <c r="I292" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" s="1" t="inlineStr"/>
+      <c r="B293" s="2" t="n">
+        <v>44966</v>
+      </c>
+      <c r="C293" t="inlineStr">
+        <is>
+          <t>frankly</t>
+        </is>
+      </c>
+      <c r="D293" t="inlineStr">
+        <is>
+          <t>in an honest and direct way that people might not like</t>
+        </is>
+      </c>
+      <c r="E293" t="inlineStr">
+        <is>
+          <t>He spoke frankly about the ordeal.</t>
+        </is>
+      </c>
+      <c r="F293" t="n">
+        <v>1</v>
+      </c>
+      <c r="G293" s="3" t="n">
+        <v>44966</v>
+      </c>
+      <c r="H293" s="2" t="n">
+        <v>117642</v>
+      </c>
+      <c r="I293" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" s="1" t="inlineStr"/>
+      <c r="B294" s="2" t="n">
+        <v>44966</v>
+      </c>
+      <c r="C294" t="inlineStr">
+        <is>
+          <t>intervene</t>
+        </is>
+      </c>
+      <c r="D294" t="inlineStr">
+        <is>
+          <t>to become involved in a situation in order to improve or help it</t>
+        </is>
+      </c>
+      <c r="E294" t="inlineStr">
+        <is>
+          <t>She might have been killed if the neighbours hadn't intervened.</t>
+        </is>
+      </c>
+      <c r="F294" t="n">
+        <v>0</v>
+      </c>
+      <c r="G294" s="3" t="n">
+        <v>44966</v>
+      </c>
+      <c r="H294" s="2" t="n">
+        <v>117642</v>
+      </c>
+      <c r="I294" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" s="1" t="inlineStr"/>
+      <c r="B295" s="2" t="n">
+        <v>44966</v>
+      </c>
+      <c r="C295" t="inlineStr">
+        <is>
+          <t>hail</t>
+        </is>
+      </c>
+      <c r="D295" t="inlineStr">
+        <is>
+          <t>to describe somebody/something as being very good or special, especially in newspapers, etc.</t>
+        </is>
+      </c>
+      <c r="E295" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> be hailed (as) something The conference was hailed as a great success.</t>
+        </is>
+      </c>
+      <c r="F295" t="n">
+        <v>0</v>
+      </c>
+      <c r="G295" s="3" t="n">
+        <v>44966</v>
+      </c>
+      <c r="H295" s="2" t="n">
+        <v>117642</v>
+      </c>
+      <c r="I295" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" s="1" t="inlineStr"/>
+      <c r="B296" s="2" t="n">
+        <v>44966</v>
+      </c>
+      <c r="C296" t="inlineStr">
+        <is>
+          <t>consensus</t>
+        </is>
+      </c>
+      <c r="D296" t="inlineStr">
+        <is>
+          <t>an opinion that all members of a group agree with</t>
+        </is>
+      </c>
+      <c r="E296" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> consensus (about/on something) She is skilled at achieving consensus on sensitive issues.</t>
+        </is>
+      </c>
+      <c r="F296" t="n">
+        <v>1</v>
+      </c>
+      <c r="G296" s="3" t="n">
+        <v>44966</v>
+      </c>
+      <c r="H296" s="2" t="n">
+        <v>117642</v>
+      </c>
+      <c r="I296" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" s="1" t="inlineStr"/>
+      <c r="B297" s="2" t="n">
+        <v>44966</v>
+      </c>
+      <c r="C297" t="inlineStr">
+        <is>
+          <t>timber</t>
+        </is>
+      </c>
+      <c r="D297" t="inlineStr">
+        <is>
+          <t>trees that are grown to be used in building or for making things</t>
+        </is>
+      </c>
+      <c r="E297" t="inlineStr">
+        <is>
+          <t>the timber industry</t>
+        </is>
+      </c>
+      <c r="F297" t="n">
+        <v>0</v>
+      </c>
+      <c r="G297" s="3" t="n">
+        <v>44966</v>
+      </c>
+      <c r="H297" s="2" t="n">
+        <v>117642</v>
+      </c>
+      <c r="I297" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" s="1" t="inlineStr"/>
+      <c r="B298" s="2" t="n">
+        <v>44966</v>
+      </c>
+      <c r="C298" t="inlineStr">
+        <is>
+          <t>contention</t>
+        </is>
+      </c>
+      <c r="D298" t="inlineStr">
+        <is>
+          <t>anger between people who disagree</t>
+        </is>
+      </c>
+      <c r="E298" t="inlineStr">
+        <is>
+          <t>One area of contention is the availability of nursery care.</t>
+        </is>
+      </c>
+      <c r="F298" t="n">
+        <v>0</v>
+      </c>
+      <c r="G298" s="3" t="n">
+        <v>44966</v>
+      </c>
+      <c r="H298" s="2" t="n">
+        <v>117642</v>
+      </c>
+      <c r="I298" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" s="1" t="inlineStr"/>
+      <c r="B299" s="2" t="n">
+        <v>44966</v>
+      </c>
+      <c r="C299" t="inlineStr">
+        <is>
+          <t>scrutiny</t>
+        </is>
+      </c>
+      <c r="D299" t="inlineStr">
+        <is>
+          <t>careful and complete examination</t>
+        </is>
+      </c>
+      <c r="E299" t="inlineStr">
+        <is>
+          <t>Her argument doesn't really stand up to scrutiny.</t>
+        </is>
+      </c>
+      <c r="F299" t="n">
+        <v>0</v>
+      </c>
+      <c r="G299" s="3" t="n">
+        <v>44966</v>
+      </c>
+      <c r="H299" s="2" t="n">
+        <v>117642</v>
+      </c>
+      <c r="I299" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" s="1" t="inlineStr"/>
+      <c r="B300" s="2" t="n">
+        <v>44966</v>
+      </c>
+      <c r="C300" t="inlineStr">
+        <is>
+          <t>contemplate</t>
+        </is>
+      </c>
+      <c r="D300" t="inlineStr">
+        <is>
+          <t>to think about whether you should do something, or how you should do something</t>
+        </is>
+      </c>
+      <c r="E300" t="inlineStr">
+        <is>
+          <t>contemplate something You're too young to be contemplating retirement.</t>
+        </is>
+      </c>
+      <c r="F300" t="n">
+        <v>0</v>
+      </c>
+      <c r="G300" s="3" t="n">
+        <v>44966</v>
+      </c>
+      <c r="H300" s="2" t="n">
+        <v>117642</v>
+      </c>
+      <c r="I300" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" s="1" t="inlineStr"/>
+      <c r="B301" s="2" t="n">
+        <v>44966</v>
+      </c>
+      <c r="C301" t="inlineStr">
+        <is>
+          <t>allocate</t>
+        </is>
+      </c>
+      <c r="D301" t="inlineStr">
+        <is>
+          <t>to give something officially to somebody/something for a particular purpose</t>
+        </is>
+      </c>
+      <c r="E301" t="inlineStr">
+        <is>
+          <t>allocate something (for something) A large sum has been allocated for buying new books for the library.</t>
+        </is>
+      </c>
+      <c r="F301" t="n">
+        <v>0</v>
+      </c>
+      <c r="G301" s="3" t="n">
+        <v>44966</v>
+      </c>
+      <c r="H301" s="2" t="n">
+        <v>117642</v>
+      </c>
+      <c r="I301" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" s="1" t="inlineStr"/>
+      <c r="B302" s="2" t="n">
+        <v>44966</v>
+      </c>
+      <c r="C302" t="inlineStr">
+        <is>
+          <t>eager</t>
+        </is>
+      </c>
+      <c r="D302" t="inlineStr">
+        <is>
+          <t>very interested and excited by something that is going to happen or about something that you want to do; showing this</t>
+        </is>
+      </c>
+      <c r="E302" t="inlineStr">
+        <is>
+          <t>eager crowds outside the stadium</t>
+        </is>
+      </c>
+      <c r="F302" t="n">
+        <v>0</v>
+      </c>
+      <c r="G302" s="3" t="n">
+        <v>44966</v>
+      </c>
+      <c r="H302" s="2" t="n">
+        <v>117642</v>
+      </c>
+      <c r="I302" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" s="1" t="inlineStr"/>
+      <c r="B303" s="2" t="n">
+        <v>44966</v>
+      </c>
+      <c r="C303" t="inlineStr">
+        <is>
+          <t>prominent</t>
+        </is>
+      </c>
+      <c r="D303" t="inlineStr">
+        <is>
+          <t>important or well known</t>
+        </is>
+      </c>
+      <c r="E303" t="inlineStr">
+        <is>
+          <t>a prominent politician</t>
+        </is>
+      </c>
+      <c r="F303" t="n">
+        <v>0</v>
+      </c>
+      <c r="G303" s="3" t="n">
+        <v>44966</v>
+      </c>
+      <c r="H303" s="2" t="n">
+        <v>117642</v>
+      </c>
+      <c r="I303" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" s="1" t="inlineStr"/>
+      <c r="B304" s="2" t="n">
+        <v>44966</v>
+      </c>
+      <c r="C304" t="inlineStr">
+        <is>
+          <t>canvas</t>
+        </is>
+      </c>
+      <c r="D304" t="inlineStr">
+        <is>
+          <t>a strong heavy rough material used for making tents, sails, etc. and by artists for painting on</t>
+        </is>
+      </c>
+      <c r="E304" t="inlineStr">
+        <is>
+          <t>tents made from heavy canvas</t>
+        </is>
+      </c>
+      <c r="F304" t="n">
+        <v>1</v>
+      </c>
+      <c r="G304" s="3" t="n">
+        <v>44966</v>
+      </c>
+      <c r="H304" s="2" t="n">
+        <v>117642</v>
+      </c>
+      <c r="I304" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" s="1" t="inlineStr"/>
+      <c r="B305" s="2" t="n">
+        <v>44966</v>
+      </c>
+      <c r="C305" t="inlineStr">
+        <is>
+          <t>grace</t>
+        </is>
+      </c>
+      <c r="D305" t="inlineStr">
+        <is>
+          <t>an attractive quality of movement that is smooth and done with control; a simple and beautiful quality</t>
+        </is>
+      </c>
+      <c r="E305" t="inlineStr">
+        <is>
+          <t>She moves with the natural grace of a ballerina.</t>
+        </is>
+      </c>
+      <c r="F305" t="n">
+        <v>1</v>
+      </c>
+      <c r="G305" s="3" t="n">
+        <v>44966</v>
+      </c>
+      <c r="H305" s="2" t="n">
+        <v>117642</v>
+      </c>
+      <c r="I305" t="n">
         <v>0</v>
       </c>
     </row>

--- a/capture.xlsx
+++ b/capture.xlsx
@@ -16,11 +16,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
     <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
-    <numFmt numFmtId="166" formatCode="yyyy-mm-dd"/>
-    <numFmt numFmtId="167" formatCode="YYYY-MM-DD"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -60,13 +58,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -512,14 +509,14 @@
       <c r="F2" t="n">
         <v>5</v>
       </c>
-      <c r="G2" s="3" t="n">
-        <v>44966</v>
+      <c r="G2" s="2" t="n">
+        <v>44969</v>
       </c>
       <c r="H2" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I2" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -547,14 +544,14 @@
       <c r="F3" t="n">
         <v>5</v>
       </c>
-      <c r="G3" s="3" t="n">
-        <v>44966</v>
+      <c r="G3" s="2" t="n">
+        <v>44969</v>
       </c>
       <c r="H3" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I3" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -582,14 +579,14 @@
       <c r="F4" t="n">
         <v>5</v>
       </c>
-      <c r="G4" s="3" t="n">
-        <v>44966</v>
+      <c r="G4" s="2" t="n">
+        <v>44968</v>
       </c>
       <c r="H4" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -617,14 +614,14 @@
       <c r="F5" t="n">
         <v>5</v>
       </c>
-      <c r="G5" s="3" t="n">
-        <v>44966</v>
+      <c r="G5" s="2" t="n">
+        <v>44969</v>
       </c>
       <c r="H5" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -652,14 +649,14 @@
       <c r="F6" t="n">
         <v>5</v>
       </c>
-      <c r="G6" s="3" t="n">
-        <v>44966</v>
+      <c r="G6" s="2" t="n">
+        <v>44969</v>
       </c>
       <c r="H6" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I6" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7">
@@ -687,14 +684,14 @@
       <c r="F7" t="n">
         <v>5</v>
       </c>
-      <c r="G7" s="3" t="n">
-        <v>44966</v>
+      <c r="G7" s="2" t="n">
+        <v>44969</v>
       </c>
       <c r="H7" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I7" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8">
@@ -722,14 +719,14 @@
       <c r="F8" t="n">
         <v>5</v>
       </c>
-      <c r="G8" s="3" t="n">
-        <v>44966</v>
+      <c r="G8" s="2" t="n">
+        <v>44969</v>
       </c>
       <c r="H8" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I8" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -757,14 +754,14 @@
       <c r="F9" t="n">
         <v>5</v>
       </c>
-      <c r="G9" s="3" t="n">
-        <v>44966</v>
+      <c r="G9" s="2" t="n">
+        <v>44969</v>
       </c>
       <c r="H9" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10">
@@ -792,14 +789,14 @@
       <c r="F10" t="n">
         <v>5</v>
       </c>
-      <c r="G10" s="3" t="n">
-        <v>44966</v>
+      <c r="G10" s="2" t="n">
+        <v>44969</v>
       </c>
       <c r="H10" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I10" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11">
@@ -827,7 +824,7 @@
       <c r="F11" t="n">
         <v>5</v>
       </c>
-      <c r="G11" s="3" t="n">
+      <c r="G11" s="2" t="n">
         <v>44966</v>
       </c>
       <c r="H11" s="2" t="n">
@@ -862,14 +859,14 @@
       <c r="F12" t="n">
         <v>5</v>
       </c>
-      <c r="G12" s="3" t="n">
-        <v>44966</v>
+      <c r="G12" s="2" t="n">
+        <v>44969</v>
       </c>
       <c r="H12" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I12" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13">
@@ -897,14 +894,14 @@
       <c r="F13" t="n">
         <v>5</v>
       </c>
-      <c r="G13" s="3" t="n">
-        <v>44966</v>
+      <c r="G13" s="2" t="n">
+        <v>44968</v>
       </c>
       <c r="H13" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -932,14 +929,14 @@
       <c r="F14" t="n">
         <v>5</v>
       </c>
-      <c r="G14" s="3" t="n">
-        <v>44966</v>
+      <c r="G14" s="2" t="n">
+        <v>44969</v>
       </c>
       <c r="H14" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I14" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15">
@@ -967,14 +964,14 @@
       <c r="F15" t="n">
         <v>5</v>
       </c>
-      <c r="G15" s="3" t="n">
-        <v>44966</v>
+      <c r="G15" s="2" t="n">
+        <v>44969</v>
       </c>
       <c r="H15" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I15" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1002,14 +999,14 @@
       <c r="F16" t="n">
         <v>5</v>
       </c>
-      <c r="G16" s="3" t="n">
-        <v>44966</v>
+      <c r="G16" s="2" t="n">
+        <v>44969</v>
       </c>
       <c r="H16" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17">
@@ -1037,14 +1034,14 @@
       <c r="F17" t="n">
         <v>5</v>
       </c>
-      <c r="G17" s="3" t="n">
-        <v>44966</v>
+      <c r="G17" s="2" t="n">
+        <v>44969</v>
       </c>
       <c r="H17" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I17" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
@@ -1072,14 +1069,14 @@
       <c r="F18" t="n">
         <v>5</v>
       </c>
-      <c r="G18" s="3" t="n">
-        <v>44966</v>
+      <c r="G18" s="2" t="n">
+        <v>44969</v>
       </c>
       <c r="H18" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19">
@@ -1107,14 +1104,14 @@
       <c r="F19" t="n">
         <v>5</v>
       </c>
-      <c r="G19" s="3" t="n">
-        <v>44966</v>
+      <c r="G19" s="2" t="n">
+        <v>44969</v>
       </c>
       <c r="H19" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20">
@@ -1142,14 +1139,14 @@
       <c r="F20" t="n">
         <v>5</v>
       </c>
-      <c r="G20" s="3" t="n">
-        <v>44966</v>
+      <c r="G20" s="2" t="n">
+        <v>44969</v>
       </c>
       <c r="H20" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I20" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -1177,14 +1174,14 @@
       <c r="F21" t="n">
         <v>5</v>
       </c>
-      <c r="G21" s="3" t="n">
-        <v>44966</v>
+      <c r="G21" s="2" t="n">
+        <v>44967</v>
       </c>
       <c r="H21" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -1212,14 +1209,14 @@
       <c r="F22" t="n">
         <v>5</v>
       </c>
-      <c r="G22" s="3" t="n">
-        <v>44966</v>
+      <c r="G22" s="2" t="n">
+        <v>44969</v>
       </c>
       <c r="H22" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23">
@@ -1248,14 +1245,14 @@
       <c r="F23" t="n">
         <v>5</v>
       </c>
-      <c r="G23" s="3" t="n">
-        <v>44966</v>
+      <c r="G23" s="2" t="n">
+        <v>44969</v>
       </c>
       <c r="H23" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I23" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24">
@@ -1283,14 +1280,14 @@
       <c r="F24" t="n">
         <v>5</v>
       </c>
-      <c r="G24" s="3" t="n">
-        <v>44966</v>
+      <c r="G24" s="2" t="n">
+        <v>44969</v>
       </c>
       <c r="H24" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I24" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25">
@@ -1318,14 +1315,14 @@
       <c r="F25" t="n">
         <v>5</v>
       </c>
-      <c r="G25" s="3" t="n">
-        <v>44966</v>
+      <c r="G25" s="2" t="n">
+        <v>44969</v>
       </c>
       <c r="H25" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I25" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="26">
@@ -1353,14 +1350,14 @@
       <c r="F26" t="n">
         <v>5</v>
       </c>
-      <c r="G26" s="3" t="n">
-        <v>44966</v>
+      <c r="G26" s="2" t="n">
+        <v>44969</v>
       </c>
       <c r="H26" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I26" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27">
@@ -1388,14 +1385,14 @@
       <c r="F27" t="n">
         <v>5</v>
       </c>
-      <c r="G27" s="3" t="n">
-        <v>44966</v>
+      <c r="G27" s="2" t="n">
+        <v>44968</v>
       </c>
       <c r="H27" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I27" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -1423,14 +1420,14 @@
       <c r="F28" t="n">
         <v>5</v>
       </c>
-      <c r="G28" s="3" t="n">
-        <v>44966</v>
+      <c r="G28" s="2" t="n">
+        <v>44969</v>
       </c>
       <c r="H28" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I28" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29">
@@ -1458,14 +1455,14 @@
       <c r="F29" t="n">
         <v>5</v>
       </c>
-      <c r="G29" s="3" t="n">
-        <v>44966</v>
+      <c r="G29" s="2" t="n">
+        <v>44969</v>
       </c>
       <c r="H29" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I29" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="30">
@@ -1493,14 +1490,14 @@
       <c r="F30" t="n">
         <v>5</v>
       </c>
-      <c r="G30" s="3" t="n">
-        <v>44966</v>
+      <c r="G30" s="2" t="n">
+        <v>44969</v>
       </c>
       <c r="H30" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I30" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="31">
@@ -1528,14 +1525,14 @@
       <c r="F31" t="n">
         <v>5</v>
       </c>
-      <c r="G31" s="3" t="n">
-        <v>44966</v>
+      <c r="G31" s="2" t="n">
+        <v>44969</v>
       </c>
       <c r="H31" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32">
@@ -1563,14 +1560,14 @@
       <c r="F32" t="n">
         <v>5</v>
       </c>
-      <c r="G32" s="3" t="n">
-        <v>44966</v>
+      <c r="G32" s="2" t="n">
+        <v>44969</v>
       </c>
       <c r="H32" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33">
@@ -1598,14 +1595,14 @@
       <c r="F33" t="n">
         <v>5</v>
       </c>
-      <c r="G33" s="3" t="n">
-        <v>44966</v>
+      <c r="G33" s="2" t="n">
+        <v>44969</v>
       </c>
       <c r="H33" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I33" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="34">
@@ -1633,14 +1630,14 @@
       <c r="F34" t="n">
         <v>5</v>
       </c>
-      <c r="G34" s="3" t="n">
-        <v>44966</v>
+      <c r="G34" s="2" t="n">
+        <v>44969</v>
       </c>
       <c r="H34" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35">
@@ -1668,14 +1665,14 @@
       <c r="F35" t="n">
         <v>5</v>
       </c>
-      <c r="G35" s="3" t="n">
-        <v>44966</v>
+      <c r="G35" s="2" t="n">
+        <v>44969</v>
       </c>
       <c r="H35" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I35" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="36">
@@ -1703,14 +1700,14 @@
       <c r="F36" t="n">
         <v>5</v>
       </c>
-      <c r="G36" s="3" t="n">
-        <v>44966</v>
+      <c r="G36" s="2" t="n">
+        <v>44969</v>
       </c>
       <c r="H36" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I36" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="37">
@@ -1738,14 +1735,14 @@
       <c r="F37" t="n">
         <v>5</v>
       </c>
-      <c r="G37" s="3" t="n">
-        <v>44966</v>
+      <c r="G37" s="2" t="n">
+        <v>44969</v>
       </c>
       <c r="H37" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I37" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38">
@@ -1773,14 +1770,14 @@
       <c r="F38" t="n">
         <v>5</v>
       </c>
-      <c r="G38" s="3" t="n">
-        <v>44966</v>
+      <c r="G38" s="2" t="n">
+        <v>44969</v>
       </c>
       <c r="H38" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39">
@@ -1808,14 +1805,14 @@
       <c r="F39" t="n">
         <v>5</v>
       </c>
-      <c r="G39" s="3" t="n">
-        <v>44966</v>
+      <c r="G39" s="2" t="n">
+        <v>44969</v>
       </c>
       <c r="H39" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I39" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="40">
@@ -1843,14 +1840,14 @@
       <c r="F40" t="n">
         <v>5</v>
       </c>
-      <c r="G40" s="3" t="n">
-        <v>44966</v>
+      <c r="G40" s="2" t="n">
+        <v>44968</v>
       </c>
       <c r="H40" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I40" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -1878,14 +1875,14 @@
       <c r="F41" t="n">
         <v>5</v>
       </c>
-      <c r="G41" s="3" t="n">
-        <v>44966</v>
+      <c r="G41" s="2" t="n">
+        <v>44969</v>
       </c>
       <c r="H41" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I41" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="42">
@@ -1913,14 +1910,14 @@
       <c r="F42" t="n">
         <v>5</v>
       </c>
-      <c r="G42" s="3" t="n">
-        <v>44966</v>
+      <c r="G42" s="2" t="n">
+        <v>44969</v>
       </c>
       <c r="H42" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I42" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -1946,14 +1943,14 @@
       <c r="F43" t="n">
         <v>5</v>
       </c>
-      <c r="G43" s="3" t="n">
-        <v>44966</v>
+      <c r="G43" s="2" t="n">
+        <v>44969</v>
       </c>
       <c r="H43" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I43" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -1979,14 +1976,14 @@
       <c r="F44" t="n">
         <v>5</v>
       </c>
-      <c r="G44" s="3" t="n">
-        <v>44966</v>
+      <c r="G44" s="2" t="n">
+        <v>44969</v>
       </c>
       <c r="H44" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I44" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -2012,14 +2009,14 @@
       <c r="F45" t="n">
         <v>5</v>
       </c>
-      <c r="G45" s="3" t="n">
-        <v>44966</v>
+      <c r="G45" s="2" t="n">
+        <v>44969</v>
       </c>
       <c r="H45" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I45" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="46">
@@ -2045,14 +2042,14 @@
       <c r="F46" t="n">
         <v>5</v>
       </c>
-      <c r="G46" s="3" t="n">
-        <v>44966</v>
+      <c r="G46" s="2" t="n">
+        <v>44969</v>
       </c>
       <c r="H46" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I46" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47">
@@ -2078,14 +2075,14 @@
       <c r="F47" t="n">
         <v>5</v>
       </c>
-      <c r="G47" s="3" t="n">
-        <v>44966</v>
+      <c r="G47" s="2" t="n">
+        <v>44967</v>
       </c>
       <c r="H47" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48">
@@ -2111,14 +2108,14 @@
       <c r="F48" t="n">
         <v>5</v>
       </c>
-      <c r="G48" s="3" t="n">
-        <v>44966</v>
+      <c r="G48" s="2" t="n">
+        <v>44969</v>
       </c>
       <c r="H48" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I48" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="49">
@@ -2144,14 +2141,14 @@
       <c r="F49" t="n">
         <v>5</v>
       </c>
-      <c r="G49" s="3" t="n">
-        <v>44966</v>
+      <c r="G49" s="2" t="n">
+        <v>44967</v>
       </c>
       <c r="H49" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50">
@@ -2177,14 +2174,14 @@
       <c r="F50" t="n">
         <v>5</v>
       </c>
-      <c r="G50" s="3" t="n">
-        <v>44966</v>
+      <c r="G50" s="2" t="n">
+        <v>44969</v>
       </c>
       <c r="H50" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I50" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="51">
@@ -2210,7 +2207,7 @@
       <c r="F51" t="n">
         <v>5</v>
       </c>
-      <c r="G51" s="3" t="n">
+      <c r="G51" s="2" t="n">
         <v>44966</v>
       </c>
       <c r="H51" s="2" t="n">
@@ -2243,14 +2240,14 @@
       <c r="F52" t="n">
         <v>5</v>
       </c>
-      <c r="G52" s="3" t="n">
-        <v>44966</v>
+      <c r="G52" s="2" t="n">
+        <v>44969</v>
       </c>
       <c r="H52" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I52" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53">
@@ -2276,14 +2273,14 @@
       <c r="F53" t="n">
         <v>5</v>
       </c>
-      <c r="G53" s="3" t="n">
-        <v>44966</v>
+      <c r="G53" s="2" t="n">
+        <v>44969</v>
       </c>
       <c r="H53" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I53" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54">
@@ -2309,14 +2306,14 @@
       <c r="F54" t="n">
         <v>5</v>
       </c>
-      <c r="G54" s="3" t="n">
-        <v>44966</v>
+      <c r="G54" s="2" t="n">
+        <v>44969</v>
       </c>
       <c r="H54" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I54" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -2342,14 +2339,14 @@
       <c r="F55" t="n">
         <v>5</v>
       </c>
-      <c r="G55" s="3" t="n">
-        <v>44966</v>
+      <c r="G55" s="2" t="n">
+        <v>44969</v>
       </c>
       <c r="H55" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I55" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56">
@@ -2375,14 +2372,14 @@
       <c r="F56" t="n">
         <v>5</v>
       </c>
-      <c r="G56" s="3" t="n">
-        <v>44966</v>
+      <c r="G56" s="2" t="n">
+        <v>44969</v>
       </c>
       <c r="H56" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I56" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57">
@@ -2408,14 +2405,14 @@
       <c r="F57" t="n">
         <v>5</v>
       </c>
-      <c r="G57" s="3" t="n">
-        <v>44966</v>
+      <c r="G57" s="2" t="n">
+        <v>44968</v>
       </c>
       <c r="H57" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I57" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
@@ -2441,14 +2438,14 @@
       <c r="F58" t="n">
         <v>5</v>
       </c>
-      <c r="G58" s="3" t="n">
-        <v>44966</v>
+      <c r="G58" s="2" t="n">
+        <v>44969</v>
       </c>
       <c r="H58" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I58" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="59">
@@ -2474,14 +2471,14 @@
       <c r="F59" t="n">
         <v>5</v>
       </c>
-      <c r="G59" s="3" t="n">
-        <v>44966</v>
+      <c r="G59" s="2" t="n">
+        <v>44967</v>
       </c>
       <c r="H59" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
@@ -2507,14 +2504,14 @@
       <c r="F60" t="n">
         <v>5</v>
       </c>
-      <c r="G60" s="3" t="n">
-        <v>44966</v>
+      <c r="G60" s="2" t="n">
+        <v>44968</v>
       </c>
       <c r="H60" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I60" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -2540,7 +2537,7 @@
       <c r="F61" t="n">
         <v>5</v>
       </c>
-      <c r="G61" s="3" t="n">
+      <c r="G61" s="2" t="n">
         <v>44966</v>
       </c>
       <c r="H61" s="2" t="n">
@@ -2573,14 +2570,14 @@
       <c r="F62" t="n">
         <v>5</v>
       </c>
-      <c r="G62" s="3" t="n">
-        <v>44966</v>
+      <c r="G62" s="2" t="n">
+        <v>44967</v>
       </c>
       <c r="H62" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63">
@@ -2606,14 +2603,14 @@
       <c r="F63" t="n">
         <v>5</v>
       </c>
-      <c r="G63" s="3" t="n">
-        <v>44966</v>
+      <c r="G63" s="2" t="n">
+        <v>44968</v>
       </c>
       <c r="H63" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I63" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64">
@@ -2639,14 +2636,14 @@
       <c r="F64" t="n">
         <v>5</v>
       </c>
-      <c r="G64" s="3" t="n">
-        <v>44966</v>
+      <c r="G64" s="2" t="n">
+        <v>44969</v>
       </c>
       <c r="H64" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I64" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
@@ -2672,14 +2669,14 @@
       <c r="F65" t="n">
         <v>5</v>
       </c>
-      <c r="G65" s="3" t="n">
-        <v>44966</v>
+      <c r="G65" s="2" t="n">
+        <v>44969</v>
       </c>
       <c r="H65" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66">
@@ -2705,14 +2702,14 @@
       <c r="F66" t="n">
         <v>5</v>
       </c>
-      <c r="G66" s="3" t="n">
-        <v>44966</v>
+      <c r="G66" s="2" t="n">
+        <v>44967</v>
       </c>
       <c r="H66" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67">
@@ -2738,14 +2735,14 @@
       <c r="F67" t="n">
         <v>5</v>
       </c>
-      <c r="G67" s="3" t="n">
-        <v>44966</v>
+      <c r="G67" s="2" t="n">
+        <v>44969</v>
       </c>
       <c r="H67" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I67" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="68">
@@ -2771,14 +2768,14 @@
       <c r="F68" t="n">
         <v>5</v>
       </c>
-      <c r="G68" s="3" t="n">
-        <v>44966</v>
+      <c r="G68" s="2" t="n">
+        <v>44968</v>
       </c>
       <c r="H68" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I68" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69">
@@ -2804,14 +2801,14 @@
       <c r="F69" t="n">
         <v>5</v>
       </c>
-      <c r="G69" s="3" t="n">
-        <v>44966</v>
+      <c r="G69" s="2" t="n">
+        <v>44967</v>
       </c>
       <c r="H69" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70">
@@ -2837,14 +2834,14 @@
       <c r="F70" t="n">
         <v>5</v>
       </c>
-      <c r="G70" s="3" t="n">
-        <v>44966</v>
+      <c r="G70" s="2" t="n">
+        <v>44969</v>
       </c>
       <c r="H70" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I70" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="71">
@@ -2870,14 +2867,14 @@
       <c r="F71" t="n">
         <v>5</v>
       </c>
-      <c r="G71" s="3" t="n">
-        <v>44966</v>
+      <c r="G71" s="2" t="n">
+        <v>44969</v>
       </c>
       <c r="H71" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I71" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="72">
@@ -2903,14 +2900,14 @@
       <c r="F72" t="n">
         <v>5</v>
       </c>
-      <c r="G72" s="3" t="n">
-        <v>44966</v>
+      <c r="G72" s="2" t="n">
+        <v>44969</v>
       </c>
       <c r="H72" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I72" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="73">
@@ -2936,14 +2933,14 @@
       <c r="F73" t="n">
         <v>5</v>
       </c>
-      <c r="G73" s="3" t="n">
-        <v>44966</v>
+      <c r="G73" s="2" t="n">
+        <v>44969</v>
       </c>
       <c r="H73" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I73" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74">
@@ -2969,14 +2966,14 @@
       <c r="F74" t="n">
         <v>5</v>
       </c>
-      <c r="G74" s="3" t="n">
-        <v>44966</v>
+      <c r="G74" s="2" t="n">
+        <v>44969</v>
       </c>
       <c r="H74" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I74" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
@@ -3002,14 +2999,14 @@
       <c r="F75" t="n">
         <v>5</v>
       </c>
-      <c r="G75" s="3" t="n">
-        <v>44966</v>
+      <c r="G75" s="2" t="n">
+        <v>44969</v>
       </c>
       <c r="H75" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I75" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76">
@@ -3035,14 +3032,14 @@
       <c r="F76" t="n">
         <v>5</v>
       </c>
-      <c r="G76" s="3" t="n">
-        <v>44966</v>
+      <c r="G76" s="2" t="n">
+        <v>44969</v>
       </c>
       <c r="H76" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I76" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -3068,14 +3065,14 @@
       <c r="F77" t="n">
         <v>5</v>
       </c>
-      <c r="G77" s="3" t="n">
-        <v>44966</v>
+      <c r="G77" s="2" t="n">
+        <v>44969</v>
       </c>
       <c r="H77" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I77" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="78">
@@ -3101,14 +3098,14 @@
       <c r="F78" t="n">
         <v>5</v>
       </c>
-      <c r="G78" s="3" t="n">
-        <v>44966</v>
+      <c r="G78" s="2" t="n">
+        <v>44969</v>
       </c>
       <c r="H78" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I78" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79">
@@ -3134,14 +3131,14 @@
       <c r="F79" t="n">
         <v>5</v>
       </c>
-      <c r="G79" s="3" t="n">
-        <v>44966</v>
+      <c r="G79" s="2" t="n">
+        <v>44969</v>
       </c>
       <c r="H79" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I79" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="80">
@@ -3167,14 +3164,14 @@
       <c r="F80" t="n">
         <v>5</v>
       </c>
-      <c r="G80" s="3" t="n">
-        <v>44966</v>
+      <c r="G80" s="2" t="n">
+        <v>44969</v>
       </c>
       <c r="H80" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I80" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="81">
@@ -3200,14 +3197,14 @@
       <c r="F81" t="n">
         <v>5</v>
       </c>
-      <c r="G81" s="3" t="n">
-        <v>44966</v>
+      <c r="G81" s="2" t="n">
+        <v>44969</v>
       </c>
       <c r="H81" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I81" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="82">
@@ -3233,14 +3230,14 @@
       <c r="F82" t="n">
         <v>5</v>
       </c>
-      <c r="G82" s="3" t="n">
-        <v>44966</v>
+      <c r="G82" s="2" t="n">
+        <v>44969</v>
       </c>
       <c r="H82" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I82" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83">
@@ -3266,14 +3263,14 @@
       <c r="F83" t="n">
         <v>5</v>
       </c>
-      <c r="G83" s="3" t="n">
-        <v>44966</v>
+      <c r="G83" s="2" t="n">
+        <v>44969</v>
       </c>
       <c r="H83" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I83" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84">
@@ -3299,14 +3296,14 @@
       <c r="F84" t="n">
         <v>5</v>
       </c>
-      <c r="G84" s="3" t="n">
-        <v>44966</v>
+      <c r="G84" s="2" t="n">
+        <v>44968</v>
       </c>
       <c r="H84" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I84" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85">
@@ -3333,14 +3330,14 @@
       <c r="F85" t="n">
         <v>5</v>
       </c>
-      <c r="G85" s="3" t="n">
-        <v>44966</v>
+      <c r="G85" s="2" t="n">
+        <v>44969</v>
       </c>
       <c r="H85" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I85" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86">
@@ -3366,14 +3363,14 @@
       <c r="F86" t="n">
         <v>5</v>
       </c>
-      <c r="G86" s="3" t="n">
-        <v>44966</v>
+      <c r="G86" s="2" t="n">
+        <v>44969</v>
       </c>
       <c r="H86" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I86" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="87">
@@ -3399,14 +3396,14 @@
       <c r="F87" t="n">
         <v>5</v>
       </c>
-      <c r="G87" s="3" t="n">
-        <v>44966</v>
+      <c r="G87" s="2" t="n">
+        <v>44969</v>
       </c>
       <c r="H87" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I87" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88">
@@ -3432,14 +3429,14 @@
       <c r="F88" t="n">
         <v>5</v>
       </c>
-      <c r="G88" s="3" t="n">
-        <v>44966</v>
+      <c r="G88" s="2" t="n">
+        <v>44969</v>
       </c>
       <c r="H88" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I88" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="89">
@@ -3465,14 +3462,14 @@
       <c r="F89" t="n">
         <v>5</v>
       </c>
-      <c r="G89" s="3" t="n">
-        <v>44966</v>
+      <c r="G89" s="2" t="n">
+        <v>44969</v>
       </c>
       <c r="H89" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90">
@@ -3498,14 +3495,14 @@
       <c r="F90" t="n">
         <v>5</v>
       </c>
-      <c r="G90" s="3" t="n">
-        <v>44966</v>
+      <c r="G90" s="2" t="n">
+        <v>44969</v>
       </c>
       <c r="H90" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I90" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="91">
@@ -3531,14 +3528,14 @@
       <c r="F91" t="n">
         <v>5</v>
       </c>
-      <c r="G91" s="3" t="n">
-        <v>44966</v>
+      <c r="G91" s="2" t="n">
+        <v>44969</v>
       </c>
       <c r="H91" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I91" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92">
@@ -3564,14 +3561,14 @@
       <c r="F92" t="n">
         <v>5</v>
       </c>
-      <c r="G92" s="3" t="n">
-        <v>44966</v>
+      <c r="G92" s="2" t="n">
+        <v>44969</v>
       </c>
       <c r="H92" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I92" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
@@ -3597,14 +3594,14 @@
       <c r="F93" t="n">
         <v>5</v>
       </c>
-      <c r="G93" s="3" t="n">
-        <v>44966</v>
+      <c r="G93" s="2" t="n">
+        <v>44968</v>
       </c>
       <c r="H93" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I93" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94">
@@ -3630,14 +3627,14 @@
       <c r="F94" t="n">
         <v>5</v>
       </c>
-      <c r="G94" s="3" t="n">
-        <v>44966</v>
+      <c r="G94" s="2" t="n">
+        <v>44969</v>
       </c>
       <c r="H94" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I94" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95">
@@ -3663,14 +3660,14 @@
       <c r="F95" t="n">
         <v>5</v>
       </c>
-      <c r="G95" s="3" t="n">
-        <v>44966</v>
+      <c r="G95" s="2" t="n">
+        <v>44969</v>
       </c>
       <c r="H95" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I95" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="96">
@@ -3696,14 +3693,14 @@
       <c r="F96" t="n">
         <v>5</v>
       </c>
-      <c r="G96" s="3" t="n">
-        <v>44966</v>
+      <c r="G96" s="2" t="n">
+        <v>44969</v>
       </c>
       <c r="H96" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I96" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97">
@@ -3729,14 +3726,14 @@
       <c r="F97" t="n">
         <v>5</v>
       </c>
-      <c r="G97" s="3" t="n">
-        <v>44966</v>
+      <c r="G97" s="2" t="n">
+        <v>44967</v>
       </c>
       <c r="H97" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98">
@@ -3762,14 +3759,14 @@
       <c r="F98" t="n">
         <v>5</v>
       </c>
-      <c r="G98" s="3" t="n">
-        <v>44966</v>
+      <c r="G98" s="2" t="n">
+        <v>44969</v>
       </c>
       <c r="H98" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I98" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99">
@@ -3795,7 +3792,7 @@
       <c r="F99" t="n">
         <v>5</v>
       </c>
-      <c r="G99" s="3" t="n">
+      <c r="G99" s="2" t="n">
         <v>44966</v>
       </c>
       <c r="H99" s="2" t="n">
@@ -3828,14 +3825,14 @@
       <c r="F100" t="n">
         <v>5</v>
       </c>
-      <c r="G100" s="3" t="n">
-        <v>44966</v>
+      <c r="G100" s="2" t="n">
+        <v>44969</v>
       </c>
       <c r="H100" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I100" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="101">
@@ -3861,14 +3858,14 @@
       <c r="F101" t="n">
         <v>5</v>
       </c>
-      <c r="G101" s="3" t="n">
-        <v>44966</v>
+      <c r="G101" s="2" t="n">
+        <v>44969</v>
       </c>
       <c r="H101" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I101" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="102">
@@ -3894,14 +3891,14 @@
       <c r="F102" t="n">
         <v>5</v>
       </c>
-      <c r="G102" s="3" t="n">
-        <v>44966</v>
+      <c r="G102" s="2" t="n">
+        <v>44969</v>
       </c>
       <c r="H102" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I102" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="103">
@@ -3927,14 +3924,14 @@
       <c r="F103" t="n">
         <v>5</v>
       </c>
-      <c r="G103" s="3" t="n">
-        <v>44966</v>
+      <c r="G103" s="2" t="n">
+        <v>44969</v>
       </c>
       <c r="H103" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I103" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104">
@@ -3960,14 +3957,14 @@
       <c r="F104" t="n">
         <v>5</v>
       </c>
-      <c r="G104" s="3" t="n">
-        <v>44966</v>
+      <c r="G104" s="2" t="n">
+        <v>44969</v>
       </c>
       <c r="H104" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I104" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="105">
@@ -3993,14 +3990,14 @@
       <c r="F105" t="n">
         <v>5</v>
       </c>
-      <c r="G105" s="3" t="n">
-        <v>44966</v>
+      <c r="G105" s="2" t="n">
+        <v>44969</v>
       </c>
       <c r="H105" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I105" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106">
@@ -4026,14 +4023,14 @@
       <c r="F106" t="n">
         <v>5</v>
       </c>
-      <c r="G106" s="3" t="n">
-        <v>44966</v>
+      <c r="G106" s="2" t="n">
+        <v>44969</v>
       </c>
       <c r="H106" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I106" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="107">
@@ -4059,14 +4056,14 @@
       <c r="F107" t="n">
         <v>5</v>
       </c>
-      <c r="G107" s="3" t="n">
-        <v>44966</v>
+      <c r="G107" s="2" t="n">
+        <v>44968</v>
       </c>
       <c r="H107" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I107" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108">
@@ -4092,14 +4089,14 @@
       <c r="F108" t="n">
         <v>5</v>
       </c>
-      <c r="G108" s="3" t="n">
-        <v>44966</v>
+      <c r="G108" s="2" t="n">
+        <v>44969</v>
       </c>
       <c r="H108" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I108" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="109">
@@ -4125,14 +4122,14 @@
       <c r="F109" t="n">
         <v>5</v>
       </c>
-      <c r="G109" s="3" t="n">
-        <v>44966</v>
+      <c r="G109" s="2" t="n">
+        <v>44969</v>
       </c>
       <c r="H109" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I109" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="110">
@@ -4158,14 +4155,14 @@
       <c r="F110" t="n">
         <v>5</v>
       </c>
-      <c r="G110" s="3" t="n">
-        <v>44966</v>
+      <c r="G110" s="2" t="n">
+        <v>44968</v>
       </c>
       <c r="H110" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I110" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111">
@@ -4191,14 +4188,14 @@
       <c r="F111" t="n">
         <v>5</v>
       </c>
-      <c r="G111" s="3" t="n">
-        <v>44966</v>
+      <c r="G111" s="2" t="n">
+        <v>44969</v>
       </c>
       <c r="H111" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I111" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112">
@@ -4224,14 +4221,14 @@
       <c r="F112" t="n">
         <v>5</v>
       </c>
-      <c r="G112" s="3" t="n">
-        <v>44966</v>
+      <c r="G112" s="2" t="n">
+        <v>44969</v>
       </c>
       <c r="H112" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I112" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="113">
@@ -4257,14 +4254,14 @@
       <c r="F113" t="n">
         <v>5</v>
       </c>
-      <c r="G113" s="3" t="n">
-        <v>44966</v>
+      <c r="G113" s="2" t="n">
+        <v>44969</v>
       </c>
       <c r="H113" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I113" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="114">
@@ -4290,14 +4287,14 @@
       <c r="F114" t="n">
         <v>5</v>
       </c>
-      <c r="G114" s="3" t="n">
-        <v>44966</v>
+      <c r="G114" s="2" t="n">
+        <v>44969</v>
       </c>
       <c r="H114" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I114" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="115">
@@ -4323,14 +4320,14 @@
       <c r="F115" t="n">
         <v>5</v>
       </c>
-      <c r="G115" s="3" t="n">
-        <v>44966</v>
+      <c r="G115" s="2" t="n">
+        <v>44969</v>
       </c>
       <c r="H115" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I115" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="116">
@@ -4356,14 +4353,14 @@
       <c r="F116" t="n">
         <v>5</v>
       </c>
-      <c r="G116" s="3" t="n">
-        <v>44966</v>
+      <c r="G116" s="2" t="n">
+        <v>44969</v>
       </c>
       <c r="H116" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I116" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117">
@@ -4389,14 +4386,14 @@
       <c r="F117" t="n">
         <v>5</v>
       </c>
-      <c r="G117" s="3" t="n">
-        <v>44966</v>
+      <c r="G117" s="2" t="n">
+        <v>44967</v>
       </c>
       <c r="H117" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I117" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118">
@@ -4422,14 +4419,14 @@
       <c r="F118" t="n">
         <v>5</v>
       </c>
-      <c r="G118" s="3" t="n">
-        <v>44966</v>
+      <c r="G118" s="2" t="n">
+        <v>44969</v>
       </c>
       <c r="H118" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I118" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="119">
@@ -4455,7 +4452,7 @@
       <c r="F119" t="n">
         <v>5</v>
       </c>
-      <c r="G119" s="3" t="n">
+      <c r="G119" s="2" t="n">
         <v>44966</v>
       </c>
       <c r="H119" s="2" t="n">
@@ -4488,14 +4485,14 @@
       <c r="F120" t="n">
         <v>5</v>
       </c>
-      <c r="G120" s="3" t="n">
-        <v>44966</v>
+      <c r="G120" s="2" t="n">
+        <v>44969</v>
       </c>
       <c r="H120" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I120" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="121">
@@ -4521,14 +4518,14 @@
       <c r="F121" t="n">
         <v>5</v>
       </c>
-      <c r="G121" s="3" t="n">
-        <v>44966</v>
+      <c r="G121" s="2" t="n">
+        <v>44969</v>
       </c>
       <c r="H121" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I121" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="122">
@@ -4554,14 +4551,14 @@
       <c r="F122" t="n">
         <v>5</v>
       </c>
-      <c r="G122" s="3" t="n">
-        <v>44966</v>
+      <c r="G122" s="2" t="n">
+        <v>44969</v>
       </c>
       <c r="H122" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I122" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123">
@@ -4587,14 +4584,14 @@
       <c r="F123" t="n">
         <v>5</v>
       </c>
-      <c r="G123" s="3" t="n">
-        <v>44966</v>
+      <c r="G123" s="2" t="n">
+        <v>44969</v>
       </c>
       <c r="H123" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I123" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="124">
@@ -4620,14 +4617,14 @@
       <c r="F124" t="n">
         <v>5</v>
       </c>
-      <c r="G124" s="3" t="n">
-        <v>44966</v>
+      <c r="G124" s="2" t="n">
+        <v>44969</v>
       </c>
       <c r="H124" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I124" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="125">
@@ -4653,14 +4650,14 @@
       <c r="F125" t="n">
         <v>5</v>
       </c>
-      <c r="G125" s="3" t="n">
-        <v>44966</v>
+      <c r="G125" s="2" t="n">
+        <v>44969</v>
       </c>
       <c r="H125" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I125" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126">
@@ -4686,14 +4683,14 @@
       <c r="F126" t="n">
         <v>5</v>
       </c>
-      <c r="G126" s="3" t="n">
-        <v>44966</v>
+      <c r="G126" s="2" t="n">
+        <v>44968</v>
       </c>
       <c r="H126" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I126" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127">
@@ -4719,14 +4716,14 @@
       <c r="F127" t="n">
         <v>5</v>
       </c>
-      <c r="G127" s="3" t="n">
-        <v>44966</v>
+      <c r="G127" s="2" t="n">
+        <v>44969</v>
       </c>
       <c r="H127" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I127" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="128">
@@ -4752,14 +4749,14 @@
       <c r="F128" t="n">
         <v>5</v>
       </c>
-      <c r="G128" s="3" t="n">
-        <v>44966</v>
+      <c r="G128" s="2" t="n">
+        <v>44969</v>
       </c>
       <c r="H128" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I128" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="129">
@@ -4785,14 +4782,14 @@
       <c r="F129" t="n">
         <v>5</v>
       </c>
-      <c r="G129" s="3" t="n">
-        <v>44966</v>
+      <c r="G129" s="2" t="n">
+        <v>44969</v>
       </c>
       <c r="H129" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I129" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="130">
@@ -4818,14 +4815,14 @@
       <c r="F130" t="n">
         <v>5</v>
       </c>
-      <c r="G130" s="3" t="n">
-        <v>44966</v>
+      <c r="G130" s="2" t="n">
+        <v>44969</v>
       </c>
       <c r="H130" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I130" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="131">
@@ -4851,14 +4848,14 @@
       <c r="F131" t="n">
         <v>5</v>
       </c>
-      <c r="G131" s="3" t="n">
-        <v>44966</v>
+      <c r="G131" s="2" t="n">
+        <v>44969</v>
       </c>
       <c r="H131" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I131" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="132">
@@ -4884,14 +4881,14 @@
       <c r="F132" t="n">
         <v>5</v>
       </c>
-      <c r="G132" s="3" t="n">
-        <v>44966</v>
+      <c r="G132" s="2" t="n">
+        <v>44969</v>
       </c>
       <c r="H132" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I132" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133">
@@ -4917,14 +4914,14 @@
       <c r="F133" t="n">
         <v>5</v>
       </c>
-      <c r="G133" s="3" t="n">
-        <v>44966</v>
+      <c r="G133" s="2" t="n">
+        <v>44969</v>
       </c>
       <c r="H133" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I133" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="134">
@@ -4950,14 +4947,14 @@
       <c r="F134" t="n">
         <v>5</v>
       </c>
-      <c r="G134" s="3" t="n">
-        <v>44966</v>
+      <c r="G134" s="2" t="n">
+        <v>44969</v>
       </c>
       <c r="H134" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I134" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="135">
@@ -4983,14 +4980,14 @@
       <c r="F135" t="n">
         <v>5</v>
       </c>
-      <c r="G135" s="3" t="n">
-        <v>44966</v>
+      <c r="G135" s="2" t="n">
+        <v>44969</v>
       </c>
       <c r="H135" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I135" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="136">
@@ -5016,14 +5013,14 @@
       <c r="F136" t="n">
         <v>5</v>
       </c>
-      <c r="G136" s="3" t="n">
-        <v>44966</v>
+      <c r="G136" s="2" t="n">
+        <v>44969</v>
       </c>
       <c r="H136" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I136" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137">
@@ -5049,14 +5046,14 @@
       <c r="F137" t="n">
         <v>5</v>
       </c>
-      <c r="G137" s="3" t="n">
-        <v>44966</v>
+      <c r="G137" s="2" t="n">
+        <v>44969</v>
       </c>
       <c r="H137" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I137" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="138">
@@ -5082,14 +5079,14 @@
       <c r="F138" t="n">
         <v>5</v>
       </c>
-      <c r="G138" s="3" t="n">
-        <v>44966</v>
+      <c r="G138" s="2" t="n">
+        <v>44969</v>
       </c>
       <c r="H138" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I138" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="139">
@@ -5115,14 +5112,14 @@
       <c r="F139" t="n">
         <v>5</v>
       </c>
-      <c r="G139" s="3" t="n">
-        <v>44966</v>
+      <c r="G139" s="2" t="n">
+        <v>44968</v>
       </c>
       <c r="H139" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I139" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140">
@@ -5148,14 +5145,14 @@
       <c r="F140" t="n">
         <v>5</v>
       </c>
-      <c r="G140" s="3" t="n">
-        <v>44966</v>
+      <c r="G140" s="2" t="n">
+        <v>44968</v>
       </c>
       <c r="H140" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I140" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141">
@@ -5181,14 +5178,14 @@
       <c r="F141" t="n">
         <v>5</v>
       </c>
-      <c r="G141" s="3" t="n">
-        <v>44966</v>
+      <c r="G141" s="2" t="n">
+        <v>44969</v>
       </c>
       <c r="H141" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I141" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="142">
@@ -5214,14 +5211,14 @@
       <c r="F142" t="n">
         <v>5</v>
       </c>
-      <c r="G142" s="3" t="n">
-        <v>44966</v>
+      <c r="G142" s="2" t="n">
+        <v>44969</v>
       </c>
       <c r="H142" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I142" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="143">
@@ -5247,14 +5244,14 @@
       <c r="F143" t="n">
         <v>5</v>
       </c>
-      <c r="G143" s="3" t="n">
-        <v>44966</v>
+      <c r="G143" s="2" t="n">
+        <v>44969</v>
       </c>
       <c r="H143" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I143" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="144">
@@ -5280,14 +5277,14 @@
       <c r="F144" t="n">
         <v>5</v>
       </c>
-      <c r="G144" s="3" t="n">
-        <v>44966</v>
+      <c r="G144" s="2" t="n">
+        <v>44969</v>
       </c>
       <c r="H144" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I144" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="145">
@@ -5313,14 +5310,14 @@
       <c r="F145" t="n">
         <v>5</v>
       </c>
-      <c r="G145" s="3" t="n">
-        <v>44966</v>
+      <c r="G145" s="2" t="n">
+        <v>44968</v>
       </c>
       <c r="H145" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I145" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146">
@@ -5346,14 +5343,14 @@
       <c r="F146" t="n">
         <v>5</v>
       </c>
-      <c r="G146" s="3" t="n">
-        <v>44966</v>
+      <c r="G146" s="2" t="n">
+        <v>44969</v>
       </c>
       <c r="H146" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I146" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="147">
@@ -5379,14 +5376,14 @@
       <c r="F147" t="n">
         <v>5</v>
       </c>
-      <c r="G147" s="3" t="n">
-        <v>44966</v>
+      <c r="G147" s="2" t="n">
+        <v>44969</v>
       </c>
       <c r="H147" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I147" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="148">
@@ -5412,14 +5409,14 @@
       <c r="F148" t="n">
         <v>5</v>
       </c>
-      <c r="G148" s="3" t="n">
-        <v>44966</v>
+      <c r="G148" s="2" t="n">
+        <v>44969</v>
       </c>
       <c r="H148" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I148" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="149">
@@ -5445,14 +5442,14 @@
       <c r="F149" t="n">
         <v>5</v>
       </c>
-      <c r="G149" s="3" t="n">
-        <v>44966</v>
+      <c r="G149" s="2" t="n">
+        <v>44969</v>
       </c>
       <c r="H149" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I149" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150">
@@ -5478,14 +5475,14 @@
       <c r="F150" t="n">
         <v>5</v>
       </c>
-      <c r="G150" s="3" t="n">
-        <v>44966</v>
+      <c r="G150" s="2" t="n">
+        <v>44969</v>
       </c>
       <c r="H150" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I150" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="151">
@@ -5511,14 +5508,14 @@
       <c r="F151" t="n">
         <v>5</v>
       </c>
-      <c r="G151" s="3" t="n">
-        <v>44966</v>
+      <c r="G151" s="2" t="n">
+        <v>44968</v>
       </c>
       <c r="H151" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I151" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152">
@@ -5544,14 +5541,14 @@
       <c r="F152" t="n">
         <v>5</v>
       </c>
-      <c r="G152" s="3" t="n">
-        <v>44966</v>
+      <c r="G152" s="2" t="n">
+        <v>44969</v>
       </c>
       <c r="H152" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I152" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="153">
@@ -5577,14 +5574,14 @@
       <c r="F153" t="n">
         <v>5</v>
       </c>
-      <c r="G153" s="3" t="n">
-        <v>44966</v>
+      <c r="G153" s="2" t="n">
+        <v>44969</v>
       </c>
       <c r="H153" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I153" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="154">
@@ -5610,14 +5607,14 @@
       <c r="F154" t="n">
         <v>5</v>
       </c>
-      <c r="G154" s="3" t="n">
-        <v>44966</v>
+      <c r="G154" s="2" t="n">
+        <v>44969</v>
       </c>
       <c r="H154" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I154" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="155">
@@ -5643,14 +5640,14 @@
       <c r="F155" t="n">
         <v>5</v>
       </c>
-      <c r="G155" s="3" t="n">
-        <v>44966</v>
+      <c r="G155" s="2" t="n">
+        <v>44969</v>
       </c>
       <c r="H155" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I155" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="156">
@@ -5677,14 +5674,14 @@
       <c r="F156" t="n">
         <v>5</v>
       </c>
-      <c r="G156" s="3" t="n">
-        <v>44966</v>
+      <c r="G156" s="2" t="n">
+        <v>44969</v>
       </c>
       <c r="H156" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I156" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="157">
@@ -5710,14 +5707,14 @@
       <c r="F157" t="n">
         <v>5</v>
       </c>
-      <c r="G157" s="3" t="n">
-        <v>44966</v>
+      <c r="G157" s="2" t="n">
+        <v>44967</v>
       </c>
       <c r="H157" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I157" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158">
@@ -5743,14 +5740,14 @@
       <c r="F158" t="n">
         <v>5</v>
       </c>
-      <c r="G158" s="3" t="n">
-        <v>44966</v>
+      <c r="G158" s="2" t="n">
+        <v>44969</v>
       </c>
       <c r="H158" s="2" t="n">
-        <v>117642</v>
+        <v>44968</v>
       </c>
       <c r="I158" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="159">
@@ -5776,14 +5773,14 @@
       <c r="F159" t="n">
         <v>5</v>
       </c>
-      <c r="G159" s="3" t="n">
-        <v>44966</v>
+      <c r="G159" s="2" t="n">
+        <v>44969</v>
       </c>
       <c r="H159" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I159" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="160">
@@ -5809,14 +5806,14 @@
       <c r="F160" t="n">
         <v>5</v>
       </c>
-      <c r="G160" s="3" t="n">
-        <v>44966</v>
+      <c r="G160" s="2" t="n">
+        <v>44969</v>
       </c>
       <c r="H160" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I160" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161">
@@ -5842,14 +5839,14 @@
       <c r="F161" t="n">
         <v>5</v>
       </c>
-      <c r="G161" s="3" t="n">
-        <v>44966</v>
+      <c r="G161" s="2" t="n">
+        <v>44969</v>
       </c>
       <c r="H161" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I161" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="162">
@@ -5875,14 +5872,14 @@
       <c r="F162" t="n">
         <v>5</v>
       </c>
-      <c r="G162" s="3" t="n">
-        <v>44966</v>
+      <c r="G162" s="2" t="n">
+        <v>44969</v>
       </c>
       <c r="H162" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I162" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163">
@@ -5908,14 +5905,14 @@
       <c r="F163" t="n">
         <v>5</v>
       </c>
-      <c r="G163" s="3" t="n">
-        <v>44966</v>
+      <c r="G163" s="2" t="n">
+        <v>44969</v>
       </c>
       <c r="H163" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I163" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164">
@@ -5941,14 +5938,14 @@
       <c r="F164" t="n">
         <v>5</v>
       </c>
-      <c r="G164" s="3" t="n">
-        <v>44966</v>
+      <c r="G164" s="2" t="n">
+        <v>44969</v>
       </c>
       <c r="H164" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I164" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="165">
@@ -5974,14 +5971,14 @@
       <c r="F165" t="n">
         <v>5</v>
       </c>
-      <c r="G165" s="3" t="n">
-        <v>44966</v>
+      <c r="G165" s="2" t="n">
+        <v>44969</v>
       </c>
       <c r="H165" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I165" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="166">
@@ -6007,14 +6004,14 @@
       <c r="F166" t="n">
         <v>5</v>
       </c>
-      <c r="G166" s="3" t="n">
-        <v>44966</v>
+      <c r="G166" s="2" t="n">
+        <v>44969</v>
       </c>
       <c r="H166" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I166" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="167">
@@ -6040,14 +6037,14 @@
       <c r="F167" t="n">
         <v>5</v>
       </c>
-      <c r="G167" s="3" t="n">
-        <v>44966</v>
+      <c r="G167" s="2" t="n">
+        <v>44969</v>
       </c>
       <c r="H167" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I167" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="168">
@@ -6073,14 +6070,14 @@
       <c r="F168" t="n">
         <v>5</v>
       </c>
-      <c r="G168" s="3" t="n">
-        <v>44966</v>
+      <c r="G168" s="2" t="n">
+        <v>44969</v>
       </c>
       <c r="H168" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I168" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="169">
@@ -6106,14 +6103,14 @@
       <c r="F169" t="n">
         <v>5</v>
       </c>
-      <c r="G169" s="3" t="n">
-        <v>44966</v>
+      <c r="G169" s="2" t="n">
+        <v>44969</v>
       </c>
       <c r="H169" s="2" t="n">
         <v>44963</v>
       </c>
       <c r="I169" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="170">
@@ -6139,14 +6136,14 @@
       <c r="F170" t="n">
         <v>5</v>
       </c>
-      <c r="G170" s="3" t="n">
-        <v>44966</v>
+      <c r="G170" s="2" t="n">
+        <v>44969</v>
       </c>
       <c r="H170" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I170" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="171">
@@ -6172,14 +6169,14 @@
       <c r="F171" t="n">
         <v>5</v>
       </c>
-      <c r="G171" s="3" t="n">
-        <v>44966</v>
+      <c r="G171" s="2" t="n">
+        <v>44969</v>
       </c>
       <c r="H171" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I171" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172">
@@ -6205,14 +6202,14 @@
       <c r="F172" t="n">
         <v>5</v>
       </c>
-      <c r="G172" s="3" t="n">
-        <v>44966</v>
+      <c r="G172" s="2" t="n">
+        <v>44969</v>
       </c>
       <c r="H172" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I172" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173">
@@ -6238,14 +6235,14 @@
       <c r="F173" t="n">
         <v>5</v>
       </c>
-      <c r="G173" s="3" t="n">
-        <v>44966</v>
+      <c r="G173" s="2" t="n">
+        <v>44969</v>
       </c>
       <c r="H173" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I173" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174">
@@ -6271,14 +6268,14 @@
       <c r="F174" t="n">
         <v>5</v>
       </c>
-      <c r="G174" s="3" t="n">
-        <v>44966</v>
+      <c r="G174" s="2" t="n">
+        <v>44969</v>
       </c>
       <c r="H174" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I174" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="175">
@@ -6304,14 +6301,14 @@
       <c r="F175" t="n">
         <v>5</v>
       </c>
-      <c r="G175" s="3" t="n">
-        <v>44966</v>
+      <c r="G175" s="2" t="n">
+        <v>44969</v>
       </c>
       <c r="H175" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I175" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="176">
@@ -6337,14 +6334,14 @@
       <c r="F176" t="n">
         <v>5</v>
       </c>
-      <c r="G176" s="3" t="n">
-        <v>44966</v>
+      <c r="G176" s="2" t="n">
+        <v>44968</v>
       </c>
       <c r="H176" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I176" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177">
@@ -6370,14 +6367,14 @@
       <c r="F177" t="n">
         <v>5</v>
       </c>
-      <c r="G177" s="3" t="n">
-        <v>44966</v>
+      <c r="G177" s="2" t="n">
+        <v>44969</v>
       </c>
       <c r="H177" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I177" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="178">
@@ -6403,14 +6400,14 @@
       <c r="F178" t="n">
         <v>5</v>
       </c>
-      <c r="G178" s="3" t="n">
-        <v>44966</v>
+      <c r="G178" s="2" t="n">
+        <v>44969</v>
       </c>
       <c r="H178" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I178" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179">
@@ -6436,14 +6433,14 @@
       <c r="F179" t="n">
         <v>5</v>
       </c>
-      <c r="G179" s="3" t="n">
-        <v>44966</v>
+      <c r="G179" s="2" t="n">
+        <v>44969</v>
       </c>
       <c r="H179" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I179" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="180">
@@ -6469,7 +6466,7 @@
       <c r="F180" t="n">
         <v>5</v>
       </c>
-      <c r="G180" s="3" t="n">
+      <c r="G180" s="2" t="n">
         <v>44966</v>
       </c>
       <c r="H180" s="2" t="n">
@@ -6502,14 +6499,14 @@
       <c r="F181" t="n">
         <v>5</v>
       </c>
-      <c r="G181" s="3" t="n">
-        <v>44966</v>
+      <c r="G181" s="2" t="n">
+        <v>44969</v>
       </c>
       <c r="H181" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I181" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="182">
@@ -6535,14 +6532,14 @@
       <c r="F182" t="n">
         <v>5</v>
       </c>
-      <c r="G182" s="3" t="n">
-        <v>44966</v>
+      <c r="G182" s="2" t="n">
+        <v>44969</v>
       </c>
       <c r="H182" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I182" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="183">
@@ -6568,14 +6565,14 @@
       <c r="F183" t="n">
         <v>5</v>
       </c>
-      <c r="G183" s="3" t="n">
-        <v>44966</v>
+      <c r="G183" s="2" t="n">
+        <v>44967</v>
       </c>
       <c r="H183" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I183" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="184">
@@ -6601,14 +6598,14 @@
       <c r="F184" t="n">
         <v>5</v>
       </c>
-      <c r="G184" s="3" t="n">
-        <v>44966</v>
+      <c r="G184" s="2" t="n">
+        <v>44969</v>
       </c>
       <c r="H184" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I184" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="185">
@@ -6634,14 +6631,14 @@
       <c r="F185" t="n">
         <v>5</v>
       </c>
-      <c r="G185" s="3" t="n">
-        <v>44966</v>
+      <c r="G185" s="2" t="n">
+        <v>44967</v>
       </c>
       <c r="H185" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I185" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="186">
@@ -6667,14 +6664,14 @@
       <c r="F186" t="n">
         <v>5</v>
       </c>
-      <c r="G186" s="3" t="n">
-        <v>44966</v>
+      <c r="G186" s="2" t="n">
+        <v>44969</v>
       </c>
       <c r="H186" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I186" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="187">
@@ -6700,14 +6697,14 @@
       <c r="F187" t="n">
         <v>5</v>
       </c>
-      <c r="G187" s="3" t="n">
-        <v>44966</v>
+      <c r="G187" s="2" t="n">
+        <v>44969</v>
       </c>
       <c r="H187" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I187" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="188">
@@ -6733,7 +6730,7 @@
       <c r="F188" t="n">
         <v>5</v>
       </c>
-      <c r="G188" s="3" t="n">
+      <c r="G188" s="2" t="n">
         <v>44966</v>
       </c>
       <c r="H188" s="2" t="n">
@@ -6766,14 +6763,14 @@
       <c r="F189" t="n">
         <v>5</v>
       </c>
-      <c r="G189" s="3" t="n">
-        <v>44966</v>
+      <c r="G189" s="2" t="n">
+        <v>44969</v>
       </c>
       <c r="H189" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I189" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="190">
@@ -6799,14 +6796,14 @@
       <c r="F190" t="n">
         <v>5</v>
       </c>
-      <c r="G190" s="3" t="n">
-        <v>44966</v>
+      <c r="G190" s="2" t="n">
+        <v>44969</v>
       </c>
       <c r="H190" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I190" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="191">
@@ -6832,14 +6829,14 @@
       <c r="F191" t="n">
         <v>5</v>
       </c>
-      <c r="G191" s="3" t="n">
-        <v>44966</v>
+      <c r="G191" s="2" t="n">
+        <v>44969</v>
       </c>
       <c r="H191" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I191" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="192">
@@ -6865,14 +6862,14 @@
       <c r="F192" t="n">
         <v>5</v>
       </c>
-      <c r="G192" s="3" t="n">
-        <v>44966</v>
+      <c r="G192" s="2" t="n">
+        <v>44968</v>
       </c>
       <c r="H192" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I192" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="193">
@@ -6898,14 +6895,14 @@
       <c r="F193" t="n">
         <v>5</v>
       </c>
-      <c r="G193" s="3" t="n">
-        <v>44966</v>
+      <c r="G193" s="2" t="n">
+        <v>44968</v>
       </c>
       <c r="H193" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I193" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="194">
@@ -6931,14 +6928,14 @@
       <c r="F194" t="n">
         <v>5</v>
       </c>
-      <c r="G194" s="3" t="n">
-        <v>44966</v>
+      <c r="G194" s="2" t="n">
+        <v>44969</v>
       </c>
       <c r="H194" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I194" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="195">
@@ -6964,14 +6961,14 @@
       <c r="F195" t="n">
         <v>5</v>
       </c>
-      <c r="G195" s="3" t="n">
-        <v>44966</v>
+      <c r="G195" s="2" t="n">
+        <v>44968</v>
       </c>
       <c r="H195" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I195" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="196">
@@ -6997,14 +6994,14 @@
       <c r="F196" t="n">
         <v>5</v>
       </c>
-      <c r="G196" s="3" t="n">
-        <v>44966</v>
+      <c r="G196" s="2" t="n">
+        <v>44968</v>
       </c>
       <c r="H196" s="2" t="n">
         <v>44954</v>
       </c>
       <c r="I196" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="197">
@@ -7030,14 +7027,14 @@
       <c r="F197" t="n">
         <v>5</v>
       </c>
-      <c r="G197" s="3" t="n">
-        <v>44966</v>
+      <c r="G197" s="2" t="n">
+        <v>44969</v>
       </c>
       <c r="H197" s="2" t="n">
         <v>44956</v>
       </c>
       <c r="I197" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="198">
@@ -7063,14 +7060,14 @@
       <c r="F198" t="n">
         <v>5</v>
       </c>
-      <c r="G198" s="3" t="n">
-        <v>44966</v>
+      <c r="G198" s="2" t="n">
+        <v>44968</v>
       </c>
       <c r="H198" s="2" t="n">
         <v>44954</v>
       </c>
       <c r="I198" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="199">
@@ -7096,14 +7093,14 @@
       <c r="F199" t="n">
         <v>5</v>
       </c>
-      <c r="G199" s="3" t="n">
-        <v>44966</v>
+      <c r="G199" s="2" t="n">
+        <v>44969</v>
       </c>
       <c r="H199" s="2" t="n">
         <v>44956</v>
       </c>
       <c r="I199" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="200">
@@ -7129,14 +7126,14 @@
       <c r="F200" t="n">
         <v>5</v>
       </c>
-      <c r="G200" s="3" t="n">
-        <v>44966</v>
+      <c r="G200" s="2" t="n">
+        <v>44969</v>
       </c>
       <c r="H200" s="2" t="n">
         <v>44958</v>
       </c>
       <c r="I200" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="201">
@@ -7162,14 +7159,14 @@
       <c r="F201" t="n">
         <v>5</v>
       </c>
-      <c r="G201" s="3" t="n">
-        <v>44966</v>
+      <c r="G201" s="2" t="n">
+        <v>44969</v>
       </c>
       <c r="H201" s="2" t="n">
         <v>44955</v>
       </c>
       <c r="I201" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="202">
@@ -7195,14 +7192,14 @@
       <c r="F202" t="n">
         <v>5</v>
       </c>
-      <c r="G202" s="3" t="n">
-        <v>44966</v>
+      <c r="G202" s="2" t="n">
+        <v>44969</v>
       </c>
       <c r="H202" s="2" t="n">
         <v>44954</v>
       </c>
       <c r="I202" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="203">
@@ -7228,14 +7225,14 @@
       <c r="F203" t="n">
         <v>5</v>
       </c>
-      <c r="G203" s="3" t="n">
-        <v>44966</v>
+      <c r="G203" s="2" t="n">
+        <v>44969</v>
       </c>
       <c r="H203" s="2" t="n">
         <v>44955</v>
       </c>
       <c r="I203" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="204">
@@ -7261,14 +7258,14 @@
       <c r="F204" t="n">
         <v>5</v>
       </c>
-      <c r="G204" s="3" t="n">
-        <v>44966</v>
+      <c r="G204" s="2" t="n">
+        <v>44969</v>
       </c>
       <c r="H204" s="2" t="n">
         <v>44957</v>
       </c>
       <c r="I204" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="205">
@@ -7294,14 +7291,14 @@
       <c r="F205" t="n">
         <v>5</v>
       </c>
-      <c r="G205" s="3" t="n">
-        <v>44966</v>
+      <c r="G205" s="2" t="n">
+        <v>44969</v>
       </c>
       <c r="H205" s="2" t="n">
         <v>44958</v>
       </c>
       <c r="I205" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="206">
@@ -7327,14 +7324,14 @@
       <c r="F206" t="n">
         <v>5</v>
       </c>
-      <c r="G206" s="3" t="n">
-        <v>44966</v>
+      <c r="G206" s="2" t="n">
+        <v>44969</v>
       </c>
       <c r="H206" s="2" t="n">
         <v>44957</v>
       </c>
       <c r="I206" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="207">
@@ -7360,14 +7357,14 @@
       <c r="F207" t="n">
         <v>5</v>
       </c>
-      <c r="G207" s="3" t="n">
-        <v>44966</v>
+      <c r="G207" s="2" t="n">
+        <v>44969</v>
       </c>
       <c r="H207" s="2" t="n">
         <v>44955</v>
       </c>
       <c r="I207" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="208">
@@ -7393,14 +7390,14 @@
       <c r="F208" t="n">
         <v>5</v>
       </c>
-      <c r="G208" s="3" t="n">
-        <v>44966</v>
+      <c r="G208" s="2" t="n">
+        <v>44969</v>
       </c>
       <c r="H208" s="2" t="n">
         <v>44955</v>
       </c>
       <c r="I208" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="209">
@@ -7426,14 +7423,14 @@
       <c r="F209" t="n">
         <v>5</v>
       </c>
-      <c r="G209" s="3" t="n">
-        <v>44966</v>
+      <c r="G209" s="2" t="n">
+        <v>44969</v>
       </c>
       <c r="H209" s="2" t="n">
         <v>44955</v>
       </c>
       <c r="I209" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="210">
@@ -7459,14 +7456,14 @@
       <c r="F210" t="n">
         <v>5</v>
       </c>
-      <c r="G210" s="3" t="n">
-        <v>44966</v>
+      <c r="G210" s="2" t="n">
+        <v>44969</v>
       </c>
       <c r="H210" s="2" t="n">
         <v>44956</v>
       </c>
       <c r="I210" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="211">
@@ -7492,14 +7489,14 @@
       <c r="F211" t="n">
         <v>5</v>
       </c>
-      <c r="G211" s="3" t="n">
-        <v>44966</v>
+      <c r="G211" s="2" t="n">
+        <v>44969</v>
       </c>
       <c r="H211" s="2" t="n">
         <v>44955</v>
       </c>
       <c r="I211" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="212">
@@ -7525,14 +7522,14 @@
       <c r="F212" t="n">
         <v>5</v>
       </c>
-      <c r="G212" s="3" t="n">
-        <v>44966</v>
+      <c r="G212" s="2" t="n">
+        <v>44969</v>
       </c>
       <c r="H212" s="2" t="n">
         <v>44957</v>
       </c>
       <c r="I212" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="213">
@@ -7558,14 +7555,14 @@
       <c r="F213" t="n">
         <v>5</v>
       </c>
-      <c r="G213" s="3" t="n">
-        <v>44966</v>
+      <c r="G213" s="2" t="n">
+        <v>44969</v>
       </c>
       <c r="H213" s="2" t="n">
         <v>44958</v>
       </c>
       <c r="I213" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="214">
@@ -7591,14 +7588,14 @@
       <c r="F214" t="n">
         <v>5</v>
       </c>
-      <c r="G214" s="3" t="n">
-        <v>44966</v>
+      <c r="G214" s="2" t="n">
+        <v>44967</v>
       </c>
       <c r="H214" s="2" t="n">
         <v>44962</v>
       </c>
       <c r="I214" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="215">
@@ -7624,14 +7621,14 @@
       <c r="F215" t="n">
         <v>5</v>
       </c>
-      <c r="G215" s="3" t="n">
-        <v>44966</v>
+      <c r="G215" s="2" t="n">
+        <v>44969</v>
       </c>
       <c r="H215" s="2" t="n">
         <v>44954</v>
       </c>
       <c r="I215" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="216">
@@ -7657,14 +7654,14 @@
       <c r="F216" t="n">
         <v>5</v>
       </c>
-      <c r="G216" s="3" t="n">
-        <v>44966</v>
+      <c r="G216" s="2" t="n">
+        <v>44969</v>
       </c>
       <c r="H216" s="2" t="n">
         <v>44955</v>
       </c>
       <c r="I216" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="217">
@@ -7690,14 +7687,14 @@
       <c r="F217" t="n">
         <v>5</v>
       </c>
-      <c r="G217" s="3" t="n">
-        <v>44966</v>
+      <c r="G217" s="2" t="n">
+        <v>44969</v>
       </c>
       <c r="H217" s="2" t="n">
         <v>44955</v>
       </c>
       <c r="I217" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="218">
@@ -7723,14 +7720,14 @@
       <c r="F218" t="n">
         <v>5</v>
       </c>
-      <c r="G218" s="3" t="n">
-        <v>44966</v>
+      <c r="G218" s="2" t="n">
+        <v>44969</v>
       </c>
       <c r="H218" s="2" t="n">
         <v>44956</v>
       </c>
       <c r="I218" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="219">
@@ -7756,14 +7753,14 @@
       <c r="F219" t="n">
         <v>5</v>
       </c>
-      <c r="G219" s="3" t="n">
-        <v>44966</v>
+      <c r="G219" s="2" t="n">
+        <v>44968</v>
       </c>
       <c r="H219" s="2" t="n">
         <v>44955</v>
       </c>
       <c r="I219" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="220">
@@ -7789,14 +7786,14 @@
       <c r="F220" t="n">
         <v>5</v>
       </c>
-      <c r="G220" s="3" t="n">
-        <v>44966</v>
+      <c r="G220" s="2" t="n">
+        <v>44969</v>
       </c>
       <c r="H220" s="2" t="n">
         <v>44956</v>
       </c>
       <c r="I220" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="221">
@@ -7822,14 +7819,14 @@
       <c r="F221" t="n">
         <v>5</v>
       </c>
-      <c r="G221" s="3" t="n">
-        <v>44966</v>
+      <c r="G221" s="2" t="n">
+        <v>44969</v>
       </c>
       <c r="H221" s="2" t="n">
         <v>44959</v>
       </c>
       <c r="I221" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="222">
@@ -7855,14 +7852,14 @@
       <c r="F222" t="n">
         <v>5</v>
       </c>
-      <c r="G222" s="3" t="n">
-        <v>44966</v>
+      <c r="G222" s="2" t="n">
+        <v>44969</v>
       </c>
       <c r="H222" s="2" t="n">
         <v>44958</v>
       </c>
       <c r="I222" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="223">
@@ -7888,7 +7885,7 @@
       <c r="F223" t="n">
         <v>5</v>
       </c>
-      <c r="G223" s="3" t="n">
+      <c r="G223" s="2" t="n">
         <v>44966</v>
       </c>
       <c r="H223" s="2" t="n">
@@ -7921,14 +7918,14 @@
       <c r="F224" t="n">
         <v>5</v>
       </c>
-      <c r="G224" s="3" t="n">
-        <v>44966</v>
+      <c r="G224" s="2" t="n">
+        <v>44969</v>
       </c>
       <c r="H224" s="2" t="n">
         <v>44961</v>
       </c>
       <c r="I224" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="225">
@@ -7954,14 +7951,14 @@
       <c r="F225" t="n">
         <v>5</v>
       </c>
-      <c r="G225" s="3" t="n">
-        <v>44966</v>
+      <c r="G225" s="2" t="n">
+        <v>44969</v>
       </c>
       <c r="H225" s="2" t="n">
         <v>44962</v>
       </c>
       <c r="I225" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="226">
@@ -7987,14 +7984,14 @@
       <c r="F226" t="n">
         <v>5</v>
       </c>
-      <c r="G226" s="3" t="n">
-        <v>44966</v>
+      <c r="G226" s="2" t="n">
+        <v>44969</v>
       </c>
       <c r="H226" s="2" t="n">
         <v>44961</v>
       </c>
       <c r="I226" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="227">
@@ -8018,16 +8015,16 @@
         </is>
       </c>
       <c r="F227" t="n">
-        <v>4</v>
-      </c>
-      <c r="G227" s="3" t="n">
-        <v>44966</v>
+        <v>5</v>
+      </c>
+      <c r="G227" s="2" t="n">
+        <v>44969</v>
       </c>
       <c r="H227" s="2" t="n">
-        <v>117642</v>
+        <v>44967</v>
       </c>
       <c r="I227" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="228">
@@ -8053,14 +8050,14 @@
       <c r="F228" t="n">
         <v>5</v>
       </c>
-      <c r="G228" s="3" t="n">
-        <v>44966</v>
+      <c r="G228" s="2" t="n">
+        <v>44969</v>
       </c>
       <c r="H228" s="2" t="n">
         <v>44961</v>
       </c>
       <c r="I228" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="229">
@@ -8086,14 +8083,14 @@
       <c r="F229" t="n">
         <v>5</v>
       </c>
-      <c r="G229" s="3" t="n">
-        <v>44966</v>
+      <c r="G229" s="2" t="n">
+        <v>44969</v>
       </c>
       <c r="H229" s="2" t="n">
         <v>44963</v>
       </c>
       <c r="I229" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="230">
@@ -8119,14 +8116,14 @@
       <c r="F230" t="n">
         <v>5</v>
       </c>
-      <c r="G230" s="3" t="n">
-        <v>44966</v>
+      <c r="G230" s="2" t="n">
+        <v>44969</v>
       </c>
       <c r="H230" s="2" t="n">
         <v>44961</v>
       </c>
       <c r="I230" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="231">
@@ -8152,14 +8149,14 @@
       <c r="F231" t="n">
         <v>5</v>
       </c>
-      <c r="G231" s="3" t="n">
-        <v>44966</v>
+      <c r="G231" s="2" t="n">
+        <v>44968</v>
       </c>
       <c r="H231" s="2" t="n">
         <v>44965</v>
       </c>
       <c r="I231" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="232">
@@ -8185,14 +8182,14 @@
       <c r="F232" t="n">
         <v>5</v>
       </c>
-      <c r="G232" s="3" t="n">
-        <v>44966</v>
+      <c r="G232" s="2" t="n">
+        <v>44969</v>
       </c>
       <c r="H232" s="2" t="n">
         <v>44962</v>
       </c>
       <c r="I232" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="233">
@@ -8216,16 +8213,16 @@
         </is>
       </c>
       <c r="F233" t="n">
+        <v>5</v>
+      </c>
+      <c r="G233" s="2" t="n">
+        <v>44969</v>
+      </c>
+      <c r="H233" s="2" t="n">
+        <v>44968</v>
+      </c>
+      <c r="I233" t="n">
         <v>3</v>
-      </c>
-      <c r="G233" s="3" t="n">
-        <v>44966</v>
-      </c>
-      <c r="H233" s="2" t="n">
-        <v>117642</v>
-      </c>
-      <c r="I233" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="234">
@@ -8249,16 +8246,16 @@
         </is>
       </c>
       <c r="F234" t="n">
-        <v>4</v>
-      </c>
-      <c r="G234" s="3" t="n">
-        <v>44966</v>
+        <v>5</v>
+      </c>
+      <c r="G234" s="2" t="n">
+        <v>44969</v>
       </c>
       <c r="H234" s="2" t="n">
-        <v>44962</v>
+        <v>44967</v>
       </c>
       <c r="I234" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="235">
@@ -8284,14 +8281,14 @@
       <c r="F235" t="n">
         <v>5</v>
       </c>
-      <c r="G235" s="3" t="n">
-        <v>44966</v>
+      <c r="G235" s="2" t="n">
+        <v>44969</v>
       </c>
       <c r="H235" s="2" t="n">
         <v>44963</v>
       </c>
       <c r="I235" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="236">
@@ -8317,14 +8314,14 @@
       <c r="F236" t="n">
         <v>5</v>
       </c>
-      <c r="G236" s="3" t="n">
-        <v>44966</v>
+      <c r="G236" s="2" t="n">
+        <v>44969</v>
       </c>
       <c r="H236" s="2" t="n">
         <v>44962</v>
       </c>
       <c r="I236" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="237">
@@ -8348,10 +8345,10 @@
         </is>
       </c>
       <c r="F237" t="n">
-        <v>1</v>
-      </c>
-      <c r="G237" s="3" t="n">
-        <v>44966</v>
+        <v>0</v>
+      </c>
+      <c r="G237" s="2" t="n">
+        <v>44969</v>
       </c>
       <c r="H237" s="2" t="n">
         <v>117642</v>
@@ -8383,14 +8380,14 @@
       <c r="F238" t="n">
         <v>5</v>
       </c>
-      <c r="G238" s="3" t="n">
-        <v>44966</v>
+      <c r="G238" s="2" t="n">
+        <v>44969</v>
       </c>
       <c r="H238" s="2" t="n">
         <v>44962</v>
       </c>
       <c r="I238" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="239">
@@ -8416,14 +8413,14 @@
       <c r="F239" t="n">
         <v>5</v>
       </c>
-      <c r="G239" s="3" t="n">
-        <v>44966</v>
+      <c r="G239" s="2" t="n">
+        <v>44969</v>
       </c>
       <c r="H239" s="2" t="n">
         <v>44961</v>
       </c>
       <c r="I239" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="240">
@@ -8449,14 +8446,14 @@
       <c r="F240" t="n">
         <v>5</v>
       </c>
-      <c r="G240" s="3" t="n">
-        <v>44966</v>
+      <c r="G240" s="2" t="n">
+        <v>44969</v>
       </c>
       <c r="H240" s="2" t="n">
         <v>44964</v>
       </c>
       <c r="I240" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="241">
@@ -8482,14 +8479,14 @@
       <c r="F241" t="n">
         <v>5</v>
       </c>
-      <c r="G241" s="3" t="n">
-        <v>44966</v>
+      <c r="G241" s="2" t="n">
+        <v>44969</v>
       </c>
       <c r="H241" s="2" t="n">
         <v>44963</v>
       </c>
       <c r="I241" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="242">
@@ -8515,7 +8512,7 @@
       <c r="F242" t="n">
         <v>5</v>
       </c>
-      <c r="G242" s="3" t="n">
+      <c r="G242" s="2" t="n">
         <v>44966</v>
       </c>
       <c r="H242" s="2" t="n">
@@ -8548,14 +8545,14 @@
       <c r="F243" t="n">
         <v>5</v>
       </c>
-      <c r="G243" s="3" t="n">
-        <v>44966</v>
+      <c r="G243" s="2" t="n">
+        <v>44969</v>
       </c>
       <c r="H243" s="2" t="n">
         <v>44961</v>
       </c>
       <c r="I243" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="244">
@@ -8581,14 +8578,14 @@
       <c r="F244" t="n">
         <v>5</v>
       </c>
-      <c r="G244" s="3" t="n">
-        <v>44966</v>
+      <c r="G244" s="2" t="n">
+        <v>44969</v>
       </c>
       <c r="H244" s="2" t="n">
         <v>44961</v>
       </c>
       <c r="I244" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="245">
@@ -8612,16 +8609,16 @@
         </is>
       </c>
       <c r="F245" t="n">
-        <v>2</v>
-      </c>
-      <c r="G245" s="3" t="n">
-        <v>44966</v>
+        <v>5</v>
+      </c>
+      <c r="G245" s="2" t="n">
+        <v>44969</v>
       </c>
       <c r="H245" s="2" t="n">
-        <v>117642</v>
+        <v>44969</v>
       </c>
       <c r="I245" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="246">
@@ -8647,14 +8644,14 @@
       <c r="F246" t="n">
         <v>5</v>
       </c>
-      <c r="G246" s="3" t="n">
-        <v>44966</v>
+      <c r="G246" s="2" t="n">
+        <v>44969</v>
       </c>
       <c r="H246" s="2" t="n">
         <v>44963</v>
       </c>
       <c r="I246" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="247">
@@ -8678,16 +8675,16 @@
         </is>
       </c>
       <c r="F247" t="n">
-        <v>4</v>
-      </c>
-      <c r="G247" s="3" t="n">
-        <v>44966</v>
+        <v>5</v>
+      </c>
+      <c r="G247" s="2" t="n">
+        <v>44969</v>
       </c>
       <c r="H247" s="2" t="n">
-        <v>117642</v>
+        <v>44967</v>
       </c>
       <c r="I247" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="248">
@@ -8711,16 +8708,16 @@
         </is>
       </c>
       <c r="F248" t="n">
-        <v>3</v>
-      </c>
-      <c r="G248" s="3" t="n">
-        <v>44966</v>
+        <v>5</v>
+      </c>
+      <c r="G248" s="2" t="n">
+        <v>44969</v>
       </c>
       <c r="H248" s="2" t="n">
-        <v>117642</v>
+        <v>44968</v>
       </c>
       <c r="I248" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="249">
@@ -8744,16 +8741,16 @@
         </is>
       </c>
       <c r="F249" t="n">
-        <v>4</v>
-      </c>
-      <c r="G249" s="3" t="n">
-        <v>44966</v>
+        <v>5</v>
+      </c>
+      <c r="G249" s="2" t="n">
+        <v>44969</v>
       </c>
       <c r="H249" s="2" t="n">
-        <v>117642</v>
+        <v>44967</v>
       </c>
       <c r="I249" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="250">
@@ -8777,16 +8774,16 @@
         </is>
       </c>
       <c r="F250" t="n">
-        <v>3</v>
-      </c>
-      <c r="G250" s="3" t="n">
-        <v>44966</v>
+        <v>5</v>
+      </c>
+      <c r="G250" s="2" t="n">
+        <v>44969</v>
       </c>
       <c r="H250" s="2" t="n">
-        <v>117642</v>
+        <v>44968</v>
       </c>
       <c r="I250" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="251">
@@ -8810,16 +8807,16 @@
         </is>
       </c>
       <c r="F251" t="n">
-        <v>3</v>
-      </c>
-      <c r="G251" s="3" t="n">
-        <v>44966</v>
+        <v>5</v>
+      </c>
+      <c r="G251" s="2" t="n">
+        <v>44969</v>
       </c>
       <c r="H251" s="2" t="n">
-        <v>117642</v>
+        <v>44968</v>
       </c>
       <c r="I251" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="252">
@@ -8843,16 +8840,16 @@
         </is>
       </c>
       <c r="F252" t="n">
-        <v>4</v>
-      </c>
-      <c r="G252" s="3" t="n">
-        <v>44966</v>
+        <v>5</v>
+      </c>
+      <c r="G252" s="2" t="n">
+        <v>44969</v>
       </c>
       <c r="H252" s="2" t="n">
-        <v>117642</v>
+        <v>44967</v>
       </c>
       <c r="I252" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="253">
@@ -8876,16 +8873,16 @@
         </is>
       </c>
       <c r="F253" t="n">
-        <v>3</v>
-      </c>
-      <c r="G253" s="3" t="n">
-        <v>44966</v>
+        <v>5</v>
+      </c>
+      <c r="G253" s="2" t="n">
+        <v>44969</v>
       </c>
       <c r="H253" s="2" t="n">
-        <v>117642</v>
+        <v>44968</v>
       </c>
       <c r="I253" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="254">
@@ -8909,16 +8906,16 @@
         </is>
       </c>
       <c r="F254" t="n">
-        <v>2</v>
-      </c>
-      <c r="G254" s="3" t="n">
-        <v>44966</v>
+        <v>5</v>
+      </c>
+      <c r="G254" s="2" t="n">
+        <v>44969</v>
       </c>
       <c r="H254" s="2" t="n">
-        <v>117642</v>
+        <v>44969</v>
       </c>
       <c r="I254" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="255">
@@ -8942,16 +8939,16 @@
         </is>
       </c>
       <c r="F255" t="n">
-        <v>4</v>
-      </c>
-      <c r="G255" s="3" t="n">
-        <v>44966</v>
+        <v>5</v>
+      </c>
+      <c r="G255" s="2" t="n">
+        <v>44969</v>
       </c>
       <c r="H255" s="2" t="n">
-        <v>117642</v>
+        <v>44967</v>
       </c>
       <c r="I255" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="256">
@@ -8975,16 +8972,16 @@
         </is>
       </c>
       <c r="F256" t="n">
-        <v>4</v>
-      </c>
-      <c r="G256" s="3" t="n">
-        <v>44966</v>
+        <v>5</v>
+      </c>
+      <c r="G256" s="2" t="n">
+        <v>44969</v>
       </c>
       <c r="H256" s="2" t="n">
-        <v>117642</v>
+        <v>44967</v>
       </c>
       <c r="I256" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="257">
@@ -9008,16 +9005,16 @@
         </is>
       </c>
       <c r="F257" t="n">
-        <v>4</v>
-      </c>
-      <c r="G257" s="3" t="n">
-        <v>44966</v>
+        <v>5</v>
+      </c>
+      <c r="G257" s="2" t="n">
+        <v>44969</v>
       </c>
       <c r="H257" s="2" t="n">
-        <v>117642</v>
+        <v>44967</v>
       </c>
       <c r="I257" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="258">
@@ -9041,16 +9038,16 @@
         </is>
       </c>
       <c r="F258" t="n">
-        <v>3</v>
-      </c>
-      <c r="G258" s="3" t="n">
-        <v>44966</v>
+        <v>5</v>
+      </c>
+      <c r="G258" s="2" t="n">
+        <v>44969</v>
       </c>
       <c r="H258" s="2" t="n">
-        <v>117642</v>
+        <v>44968</v>
       </c>
       <c r="I258" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="259">
@@ -9074,16 +9071,16 @@
         </is>
       </c>
       <c r="F259" t="n">
-        <v>4</v>
-      </c>
-      <c r="G259" s="3" t="n">
-        <v>44966</v>
+        <v>5</v>
+      </c>
+      <c r="G259" s="2" t="n">
+        <v>44969</v>
       </c>
       <c r="H259" s="2" t="n">
-        <v>117642</v>
+        <v>44967</v>
       </c>
       <c r="I259" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="260">
@@ -9107,16 +9104,16 @@
         </is>
       </c>
       <c r="F260" t="n">
-        <v>2</v>
-      </c>
-      <c r="G260" s="3" t="n">
-        <v>44966</v>
+        <v>5</v>
+      </c>
+      <c r="G260" s="2" t="n">
+        <v>44969</v>
       </c>
       <c r="H260" s="2" t="n">
-        <v>117642</v>
+        <v>44969</v>
       </c>
       <c r="I260" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="261">
@@ -9140,16 +9137,16 @@
         </is>
       </c>
       <c r="F261" t="n">
+        <v>5</v>
+      </c>
+      <c r="G261" s="2" t="n">
+        <v>44969</v>
+      </c>
+      <c r="H261" s="2" t="n">
+        <v>44968</v>
+      </c>
+      <c r="I261" t="n">
         <v>3</v>
-      </c>
-      <c r="G261" s="3" t="n">
-        <v>44966</v>
-      </c>
-      <c r="H261" s="2" t="n">
-        <v>117642</v>
-      </c>
-      <c r="I261" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="262">
@@ -9173,16 +9170,16 @@
         </is>
       </c>
       <c r="F262" t="n">
-        <v>3</v>
-      </c>
-      <c r="G262" s="3" t="n">
-        <v>44966</v>
+        <v>5</v>
+      </c>
+      <c r="G262" s="2" t="n">
+        <v>44969</v>
       </c>
       <c r="H262" s="2" t="n">
-        <v>117642</v>
+        <v>44968</v>
       </c>
       <c r="I262" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="263">
@@ -9206,16 +9203,16 @@
         </is>
       </c>
       <c r="F263" t="n">
-        <v>3</v>
-      </c>
-      <c r="G263" s="3" t="n">
-        <v>44966</v>
+        <v>5</v>
+      </c>
+      <c r="G263" s="2" t="n">
+        <v>44969</v>
       </c>
       <c r="H263" s="2" t="n">
-        <v>117642</v>
+        <v>44968</v>
       </c>
       <c r="I263" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="264">
@@ -9239,16 +9236,16 @@
         </is>
       </c>
       <c r="F264" t="n">
-        <v>3</v>
-      </c>
-      <c r="G264" s="3" t="n">
-        <v>44966</v>
+        <v>5</v>
+      </c>
+      <c r="G264" s="2" t="n">
+        <v>44969</v>
       </c>
       <c r="H264" s="2" t="n">
-        <v>117642</v>
+        <v>44968</v>
       </c>
       <c r="I264" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="265">
@@ -9272,16 +9269,16 @@
         </is>
       </c>
       <c r="F265" t="n">
-        <v>4</v>
-      </c>
-      <c r="G265" s="3" t="n">
-        <v>44966</v>
+        <v>5</v>
+      </c>
+      <c r="G265" s="2" t="n">
+        <v>44969</v>
       </c>
       <c r="H265" s="2" t="n">
-        <v>117642</v>
+        <v>44967</v>
       </c>
       <c r="I265" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="266">
@@ -9305,16 +9302,16 @@
         </is>
       </c>
       <c r="F266" t="n">
-        <v>4</v>
-      </c>
-      <c r="G266" s="3" t="n">
-        <v>44966</v>
+        <v>5</v>
+      </c>
+      <c r="G266" s="2" t="n">
+        <v>44969</v>
       </c>
       <c r="H266" s="2" t="n">
-        <v>117642</v>
+        <v>44967</v>
       </c>
       <c r="I266" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="267">
@@ -9338,16 +9335,16 @@
         </is>
       </c>
       <c r="F267" t="n">
-        <v>2</v>
-      </c>
-      <c r="G267" s="3" t="n">
-        <v>44966</v>
+        <v>5</v>
+      </c>
+      <c r="G267" s="2" t="n">
+        <v>44969</v>
       </c>
       <c r="H267" s="2" t="n">
-        <v>117642</v>
+        <v>44969</v>
       </c>
       <c r="I267" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="268">
@@ -9371,16 +9368,16 @@
         </is>
       </c>
       <c r="F268" t="n">
-        <v>4</v>
-      </c>
-      <c r="G268" s="3" t="n">
-        <v>44966</v>
+        <v>5</v>
+      </c>
+      <c r="G268" s="2" t="n">
+        <v>44969</v>
       </c>
       <c r="H268" s="2" t="n">
-        <v>117642</v>
+        <v>44967</v>
       </c>
       <c r="I268" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="269">
@@ -9404,16 +9401,16 @@
         </is>
       </c>
       <c r="F269" t="n">
-        <v>2</v>
-      </c>
-      <c r="G269" s="3" t="n">
-        <v>44966</v>
+        <v>5</v>
+      </c>
+      <c r="G269" s="2" t="n">
+        <v>44969</v>
       </c>
       <c r="H269" s="2" t="n">
-        <v>117642</v>
+        <v>44969</v>
       </c>
       <c r="I269" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="270">
@@ -9437,16 +9434,16 @@
         </is>
       </c>
       <c r="F270" t="n">
-        <v>2</v>
-      </c>
-      <c r="G270" s="3" t="n">
-        <v>44966</v>
+        <v>5</v>
+      </c>
+      <c r="G270" s="2" t="n">
+        <v>44969</v>
       </c>
       <c r="H270" s="2" t="n">
-        <v>117642</v>
+        <v>44969</v>
       </c>
       <c r="I270" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="271">
@@ -9470,16 +9467,16 @@
         </is>
       </c>
       <c r="F271" t="n">
-        <v>2</v>
-      </c>
-      <c r="G271" s="3" t="n">
-        <v>44966</v>
+        <v>5</v>
+      </c>
+      <c r="G271" s="2" t="n">
+        <v>44969</v>
       </c>
       <c r="H271" s="2" t="n">
-        <v>117642</v>
+        <v>44969</v>
       </c>
       <c r="I271" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="272">
@@ -9503,16 +9500,16 @@
         </is>
       </c>
       <c r="F272" t="n">
+        <v>5</v>
+      </c>
+      <c r="G272" s="2" t="n">
+        <v>44969</v>
+      </c>
+      <c r="H272" s="2" t="n">
+        <v>44968</v>
+      </c>
+      <c r="I272" t="n">
         <v>3</v>
-      </c>
-      <c r="G272" s="3" t="n">
-        <v>44966</v>
-      </c>
-      <c r="H272" s="2" t="n">
-        <v>117642</v>
-      </c>
-      <c r="I272" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="273">
@@ -9536,16 +9533,16 @@
         </is>
       </c>
       <c r="F273" t="n">
-        <v>3</v>
-      </c>
-      <c r="G273" s="3" t="n">
-        <v>44966</v>
+        <v>5</v>
+      </c>
+      <c r="G273" s="2" t="n">
+        <v>44969</v>
       </c>
       <c r="H273" s="2" t="n">
-        <v>117642</v>
+        <v>44968</v>
       </c>
       <c r="I273" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="274">
@@ -9569,10 +9566,10 @@
         </is>
       </c>
       <c r="F274" t="n">
-        <v>1</v>
-      </c>
-      <c r="G274" s="3" t="n">
-        <v>44966</v>
+        <v>3</v>
+      </c>
+      <c r="G274" s="2" t="n">
+        <v>44969</v>
       </c>
       <c r="H274" s="2" t="n">
         <v>117642</v>
@@ -9602,10 +9599,10 @@
         </is>
       </c>
       <c r="F275" t="n">
-        <v>0</v>
-      </c>
-      <c r="G275" s="3" t="n">
-        <v>44966</v>
+        <v>3</v>
+      </c>
+      <c r="G275" s="2" t="n">
+        <v>44969</v>
       </c>
       <c r="H275" s="2" t="n">
         <v>117642</v>
@@ -9635,16 +9632,16 @@
         </is>
       </c>
       <c r="F276" t="n">
-        <v>4</v>
-      </c>
-      <c r="G276" s="3" t="n">
-        <v>44966</v>
+        <v>5</v>
+      </c>
+      <c r="G276" s="2" t="n">
+        <v>44969</v>
       </c>
       <c r="H276" s="2" t="n">
-        <v>117642</v>
+        <v>44967</v>
       </c>
       <c r="I276" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="277">
@@ -9668,10 +9665,10 @@
         </is>
       </c>
       <c r="F277" t="n">
-        <v>0</v>
-      </c>
-      <c r="G277" s="3" t="n">
-        <v>44966</v>
+        <v>2</v>
+      </c>
+      <c r="G277" s="2" t="n">
+        <v>44969</v>
       </c>
       <c r="H277" s="2" t="n">
         <v>117642</v>
@@ -9701,16 +9698,16 @@
         </is>
       </c>
       <c r="F278" t="n">
-        <v>4</v>
-      </c>
-      <c r="G278" s="3" t="n">
-        <v>44966</v>
+        <v>5</v>
+      </c>
+      <c r="G278" s="2" t="n">
+        <v>44969</v>
       </c>
       <c r="H278" s="2" t="n">
-        <v>117642</v>
+        <v>44967</v>
       </c>
       <c r="I278" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="279">
@@ -9734,16 +9731,16 @@
         </is>
       </c>
       <c r="F279" t="n">
-        <v>2</v>
-      </c>
-      <c r="G279" s="3" t="n">
-        <v>44966</v>
+        <v>5</v>
+      </c>
+      <c r="G279" s="2" t="n">
+        <v>44969</v>
       </c>
       <c r="H279" s="2" t="n">
-        <v>117642</v>
+        <v>44969</v>
       </c>
       <c r="I279" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="280">
@@ -9767,16 +9764,16 @@
         </is>
       </c>
       <c r="F280" t="n">
-        <v>3</v>
-      </c>
-      <c r="G280" s="3" t="n">
-        <v>44966</v>
+        <v>5</v>
+      </c>
+      <c r="G280" s="2" t="n">
+        <v>44969</v>
       </c>
       <c r="H280" s="2" t="n">
-        <v>117642</v>
+        <v>44968</v>
       </c>
       <c r="I280" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="281">
@@ -9800,16 +9797,16 @@
         </is>
       </c>
       <c r="F281" t="n">
-        <v>3</v>
-      </c>
-      <c r="G281" s="3" t="n">
-        <v>44966</v>
+        <v>5</v>
+      </c>
+      <c r="G281" s="2" t="n">
+        <v>44969</v>
       </c>
       <c r="H281" s="2" t="n">
-        <v>117642</v>
+        <v>44968</v>
       </c>
       <c r="I281" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="282">
@@ -9833,10 +9830,10 @@
         </is>
       </c>
       <c r="F282" t="n">
-        <v>0</v>
-      </c>
-      <c r="G282" s="3" t="n">
-        <v>44966</v>
+        <v>3</v>
+      </c>
+      <c r="G282" s="2" t="n">
+        <v>44969</v>
       </c>
       <c r="H282" s="2" t="n">
         <v>117642</v>
@@ -9866,10 +9863,10 @@
         </is>
       </c>
       <c r="F283" t="n">
-        <v>1</v>
-      </c>
-      <c r="G283" s="3" t="n">
-        <v>44966</v>
+        <v>4</v>
+      </c>
+      <c r="G283" s="2" t="n">
+        <v>44969</v>
       </c>
       <c r="H283" s="2" t="n">
         <v>117642</v>
@@ -9899,10 +9896,10 @@
         </is>
       </c>
       <c r="F284" t="n">
-        <v>0</v>
-      </c>
-      <c r="G284" s="3" t="n">
-        <v>44966</v>
+        <v>3</v>
+      </c>
+      <c r="G284" s="2" t="n">
+        <v>44969</v>
       </c>
       <c r="H284" s="2" t="n">
         <v>117642</v>
@@ -9932,10 +9929,10 @@
         </is>
       </c>
       <c r="F285" t="n">
-        <v>1</v>
-      </c>
-      <c r="G285" s="3" t="n">
-        <v>44966</v>
+        <v>4</v>
+      </c>
+      <c r="G285" s="2" t="n">
+        <v>44969</v>
       </c>
       <c r="H285" s="2" t="n">
         <v>117642</v>
@@ -9965,10 +9962,10 @@
         </is>
       </c>
       <c r="F286" t="n">
-        <v>1</v>
-      </c>
-      <c r="G286" s="3" t="n">
-        <v>44966</v>
+        <v>4</v>
+      </c>
+      <c r="G286" s="2" t="n">
+        <v>44969</v>
       </c>
       <c r="H286" s="2" t="n">
         <v>117642</v>
@@ -9998,10 +9995,10 @@
         </is>
       </c>
       <c r="F287" t="n">
-        <v>1</v>
-      </c>
-      <c r="G287" s="3" t="n">
-        <v>44966</v>
+        <v>4</v>
+      </c>
+      <c r="G287" s="2" t="n">
+        <v>44969</v>
       </c>
       <c r="H287" s="2" t="n">
         <v>117642</v>
@@ -10031,10 +10028,10 @@
         </is>
       </c>
       <c r="F288" t="n">
-        <v>0</v>
-      </c>
-      <c r="G288" s="3" t="n">
-        <v>44966</v>
+        <v>3</v>
+      </c>
+      <c r="G288" s="2" t="n">
+        <v>44969</v>
       </c>
       <c r="H288" s="2" t="n">
         <v>117642</v>
@@ -10066,8 +10063,8 @@
       <c r="F289" t="n">
         <v>0</v>
       </c>
-      <c r="G289" s="3" t="n">
-        <v>44966</v>
+      <c r="G289" s="2" t="n">
+        <v>44969</v>
       </c>
       <c r="H289" s="2" t="n">
         <v>117642</v>
@@ -10097,10 +10094,10 @@
         </is>
       </c>
       <c r="F290" t="n">
-        <v>0</v>
-      </c>
-      <c r="G290" s="3" t="n">
-        <v>44966</v>
+        <v>3</v>
+      </c>
+      <c r="G290" s="2" t="n">
+        <v>44969</v>
       </c>
       <c r="H290" s="2" t="n">
         <v>117642</v>
@@ -10130,10 +10127,10 @@
         </is>
       </c>
       <c r="F291" t="n">
-        <v>1</v>
-      </c>
-      <c r="G291" s="3" t="n">
-        <v>44966</v>
+        <v>4</v>
+      </c>
+      <c r="G291" s="2" t="n">
+        <v>44969</v>
       </c>
       <c r="H291" s="2" t="n">
         <v>117642</v>
@@ -10163,10 +10160,10 @@
         </is>
       </c>
       <c r="F292" t="n">
-        <v>0</v>
-      </c>
-      <c r="G292" s="3" t="n">
-        <v>44966</v>
+        <v>3</v>
+      </c>
+      <c r="G292" s="2" t="n">
+        <v>44969</v>
       </c>
       <c r="H292" s="2" t="n">
         <v>117642</v>
@@ -10196,10 +10193,10 @@
         </is>
       </c>
       <c r="F293" t="n">
-        <v>1</v>
-      </c>
-      <c r="G293" s="3" t="n">
-        <v>44966</v>
+        <v>4</v>
+      </c>
+      <c r="G293" s="2" t="n">
+        <v>44969</v>
       </c>
       <c r="H293" s="2" t="n">
         <v>117642</v>
@@ -10229,10 +10226,10 @@
         </is>
       </c>
       <c r="F294" t="n">
-        <v>0</v>
-      </c>
-      <c r="G294" s="3" t="n">
-        <v>44966</v>
+        <v>3</v>
+      </c>
+      <c r="G294" s="2" t="n">
+        <v>44969</v>
       </c>
       <c r="H294" s="2" t="n">
         <v>117642</v>
@@ -10262,10 +10259,10 @@
         </is>
       </c>
       <c r="F295" t="n">
-        <v>0</v>
-      </c>
-      <c r="G295" s="3" t="n">
-        <v>44966</v>
+        <v>1</v>
+      </c>
+      <c r="G295" s="2" t="n">
+        <v>44969</v>
       </c>
       <c r="H295" s="2" t="n">
         <v>117642</v>
@@ -10295,10 +10292,10 @@
         </is>
       </c>
       <c r="F296" t="n">
-        <v>1</v>
-      </c>
-      <c r="G296" s="3" t="n">
-        <v>44966</v>
+        <v>4</v>
+      </c>
+      <c r="G296" s="2" t="n">
+        <v>44969</v>
       </c>
       <c r="H296" s="2" t="n">
         <v>117642</v>
@@ -10330,8 +10327,8 @@
       <c r="F297" t="n">
         <v>0</v>
       </c>
-      <c r="G297" s="3" t="n">
-        <v>44966</v>
+      <c r="G297" s="2" t="n">
+        <v>44969</v>
       </c>
       <c r="H297" s="2" t="n">
         <v>117642</v>
@@ -10363,8 +10360,8 @@
       <c r="F298" t="n">
         <v>0</v>
       </c>
-      <c r="G298" s="3" t="n">
-        <v>44966</v>
+      <c r="G298" s="2" t="n">
+        <v>44969</v>
       </c>
       <c r="H298" s="2" t="n">
         <v>117642</v>
@@ -10394,10 +10391,10 @@
         </is>
       </c>
       <c r="F299" t="n">
-        <v>0</v>
-      </c>
-      <c r="G299" s="3" t="n">
-        <v>44966</v>
+        <v>1</v>
+      </c>
+      <c r="G299" s="2" t="n">
+        <v>44969</v>
       </c>
       <c r="H299" s="2" t="n">
         <v>117642</v>
@@ -10427,10 +10424,10 @@
         </is>
       </c>
       <c r="F300" t="n">
-        <v>0</v>
-      </c>
-      <c r="G300" s="3" t="n">
-        <v>44966</v>
+        <v>1</v>
+      </c>
+      <c r="G300" s="2" t="n">
+        <v>44969</v>
       </c>
       <c r="H300" s="2" t="n">
         <v>117642</v>
@@ -10460,10 +10457,10 @@
         </is>
       </c>
       <c r="F301" t="n">
-        <v>0</v>
-      </c>
-      <c r="G301" s="3" t="n">
-        <v>44966</v>
+        <v>1</v>
+      </c>
+      <c r="G301" s="2" t="n">
+        <v>44969</v>
       </c>
       <c r="H301" s="2" t="n">
         <v>117642</v>
@@ -10493,10 +10490,10 @@
         </is>
       </c>
       <c r="F302" t="n">
-        <v>0</v>
-      </c>
-      <c r="G302" s="3" t="n">
-        <v>44966</v>
+        <v>3</v>
+      </c>
+      <c r="G302" s="2" t="n">
+        <v>44969</v>
       </c>
       <c r="H302" s="2" t="n">
         <v>117642</v>
@@ -10526,10 +10523,10 @@
         </is>
       </c>
       <c r="F303" t="n">
-        <v>0</v>
-      </c>
-      <c r="G303" s="3" t="n">
-        <v>44966</v>
+        <v>1</v>
+      </c>
+      <c r="G303" s="2" t="n">
+        <v>44969</v>
       </c>
       <c r="H303" s="2" t="n">
         <v>117642</v>
@@ -10559,10 +10556,10 @@
         </is>
       </c>
       <c r="F304" t="n">
-        <v>1</v>
-      </c>
-      <c r="G304" s="3" t="n">
-        <v>44966</v>
+        <v>3</v>
+      </c>
+      <c r="G304" s="2" t="n">
+        <v>44969</v>
       </c>
       <c r="H304" s="2" t="n">
         <v>117642</v>
@@ -10592,10 +10589,10 @@
         </is>
       </c>
       <c r="F305" t="n">
-        <v>1</v>
-      </c>
-      <c r="G305" s="3" t="n">
-        <v>44966</v>
+        <v>3</v>
+      </c>
+      <c r="G305" s="2" t="n">
+        <v>44969</v>
       </c>
       <c r="H305" s="2" t="n">
         <v>117642</v>

--- a/capture.xlsx
+++ b/capture.xlsx
@@ -510,13 +510,13 @@
         <v>5</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>44954</v>
+        <v>45435</v>
       </c>
       <c r="H2" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -545,13 +545,13 @@
         <v>5</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>44954</v>
+        <v>45435</v>
       </c>
       <c r="H3" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -580,13 +580,13 @@
         <v>5</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>44954</v>
+        <v>45435</v>
       </c>
       <c r="H4" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -615,13 +615,13 @@
         <v>5</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>44954</v>
+        <v>45435</v>
       </c>
       <c r="H5" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -650,13 +650,13 @@
         <v>5</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>44954</v>
+        <v>45435</v>
       </c>
       <c r="H6" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I6" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -685,13 +685,13 @@
         <v>5</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>44954</v>
+        <v>45435</v>
       </c>
       <c r="H7" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I7" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8">
@@ -720,13 +720,13 @@
         <v>5</v>
       </c>
       <c r="G8" s="2" t="n">
-        <v>44954</v>
+        <v>45435</v>
       </c>
       <c r="H8" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I8" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9">
@@ -755,13 +755,13 @@
         <v>5</v>
       </c>
       <c r="G9" s="2" t="n">
-        <v>44954</v>
+        <v>45435</v>
       </c>
       <c r="H9" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -790,13 +790,13 @@
         <v>5</v>
       </c>
       <c r="G10" s="2" t="n">
-        <v>44954</v>
+        <v>45435</v>
       </c>
       <c r="H10" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I10" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -825,13 +825,13 @@
         <v>5</v>
       </c>
       <c r="G11" s="2" t="n">
-        <v>44954</v>
+        <v>45435</v>
       </c>
       <c r="H11" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -860,13 +860,13 @@
         <v>5</v>
       </c>
       <c r="G12" s="2" t="n">
-        <v>44954</v>
+        <v>45435</v>
       </c>
       <c r="H12" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I12" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
@@ -895,13 +895,13 @@
         <v>5</v>
       </c>
       <c r="G13" s="2" t="n">
-        <v>44954</v>
+        <v>45435</v>
       </c>
       <c r="H13" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I13" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -930,13 +930,13 @@
         <v>5</v>
       </c>
       <c r="G14" s="2" t="n">
-        <v>44954</v>
+        <v>45435</v>
       </c>
       <c r="H14" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I14" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15">
@@ -965,13 +965,13 @@
         <v>5</v>
       </c>
       <c r="G15" s="2" t="n">
-        <v>44954</v>
+        <v>45435</v>
       </c>
       <c r="H15" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I15" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16">
@@ -1000,13 +1000,13 @@
         <v>5</v>
       </c>
       <c r="G16" s="2" t="n">
-        <v>44954</v>
+        <v>45435</v>
       </c>
       <c r="H16" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1035,13 +1035,13 @@
         <v>5</v>
       </c>
       <c r="G17" s="2" t="n">
-        <v>44954</v>
+        <v>45435</v>
       </c>
       <c r="H17" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I17" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18">
@@ -1070,13 +1070,13 @@
         <v>5</v>
       </c>
       <c r="G18" s="2" t="n">
-        <v>44954</v>
+        <v>45435</v>
       </c>
       <c r="H18" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I18" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="19">
@@ -1105,13 +1105,13 @@
         <v>5</v>
       </c>
       <c r="G19" s="2" t="n">
-        <v>44954</v>
+        <v>45435</v>
       </c>
       <c r="H19" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I19" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="20">
@@ -1140,13 +1140,13 @@
         <v>5</v>
       </c>
       <c r="G20" s="2" t="n">
-        <v>44954</v>
+        <v>45435</v>
       </c>
       <c r="H20" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -1175,13 +1175,13 @@
         <v>5</v>
       </c>
       <c r="G21" s="2" t="n">
-        <v>44954</v>
+        <v>45435</v>
       </c>
       <c r="H21" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -1210,13 +1210,13 @@
         <v>5</v>
       </c>
       <c r="G22" s="2" t="n">
-        <v>44954</v>
+        <v>45435</v>
       </c>
       <c r="H22" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -1246,13 +1246,13 @@
         <v>5</v>
       </c>
       <c r="G23" s="2" t="n">
-        <v>44954</v>
+        <v>45435</v>
       </c>
       <c r="H23" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I23" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24">
@@ -1281,13 +1281,13 @@
         <v>5</v>
       </c>
       <c r="G24" s="2" t="n">
-        <v>44954</v>
+        <v>45435</v>
       </c>
       <c r="H24" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -1316,13 +1316,13 @@
         <v>5</v>
       </c>
       <c r="G25" s="2" t="n">
-        <v>44954</v>
+        <v>45435</v>
       </c>
       <c r="H25" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I25" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="26">
@@ -1351,13 +1351,13 @@
         <v>5</v>
       </c>
       <c r="G26" s="2" t="n">
-        <v>44954</v>
+        <v>45435</v>
       </c>
       <c r="H26" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I26" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -1386,13 +1386,13 @@
         <v>5</v>
       </c>
       <c r="G27" s="2" t="n">
-        <v>44954</v>
+        <v>45435</v>
       </c>
       <c r="H27" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I27" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -1421,13 +1421,13 @@
         <v>5</v>
       </c>
       <c r="G28" s="2" t="n">
-        <v>44954</v>
+        <v>45435</v>
       </c>
       <c r="H28" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I28" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29">
@@ -1456,13 +1456,13 @@
         <v>5</v>
       </c>
       <c r="G29" s="2" t="n">
-        <v>44954</v>
+        <v>45435</v>
       </c>
       <c r="H29" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I29" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1491,13 +1491,13 @@
         <v>5</v>
       </c>
       <c r="G30" s="2" t="n">
-        <v>44954</v>
+        <v>45435</v>
       </c>
       <c r="H30" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -1526,13 +1526,13 @@
         <v>5</v>
       </c>
       <c r="G31" s="2" t="n">
-        <v>44954</v>
+        <v>45435</v>
       </c>
       <c r="H31" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I31" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32">
@@ -1561,13 +1561,13 @@
         <v>5</v>
       </c>
       <c r="G32" s="2" t="n">
-        <v>44954</v>
+        <v>45435</v>
       </c>
       <c r="H32" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I32" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33">
@@ -1596,13 +1596,13 @@
         <v>5</v>
       </c>
       <c r="G33" s="2" t="n">
-        <v>44954</v>
+        <v>45435</v>
       </c>
       <c r="H33" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I33" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34">
@@ -1631,13 +1631,13 @@
         <v>5</v>
       </c>
       <c r="G34" s="2" t="n">
-        <v>44954</v>
+        <v>45435</v>
       </c>
       <c r="H34" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I34" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35">
@@ -1666,13 +1666,13 @@
         <v>5</v>
       </c>
       <c r="G35" s="2" t="n">
-        <v>44954</v>
+        <v>45435</v>
       </c>
       <c r="H35" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I35" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36">
@@ -1701,13 +1701,13 @@
         <v>5</v>
       </c>
       <c r="G36" s="2" t="n">
-        <v>44954</v>
+        <v>45435</v>
       </c>
       <c r="H36" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I36" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37">
@@ -1736,13 +1736,13 @@
         <v>5</v>
       </c>
       <c r="G37" s="2" t="n">
-        <v>44954</v>
+        <v>45435</v>
       </c>
       <c r="H37" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I37" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="38">
@@ -1771,13 +1771,13 @@
         <v>5</v>
       </c>
       <c r="G38" s="2" t="n">
-        <v>44954</v>
+        <v>45435</v>
       </c>
       <c r="H38" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I38" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39">
@@ -1806,13 +1806,13 @@
         <v>5</v>
       </c>
       <c r="G39" s="2" t="n">
-        <v>44954</v>
+        <v>45435</v>
       </c>
       <c r="H39" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I39" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40">
@@ -1841,13 +1841,13 @@
         <v>5</v>
       </c>
       <c r="G40" s="2" t="n">
-        <v>44954</v>
+        <v>45435</v>
       </c>
       <c r="H40" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I40" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41">
@@ -1876,13 +1876,13 @@
         <v>5</v>
       </c>
       <c r="G41" s="2" t="n">
-        <v>44954</v>
+        <v>45435</v>
       </c>
       <c r="H41" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I41" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42">
@@ -1911,13 +1911,13 @@
         <v>5</v>
       </c>
       <c r="G42" s="2" t="n">
-        <v>44954</v>
+        <v>45435</v>
       </c>
       <c r="H42" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I42" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -1944,13 +1944,13 @@
         <v>5</v>
       </c>
       <c r="G43" s="2" t="n">
-        <v>44954</v>
+        <v>45435</v>
       </c>
       <c r="H43" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I43" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44">
@@ -1977,13 +1977,13 @@
         <v>5</v>
       </c>
       <c r="G44" s="2" t="n">
-        <v>44954</v>
+        <v>45435</v>
       </c>
       <c r="H44" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I44" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45">
@@ -2010,13 +2010,13 @@
         <v>5</v>
       </c>
       <c r="G45" s="2" t="n">
-        <v>44954</v>
+        <v>45435</v>
       </c>
       <c r="H45" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I45" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46">
@@ -2043,13 +2043,13 @@
         <v>5</v>
       </c>
       <c r="G46" s="2" t="n">
-        <v>44954</v>
+        <v>45435</v>
       </c>
       <c r="H46" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I46" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -2076,13 +2076,13 @@
         <v>5</v>
       </c>
       <c r="G47" s="2" t="n">
-        <v>44954</v>
+        <v>45435</v>
       </c>
       <c r="H47" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I47" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48">
@@ -2109,13 +2109,13 @@
         <v>5</v>
       </c>
       <c r="G48" s="2" t="n">
-        <v>44954</v>
+        <v>45435</v>
       </c>
       <c r="H48" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I48" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49">
@@ -2142,13 +2142,13 @@
         <v>5</v>
       </c>
       <c r="G49" s="2" t="n">
-        <v>44954</v>
+        <v>45435</v>
       </c>
       <c r="H49" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I49" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50">
@@ -2175,13 +2175,13 @@
         <v>5</v>
       </c>
       <c r="G50" s="2" t="n">
-        <v>44954</v>
+        <v>45435</v>
       </c>
       <c r="H50" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I50" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
@@ -2208,13 +2208,13 @@
         <v>5</v>
       </c>
       <c r="G51" s="2" t="n">
-        <v>44954</v>
+        <v>45435</v>
       </c>
       <c r="H51" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I51" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52">
@@ -2241,13 +2241,13 @@
         <v>5</v>
       </c>
       <c r="G52" s="2" t="n">
-        <v>44954</v>
+        <v>45435</v>
       </c>
       <c r="H52" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I52" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -2274,13 +2274,13 @@
         <v>5</v>
       </c>
       <c r="G53" s="2" t="n">
-        <v>44954</v>
+        <v>45435</v>
       </c>
       <c r="H53" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I53" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="54">
@@ -2307,13 +2307,13 @@
         <v>5</v>
       </c>
       <c r="G54" s="2" t="n">
-        <v>44954</v>
+        <v>45435</v>
       </c>
       <c r="H54" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I54" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55">
@@ -2340,13 +2340,13 @@
         <v>5</v>
       </c>
       <c r="G55" s="2" t="n">
-        <v>44954</v>
+        <v>45435</v>
       </c>
       <c r="H55" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I55" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -2373,13 +2373,13 @@
         <v>5</v>
       </c>
       <c r="G56" s="2" t="n">
-        <v>44954</v>
+        <v>45435</v>
       </c>
       <c r="H56" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I56" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57">
@@ -2406,13 +2406,13 @@
         <v>5</v>
       </c>
       <c r="G57" s="2" t="n">
-        <v>44954</v>
+        <v>45435</v>
       </c>
       <c r="H57" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I57" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58">
@@ -2439,13 +2439,13 @@
         <v>5</v>
       </c>
       <c r="G58" s="2" t="n">
-        <v>44954</v>
+        <v>45435</v>
       </c>
       <c r="H58" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I58" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59">
@@ -2472,13 +2472,13 @@
         <v>5</v>
       </c>
       <c r="G59" s="2" t="n">
-        <v>44954</v>
+        <v>45435</v>
       </c>
       <c r="H59" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
@@ -2505,13 +2505,13 @@
         <v>5</v>
       </c>
       <c r="G60" s="2" t="n">
-        <v>44954</v>
+        <v>45435</v>
       </c>
       <c r="H60" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I60" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61">
@@ -2538,13 +2538,13 @@
         <v>5</v>
       </c>
       <c r="G61" s="2" t="n">
-        <v>44954</v>
+        <v>45435</v>
       </c>
       <c r="H61" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I61" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62">
@@ -2571,13 +2571,13 @@
         <v>5</v>
       </c>
       <c r="G62" s="2" t="n">
-        <v>44954</v>
+        <v>45435</v>
       </c>
       <c r="H62" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I62" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63">
@@ -2604,13 +2604,13 @@
         <v>5</v>
       </c>
       <c r="G63" s="2" t="n">
-        <v>44954</v>
+        <v>45435</v>
       </c>
       <c r="H63" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I63" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64">
@@ -2637,13 +2637,13 @@
         <v>5</v>
       </c>
       <c r="G64" s="2" t="n">
-        <v>44954</v>
+        <v>45435</v>
       </c>
       <c r="H64" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
@@ -2670,13 +2670,13 @@
         <v>5</v>
       </c>
       <c r="G65" s="2" t="n">
-        <v>44954</v>
+        <v>45435</v>
       </c>
       <c r="H65" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66">
@@ -2703,13 +2703,13 @@
         <v>5</v>
       </c>
       <c r="G66" s="2" t="n">
-        <v>44954</v>
+        <v>45435</v>
       </c>
       <c r="H66" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67">
@@ -2736,13 +2736,13 @@
         <v>5</v>
       </c>
       <c r="G67" s="2" t="n">
-        <v>44954</v>
+        <v>45435</v>
       </c>
       <c r="H67" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I67" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
@@ -2769,13 +2769,13 @@
         <v>5</v>
       </c>
       <c r="G68" s="2" t="n">
-        <v>44954</v>
+        <v>45435</v>
       </c>
       <c r="H68" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I68" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69">
@@ -2802,13 +2802,13 @@
         <v>5</v>
       </c>
       <c r="G69" s="2" t="n">
-        <v>44954</v>
+        <v>45435</v>
       </c>
       <c r="H69" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I69" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70">
@@ -2835,13 +2835,13 @@
         <v>5</v>
       </c>
       <c r="G70" s="2" t="n">
-        <v>44954</v>
+        <v>45435</v>
       </c>
       <c r="H70" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I70" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
@@ -2868,13 +2868,13 @@
         <v>5</v>
       </c>
       <c r="G71" s="2" t="n">
-        <v>44954</v>
+        <v>45435</v>
       </c>
       <c r="H71" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I71" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72">
@@ -2901,13 +2901,13 @@
         <v>5</v>
       </c>
       <c r="G72" s="2" t="n">
-        <v>44954</v>
+        <v>45435</v>
       </c>
       <c r="H72" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I72" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="73">
@@ -2934,13 +2934,13 @@
         <v>5</v>
       </c>
       <c r="G73" s="2" t="n">
-        <v>44954</v>
+        <v>45435</v>
       </c>
       <c r="H73" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I73" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
@@ -2967,13 +2967,13 @@
         <v>5</v>
       </c>
       <c r="G74" s="2" t="n">
-        <v>44954</v>
+        <v>45435</v>
       </c>
       <c r="H74" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I74" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75">
@@ -3000,13 +3000,13 @@
         <v>5</v>
       </c>
       <c r="G75" s="2" t="n">
-        <v>44954</v>
+        <v>45435</v>
       </c>
       <c r="H75" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I75" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="76">
@@ -3033,13 +3033,13 @@
         <v>5</v>
       </c>
       <c r="G76" s="2" t="n">
-        <v>44954</v>
+        <v>45435</v>
       </c>
       <c r="H76" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I76" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77">
@@ -3066,13 +3066,13 @@
         <v>5</v>
       </c>
       <c r="G77" s="2" t="n">
-        <v>44954</v>
+        <v>45435</v>
       </c>
       <c r="H77" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I77" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="78">
@@ -3099,13 +3099,13 @@
         <v>5</v>
       </c>
       <c r="G78" s="2" t="n">
-        <v>44954</v>
+        <v>45435</v>
       </c>
       <c r="H78" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I78" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -3132,13 +3132,13 @@
         <v>5</v>
       </c>
       <c r="G79" s="2" t="n">
-        <v>44954</v>
+        <v>45435</v>
       </c>
       <c r="H79" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I79" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80">
@@ -3165,13 +3165,13 @@
         <v>5</v>
       </c>
       <c r="G80" s="2" t="n">
-        <v>44954</v>
+        <v>45435</v>
       </c>
       <c r="H80" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I80" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -3198,13 +3198,13 @@
         <v>5</v>
       </c>
       <c r="G81" s="2" t="n">
-        <v>44954</v>
+        <v>45435</v>
       </c>
       <c r="H81" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I81" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="82">
@@ -3231,13 +3231,13 @@
         <v>5</v>
       </c>
       <c r="G82" s="2" t="n">
-        <v>44954</v>
+        <v>45435</v>
       </c>
       <c r="H82" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I82" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83">
@@ -3264,13 +3264,13 @@
         <v>5</v>
       </c>
       <c r="G83" s="2" t="n">
-        <v>44954</v>
+        <v>45435</v>
       </c>
       <c r="H83" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I83" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84">
@@ -3297,13 +3297,13 @@
         <v>5</v>
       </c>
       <c r="G84" s="2" t="n">
-        <v>44954</v>
+        <v>45435</v>
       </c>
       <c r="H84" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I84" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85">
@@ -3331,13 +3331,13 @@
         <v>5</v>
       </c>
       <c r="G85" s="2" t="n">
-        <v>44954</v>
+        <v>45435</v>
       </c>
       <c r="H85" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I85" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
@@ -3364,13 +3364,13 @@
         <v>5</v>
       </c>
       <c r="G86" s="2" t="n">
-        <v>44954</v>
+        <v>45435</v>
       </c>
       <c r="H86" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I86" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="87">
@@ -3397,13 +3397,13 @@
         <v>5</v>
       </c>
       <c r="G87" s="2" t="n">
-        <v>44954</v>
+        <v>45435</v>
       </c>
       <c r="H87" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I87" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="88">
@@ -3430,13 +3430,13 @@
         <v>5</v>
       </c>
       <c r="G88" s="2" t="n">
-        <v>44954</v>
+        <v>45435</v>
       </c>
       <c r="H88" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I88" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="89">
@@ -3463,13 +3463,13 @@
         <v>5</v>
       </c>
       <c r="G89" s="2" t="n">
-        <v>44954</v>
+        <v>45435</v>
       </c>
       <c r="H89" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I89" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90">
@@ -3496,13 +3496,13 @@
         <v>5</v>
       </c>
       <c r="G90" s="2" t="n">
-        <v>44954</v>
+        <v>45435</v>
       </c>
       <c r="H90" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I90" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="91">
@@ -3529,13 +3529,13 @@
         <v>5</v>
       </c>
       <c r="G91" s="2" t="n">
-        <v>44954</v>
+        <v>45435</v>
       </c>
       <c r="H91" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92">
@@ -3562,13 +3562,13 @@
         <v>5</v>
       </c>
       <c r="G92" s="2" t="n">
-        <v>44954</v>
+        <v>45435</v>
       </c>
       <c r="H92" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I92" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="93">
@@ -3595,13 +3595,13 @@
         <v>5</v>
       </c>
       <c r="G93" s="2" t="n">
-        <v>44954</v>
+        <v>45435</v>
       </c>
       <c r="H93" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I93" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="94">
@@ -3628,13 +3628,13 @@
         <v>5</v>
       </c>
       <c r="G94" s="2" t="n">
-        <v>44954</v>
+        <v>45435</v>
       </c>
       <c r="H94" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I94" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="95">
@@ -3661,13 +3661,13 @@
         <v>5</v>
       </c>
       <c r="G95" s="2" t="n">
-        <v>44954</v>
+        <v>45435</v>
       </c>
       <c r="H95" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I95" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96">
@@ -3694,13 +3694,13 @@
         <v>5</v>
       </c>
       <c r="G96" s="2" t="n">
-        <v>44954</v>
+        <v>45435</v>
       </c>
       <c r="H96" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I96" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="97">
@@ -3727,13 +3727,13 @@
         <v>5</v>
       </c>
       <c r="G97" s="2" t="n">
-        <v>44954</v>
+        <v>45435</v>
       </c>
       <c r="H97" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98">
@@ -3760,13 +3760,13 @@
         <v>5</v>
       </c>
       <c r="G98" s="2" t="n">
-        <v>44954</v>
+        <v>45435</v>
       </c>
       <c r="H98" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I98" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="99">
@@ -3793,13 +3793,13 @@
         <v>5</v>
       </c>
       <c r="G99" s="2" t="n">
-        <v>44954</v>
+        <v>45435</v>
       </c>
       <c r="H99" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I99" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
@@ -3826,13 +3826,13 @@
         <v>5</v>
       </c>
       <c r="G100" s="2" t="n">
-        <v>44954</v>
+        <v>45435</v>
       </c>
       <c r="H100" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101">
@@ -3859,13 +3859,13 @@
         <v>5</v>
       </c>
       <c r="G101" s="2" t="n">
-        <v>44954</v>
+        <v>45435</v>
       </c>
       <c r="H101" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I101" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102">
@@ -3892,13 +3892,13 @@
         <v>5</v>
       </c>
       <c r="G102" s="2" t="n">
-        <v>44954</v>
+        <v>45435</v>
       </c>
       <c r="H102" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I102" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="103">
@@ -3925,13 +3925,13 @@
         <v>5</v>
       </c>
       <c r="G103" s="2" t="n">
-        <v>44954</v>
+        <v>45435</v>
       </c>
       <c r="H103" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I103" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104">
@@ -3958,13 +3958,13 @@
         <v>5</v>
       </c>
       <c r="G104" s="2" t="n">
-        <v>44954</v>
+        <v>45435</v>
       </c>
       <c r="H104" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I104" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="105">
@@ -3991,13 +3991,13 @@
         <v>5</v>
       </c>
       <c r="G105" s="2" t="n">
-        <v>44954</v>
+        <v>45435</v>
       </c>
       <c r="H105" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I105" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="106">
@@ -4024,13 +4024,13 @@
         <v>5</v>
       </c>
       <c r="G106" s="2" t="n">
-        <v>44954</v>
+        <v>45435</v>
       </c>
       <c r="H106" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I106" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107">
@@ -4057,13 +4057,13 @@
         <v>5</v>
       </c>
       <c r="G107" s="2" t="n">
-        <v>44954</v>
+        <v>45435</v>
       </c>
       <c r="H107" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I107" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="108">
@@ -4090,13 +4090,13 @@
         <v>5</v>
       </c>
       <c r="G108" s="2" t="n">
-        <v>44954</v>
+        <v>45435</v>
       </c>
       <c r="H108" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I108" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109">
@@ -4123,13 +4123,13 @@
         <v>5</v>
       </c>
       <c r="G109" s="2" t="n">
-        <v>44954</v>
+        <v>45435</v>
       </c>
       <c r="H109" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I109" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110">
@@ -4156,13 +4156,13 @@
         <v>5</v>
       </c>
       <c r="G110" s="2" t="n">
-        <v>44954</v>
+        <v>45435</v>
       </c>
       <c r="H110" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I110" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111">
@@ -4189,13 +4189,13 @@
         <v>5</v>
       </c>
       <c r="G111" s="2" t="n">
-        <v>44954</v>
+        <v>45435</v>
       </c>
       <c r="H111" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I111" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112">
@@ -4222,13 +4222,13 @@
         <v>5</v>
       </c>
       <c r="G112" s="2" t="n">
-        <v>44954</v>
+        <v>45435</v>
       </c>
       <c r="H112" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I112" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113">
@@ -4255,13 +4255,13 @@
         <v>5</v>
       </c>
       <c r="G113" s="2" t="n">
-        <v>44954</v>
+        <v>45435</v>
       </c>
       <c r="H113" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I113" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114">
@@ -4288,13 +4288,13 @@
         <v>5</v>
       </c>
       <c r="G114" s="2" t="n">
-        <v>44954</v>
+        <v>45435</v>
       </c>
       <c r="H114" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I114" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115">
@@ -4321,13 +4321,13 @@
         <v>5</v>
       </c>
       <c r="G115" s="2" t="n">
-        <v>44954</v>
+        <v>45435</v>
       </c>
       <c r="H115" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I115" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116">
@@ -4354,13 +4354,13 @@
         <v>5</v>
       </c>
       <c r="G116" s="2" t="n">
-        <v>44954</v>
+        <v>45435</v>
       </c>
       <c r="H116" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I116" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="117">
@@ -4387,13 +4387,13 @@
         <v>5</v>
       </c>
       <c r="G117" s="2" t="n">
-        <v>44954</v>
+        <v>45435</v>
       </c>
       <c r="H117" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I117" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="118">
@@ -4420,13 +4420,13 @@
         <v>5</v>
       </c>
       <c r="G118" s="2" t="n">
-        <v>44954</v>
+        <v>45435</v>
       </c>
       <c r="H118" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I118" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="119">
@@ -4453,13 +4453,13 @@
         <v>5</v>
       </c>
       <c r="G119" s="2" t="n">
-        <v>44954</v>
+        <v>45435</v>
       </c>
       <c r="H119" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I119" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120">
@@ -4486,13 +4486,13 @@
         <v>5</v>
       </c>
       <c r="G120" s="2" t="n">
-        <v>44954</v>
+        <v>45435</v>
       </c>
       <c r="H120" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I120" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="121">
@@ -4519,13 +4519,13 @@
         <v>5</v>
       </c>
       <c r="G121" s="2" t="n">
-        <v>44954</v>
+        <v>45435</v>
       </c>
       <c r="H121" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I121" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122">
@@ -4552,13 +4552,13 @@
         <v>5</v>
       </c>
       <c r="G122" s="2" t="n">
-        <v>44954</v>
+        <v>45435</v>
       </c>
       <c r="H122" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I122" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="123">
@@ -4585,13 +4585,13 @@
         <v>5</v>
       </c>
       <c r="G123" s="2" t="n">
-        <v>44954</v>
+        <v>45435</v>
       </c>
       <c r="H123" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I123" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="124">
@@ -4618,13 +4618,13 @@
         <v>5</v>
       </c>
       <c r="G124" s="2" t="n">
-        <v>44954</v>
+        <v>45435</v>
       </c>
       <c r="H124" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I124" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125">
@@ -4651,13 +4651,13 @@
         <v>5</v>
       </c>
       <c r="G125" s="2" t="n">
-        <v>44954</v>
+        <v>45435</v>
       </c>
       <c r="H125" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I125" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="126">
@@ -4684,13 +4684,13 @@
         <v>5</v>
       </c>
       <c r="G126" s="2" t="n">
-        <v>44954</v>
+        <v>45435</v>
       </c>
       <c r="H126" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I126" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="127">
@@ -4717,13 +4717,13 @@
         <v>5</v>
       </c>
       <c r="G127" s="2" t="n">
-        <v>44954</v>
+        <v>45435</v>
       </c>
       <c r="H127" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I127" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128">
@@ -4750,13 +4750,13 @@
         <v>5</v>
       </c>
       <c r="G128" s="2" t="n">
-        <v>44954</v>
+        <v>45435</v>
       </c>
       <c r="H128" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I128" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="129">
@@ -4783,13 +4783,13 @@
         <v>5</v>
       </c>
       <c r="G129" s="2" t="n">
-        <v>44954</v>
+        <v>45435</v>
       </c>
       <c r="H129" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I129" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="130">
@@ -4816,13 +4816,13 @@
         <v>5</v>
       </c>
       <c r="G130" s="2" t="n">
-        <v>44954</v>
+        <v>45435</v>
       </c>
       <c r="H130" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I130" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="131">
@@ -4849,13 +4849,13 @@
         <v>5</v>
       </c>
       <c r="G131" s="2" t="n">
-        <v>44954</v>
+        <v>45435</v>
       </c>
       <c r="H131" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I131" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132">
@@ -4882,13 +4882,13 @@
         <v>5</v>
       </c>
       <c r="G132" s="2" t="n">
-        <v>44954</v>
+        <v>45435</v>
       </c>
       <c r="H132" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I132" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="133">
@@ -4915,13 +4915,13 @@
         <v>5</v>
       </c>
       <c r="G133" s="2" t="n">
-        <v>44954</v>
+        <v>45435</v>
       </c>
       <c r="H133" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I133" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134">
@@ -4948,13 +4948,13 @@
         <v>5</v>
       </c>
       <c r="G134" s="2" t="n">
-        <v>44954</v>
+        <v>45435</v>
       </c>
       <c r="H134" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I134" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135">
@@ -4981,13 +4981,13 @@
         <v>5</v>
       </c>
       <c r="G135" s="2" t="n">
-        <v>44954</v>
+        <v>45435</v>
       </c>
       <c r="H135" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I135" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="136">
@@ -5014,13 +5014,13 @@
         <v>5</v>
       </c>
       <c r="G136" s="2" t="n">
-        <v>44954</v>
+        <v>45435</v>
       </c>
       <c r="H136" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I136" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="137">
@@ -5047,13 +5047,13 @@
         <v>5</v>
       </c>
       <c r="G137" s="2" t="n">
-        <v>44954</v>
+        <v>45435</v>
       </c>
       <c r="H137" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I137" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="138">
@@ -5080,13 +5080,13 @@
         <v>5</v>
       </c>
       <c r="G138" s="2" t="n">
-        <v>44954</v>
+        <v>45435</v>
       </c>
       <c r="H138" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I138" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="139">
@@ -5113,13 +5113,13 @@
         <v>5</v>
       </c>
       <c r="G139" s="2" t="n">
-        <v>44954</v>
+        <v>45435</v>
       </c>
       <c r="H139" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I139" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="140">
@@ -5146,13 +5146,13 @@
         <v>5</v>
       </c>
       <c r="G140" s="2" t="n">
-        <v>44954</v>
+        <v>45435</v>
       </c>
       <c r="H140" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I140" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="141">
@@ -5179,13 +5179,13 @@
         <v>5</v>
       </c>
       <c r="G141" s="2" t="n">
-        <v>44954</v>
+        <v>45435</v>
       </c>
       <c r="H141" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I141" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142">
@@ -5212,13 +5212,13 @@
         <v>5</v>
       </c>
       <c r="G142" s="2" t="n">
-        <v>44954</v>
+        <v>45435</v>
       </c>
       <c r="H142" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I142" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143">
@@ -5245,13 +5245,13 @@
         <v>5</v>
       </c>
       <c r="G143" s="2" t="n">
-        <v>44954</v>
+        <v>45435</v>
       </c>
       <c r="H143" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I143" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="144">
@@ -5278,13 +5278,13 @@
         <v>5</v>
       </c>
       <c r="G144" s="2" t="n">
-        <v>44954</v>
+        <v>45435</v>
       </c>
       <c r="H144" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I144" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="145">
@@ -5311,13 +5311,13 @@
         <v>5</v>
       </c>
       <c r="G145" s="2" t="n">
-        <v>44954</v>
+        <v>45435</v>
       </c>
       <c r="H145" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I145" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="146">
@@ -5344,13 +5344,13 @@
         <v>5</v>
       </c>
       <c r="G146" s="2" t="n">
-        <v>44954</v>
+        <v>45435</v>
       </c>
       <c r="H146" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I146" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="147">
@@ -5377,13 +5377,13 @@
         <v>5</v>
       </c>
       <c r="G147" s="2" t="n">
-        <v>44954</v>
+        <v>45435</v>
       </c>
       <c r="H147" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I147" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148">
@@ -5410,13 +5410,13 @@
         <v>5</v>
       </c>
       <c r="G148" s="2" t="n">
-        <v>44954</v>
+        <v>45435</v>
       </c>
       <c r="H148" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I148" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149">
@@ -5443,13 +5443,13 @@
         <v>5</v>
       </c>
       <c r="G149" s="2" t="n">
-        <v>44954</v>
+        <v>45435</v>
       </c>
       <c r="H149" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I149" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150">
@@ -5476,13 +5476,13 @@
         <v>5</v>
       </c>
       <c r="G150" s="2" t="n">
-        <v>44954</v>
+        <v>45435</v>
       </c>
       <c r="H150" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I150" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="151">
@@ -5509,13 +5509,13 @@
         <v>5</v>
       </c>
       <c r="G151" s="2" t="n">
-        <v>44954</v>
+        <v>45435</v>
       </c>
       <c r="H151" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I151" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="152">
@@ -5542,13 +5542,13 @@
         <v>5</v>
       </c>
       <c r="G152" s="2" t="n">
-        <v>44954</v>
+        <v>45435</v>
       </c>
       <c r="H152" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I152" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="153">
@@ -5575,13 +5575,13 @@
         <v>5</v>
       </c>
       <c r="G153" s="2" t="n">
-        <v>44954</v>
+        <v>45435</v>
       </c>
       <c r="H153" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I153" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="154">
@@ -5608,13 +5608,13 @@
         <v>5</v>
       </c>
       <c r="G154" s="2" t="n">
-        <v>44954</v>
+        <v>45435</v>
       </c>
       <c r="H154" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I154" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155">
@@ -5641,13 +5641,13 @@
         <v>5</v>
       </c>
       <c r="G155" s="2" t="n">
-        <v>44954</v>
+        <v>45435</v>
       </c>
       <c r="H155" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I155" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156">
@@ -5675,13 +5675,13 @@
         <v>5</v>
       </c>
       <c r="G156" s="2" t="n">
-        <v>44954</v>
+        <v>45435</v>
       </c>
       <c r="H156" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I156" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="157">
@@ -5708,13 +5708,13 @@
         <v>5</v>
       </c>
       <c r="G157" s="2" t="n">
-        <v>44954</v>
+        <v>45435</v>
       </c>
       <c r="H157" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I157" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158">
@@ -5741,13 +5741,13 @@
         <v>5</v>
       </c>
       <c r="G158" s="2" t="n">
-        <v>44954</v>
+        <v>45435</v>
       </c>
       <c r="H158" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I158" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="159">
@@ -5774,13 +5774,13 @@
         <v>5</v>
       </c>
       <c r="G159" s="2" t="n">
-        <v>44954</v>
+        <v>45435</v>
       </c>
       <c r="H159" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I159" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="160">
@@ -5807,13 +5807,13 @@
         <v>5</v>
       </c>
       <c r="G160" s="2" t="n">
-        <v>44954</v>
+        <v>45435</v>
       </c>
       <c r="H160" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I160" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="161">
@@ -5840,13 +5840,13 @@
         <v>5</v>
       </c>
       <c r="G161" s="2" t="n">
-        <v>44954</v>
+        <v>45435</v>
       </c>
       <c r="H161" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I161" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="162">
@@ -5873,13 +5873,13 @@
         <v>5</v>
       </c>
       <c r="G162" s="2" t="n">
-        <v>44954</v>
+        <v>45435</v>
       </c>
       <c r="H162" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I162" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163">
@@ -5906,13 +5906,13 @@
         <v>5</v>
       </c>
       <c r="G163" s="2" t="n">
-        <v>44954</v>
+        <v>45435</v>
       </c>
       <c r="H163" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I163" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164">
@@ -5939,13 +5939,13 @@
         <v>5</v>
       </c>
       <c r="G164" s="2" t="n">
-        <v>44954</v>
+        <v>45435</v>
       </c>
       <c r="H164" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I164" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="165">
@@ -5972,13 +5972,13 @@
         <v>5</v>
       </c>
       <c r="G165" s="2" t="n">
-        <v>44954</v>
+        <v>45435</v>
       </c>
       <c r="H165" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I165" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="166">
@@ -6005,13 +6005,13 @@
         <v>5</v>
       </c>
       <c r="G166" s="2" t="n">
-        <v>44954</v>
+        <v>45435</v>
       </c>
       <c r="H166" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I166" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167">
@@ -6038,13 +6038,13 @@
         <v>5</v>
       </c>
       <c r="G167" s="2" t="n">
-        <v>44954</v>
+        <v>45435</v>
       </c>
       <c r="H167" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I167" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168">
@@ -6071,13 +6071,13 @@
         <v>5</v>
       </c>
       <c r="G168" s="2" t="n">
-        <v>44954</v>
+        <v>45435</v>
       </c>
       <c r="H168" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I168" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="169">
@@ -6104,13 +6104,13 @@
         <v>5</v>
       </c>
       <c r="G169" s="2" t="n">
-        <v>44954</v>
+        <v>45435</v>
       </c>
       <c r="H169" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I169" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="170">
@@ -6137,13 +6137,13 @@
         <v>5</v>
       </c>
       <c r="G170" s="2" t="n">
-        <v>44954</v>
+        <v>45435</v>
       </c>
       <c r="H170" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I170" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171">
@@ -6170,13 +6170,13 @@
         <v>5</v>
       </c>
       <c r="G171" s="2" t="n">
-        <v>44954</v>
+        <v>45435</v>
       </c>
       <c r="H171" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I171" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="172">
@@ -6203,13 +6203,13 @@
         <v>5</v>
       </c>
       <c r="G172" s="2" t="n">
-        <v>44954</v>
+        <v>45435</v>
       </c>
       <c r="H172" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I172" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="173">
@@ -6236,13 +6236,13 @@
         <v>5</v>
       </c>
       <c r="G173" s="2" t="n">
-        <v>44954</v>
+        <v>45435</v>
       </c>
       <c r="H173" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I173" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="174">
@@ -6269,13 +6269,13 @@
         <v>5</v>
       </c>
       <c r="G174" s="2" t="n">
-        <v>44954</v>
+        <v>45435</v>
       </c>
       <c r="H174" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I174" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175">
@@ -6302,13 +6302,13 @@
         <v>5</v>
       </c>
       <c r="G175" s="2" t="n">
-        <v>44954</v>
+        <v>45435</v>
       </c>
       <c r="H175" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I175" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="176">
@@ -6335,13 +6335,13 @@
         <v>5</v>
       </c>
       <c r="G176" s="2" t="n">
-        <v>44954</v>
+        <v>45435</v>
       </c>
       <c r="H176" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I176" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="177">
@@ -6368,13 +6368,13 @@
         <v>5</v>
       </c>
       <c r="G177" s="2" t="n">
-        <v>44954</v>
+        <v>45435</v>
       </c>
       <c r="H177" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I177" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="178">
@@ -6401,13 +6401,13 @@
         <v>5</v>
       </c>
       <c r="G178" s="2" t="n">
-        <v>44954</v>
+        <v>45435</v>
       </c>
       <c r="H178" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I178" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179">
@@ -6434,13 +6434,13 @@
         <v>5</v>
       </c>
       <c r="G179" s="2" t="n">
-        <v>44954</v>
+        <v>45435</v>
       </c>
       <c r="H179" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I179" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="180">
@@ -6467,13 +6467,13 @@
         <v>5</v>
       </c>
       <c r="G180" s="2" t="n">
-        <v>44954</v>
+        <v>45435</v>
       </c>
       <c r="H180" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I180" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="181">
@@ -6500,13 +6500,13 @@
         <v>5</v>
       </c>
       <c r="G181" s="2" t="n">
-        <v>44954</v>
+        <v>45435</v>
       </c>
       <c r="H181" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I181" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="182">
@@ -6533,13 +6533,13 @@
         <v>5</v>
       </c>
       <c r="G182" s="2" t="n">
-        <v>44954</v>
+        <v>45435</v>
       </c>
       <c r="H182" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I182" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="183">
@@ -6566,13 +6566,13 @@
         <v>5</v>
       </c>
       <c r="G183" s="2" t="n">
-        <v>44954</v>
+        <v>45435</v>
       </c>
       <c r="H183" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I183" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="184">
@@ -6599,13 +6599,13 @@
         <v>5</v>
       </c>
       <c r="G184" s="2" t="n">
-        <v>44954</v>
+        <v>45435</v>
       </c>
       <c r="H184" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I184" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="185">
@@ -6632,13 +6632,13 @@
         <v>5</v>
       </c>
       <c r="G185" s="2" t="n">
-        <v>44954</v>
+        <v>45435</v>
       </c>
       <c r="H185" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I185" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="186">
@@ -6665,13 +6665,13 @@
         <v>5</v>
       </c>
       <c r="G186" s="2" t="n">
-        <v>44954</v>
+        <v>45435</v>
       </c>
       <c r="H186" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I186" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="187">
@@ -6698,13 +6698,13 @@
         <v>5</v>
       </c>
       <c r="G187" s="2" t="n">
-        <v>44954</v>
+        <v>45435</v>
       </c>
       <c r="H187" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I187" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="188">
@@ -6731,13 +6731,13 @@
         <v>5</v>
       </c>
       <c r="G188" s="2" t="n">
-        <v>44954</v>
+        <v>45435</v>
       </c>
       <c r="H188" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I188" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="189">
@@ -6764,13 +6764,13 @@
         <v>5</v>
       </c>
       <c r="G189" s="2" t="n">
-        <v>44954</v>
+        <v>45435</v>
       </c>
       <c r="H189" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I189" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="190">
@@ -6797,13 +6797,13 @@
         <v>5</v>
       </c>
       <c r="G190" s="2" t="n">
-        <v>44954</v>
+        <v>45435</v>
       </c>
       <c r="H190" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I190" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="191">
@@ -6830,13 +6830,13 @@
         <v>5</v>
       </c>
       <c r="G191" s="2" t="n">
-        <v>44954</v>
+        <v>45435</v>
       </c>
       <c r="H191" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I191" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="192">
@@ -6863,13 +6863,13 @@
         <v>5</v>
       </c>
       <c r="G192" s="2" t="n">
-        <v>44954</v>
+        <v>45435</v>
       </c>
       <c r="H192" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I192" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="193">
@@ -6896,13 +6896,13 @@
         <v>5</v>
       </c>
       <c r="G193" s="2" t="n">
-        <v>44954</v>
+        <v>45435</v>
       </c>
       <c r="H193" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I193" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="194">
@@ -6929,13 +6929,13 @@
         <v>5</v>
       </c>
       <c r="G194" s="2" t="n">
-        <v>44954</v>
+        <v>45435</v>
       </c>
       <c r="H194" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I194" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="195">
@@ -6962,13 +6962,13 @@
         <v>5</v>
       </c>
       <c r="G195" s="2" t="n">
-        <v>44954</v>
+        <v>45435</v>
       </c>
       <c r="H195" s="2" t="n">
         <v>117642</v>
       </c>
       <c r="I195" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="196">
@@ -6995,13 +6995,13 @@
         <v>5</v>
       </c>
       <c r="G196" s="2" t="n">
-        <v>44954</v>
+        <v>45435</v>
       </c>
       <c r="H196" s="2" t="n">
         <v>44954</v>
       </c>
       <c r="I196" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="197">
@@ -7061,13 +7061,13 @@
         <v>5</v>
       </c>
       <c r="G198" s="2" t="n">
-        <v>44954</v>
+        <v>45435</v>
       </c>
       <c r="H198" s="2" t="n">
         <v>44954</v>
       </c>
       <c r="I198" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="199">
@@ -7193,13 +7193,13 @@
         <v>5</v>
       </c>
       <c r="G202" s="2" t="n">
-        <v>44954</v>
+        <v>45435</v>
       </c>
       <c r="H202" s="2" t="n">
         <v>44954</v>
       </c>
       <c r="I202" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="203">
@@ -7622,13 +7622,13 @@
         <v>5</v>
       </c>
       <c r="G215" s="2" t="n">
-        <v>44954</v>
+        <v>45435</v>
       </c>
       <c r="H215" s="2" t="n">
         <v>44954</v>
       </c>
       <c r="I215" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="216">
